--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
@@ -477,7 +477,7 @@
             <v>164000000000001</v>
           </cell>
           <cell r="M4" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000001::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000001::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="5">
@@ -488,7 +488,7 @@
             <v>164000000000002</v>
           </cell>
           <cell r="M5" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000002::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000002::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="6">
@@ -499,7 +499,7 @@
             <v>164000000000003</v>
           </cell>
           <cell r="M6" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000003::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000003::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="7">
@@ -510,7 +510,7 @@
             <v>164000000000004</v>
           </cell>
           <cell r="M7" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000004::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000004::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="8">
@@ -521,7 +521,7 @@
             <v>164000000000005</v>
           </cell>
           <cell r="M8" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000005::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000005::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="9">
@@ -532,7 +532,7 @@
             <v>164000000000006</v>
           </cell>
           <cell r="M9" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000006::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000006::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="10">
@@ -543,7 +543,7 @@
             <v>164000000000007</v>
           </cell>
           <cell r="M10" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000007::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000007::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="11">
@@ -554,7 +554,7 @@
             <v>164000000000008</v>
           </cell>
           <cell r="M11" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000008::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000008::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="12">
@@ -565,7 +565,7 @@
             <v>164000000000009</v>
           </cell>
           <cell r="M12" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000009::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000009::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="13">
@@ -576,7 +576,7 @@
             <v>164000000000010</v>
           </cell>
           <cell r="M13" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000010::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="14">
@@ -587,7 +587,7 @@
             <v>164000000000011</v>
           </cell>
           <cell r="M14" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000011::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000011::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="15">
@@ -598,7 +598,7 @@
             <v>164000000000012</v>
           </cell>
           <cell r="M15" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000012::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000012::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="16">
@@ -609,7 +609,7 @@
             <v>164000000000013</v>
           </cell>
           <cell r="M16" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000013::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000013::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="17">
@@ -620,7 +620,7 @@
             <v>164000000000014</v>
           </cell>
           <cell r="M17" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000014::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000014::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="18">
@@ -631,7 +631,7 @@
             <v>164000000000015</v>
           </cell>
           <cell r="M18" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000015::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000015::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="19">
@@ -642,7 +642,7 @@
             <v>164000000000016</v>
           </cell>
           <cell r="M19" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000016::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000016::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="20">
@@ -653,7 +653,7 @@
             <v>164000000000017</v>
           </cell>
           <cell r="M20" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000017::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000017::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="21">
@@ -664,7 +664,7 @@
             <v>164000000000018</v>
           </cell>
           <cell r="M21" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000018::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000018::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="22">
@@ -675,7 +675,7 @@
             <v>164000000000019</v>
           </cell>
           <cell r="M22" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000019::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000019::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="23">
@@ -686,7 +686,7 @@
             <v>164000000000020</v>
           </cell>
           <cell r="M23" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000020::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000020::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="24">
@@ -697,7 +697,7 @@
             <v>164000000000021</v>
           </cell>
           <cell r="M24" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000021::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000021::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="25">
@@ -708,7 +708,7 @@
             <v>164000000000022</v>
           </cell>
           <cell r="M25" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000022::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000022::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="26">
@@ -719,7 +719,7 @@
             <v>164000000000023</v>
           </cell>
           <cell r="M26" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000023::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000023::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="27">
@@ -730,7 +730,7 @@
             <v>164000000000024</v>
           </cell>
           <cell r="M27" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000024::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000024::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="28">
@@ -741,7 +741,7 @@
             <v>164000000000025</v>
           </cell>
           <cell r="M28" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000025::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000025::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="29">
@@ -752,7 +752,7 @@
             <v>164000000000026</v>
           </cell>
           <cell r="M29" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000026::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000026::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="30">
@@ -763,7 +763,7 @@
             <v>164000000000027</v>
           </cell>
           <cell r="M30" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000027::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000027::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="31">
@@ -774,7 +774,7 @@
             <v>164000000000028</v>
           </cell>
           <cell r="M31" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000028::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000028::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="32">
@@ -785,7 +785,7 @@
             <v>164000000000029</v>
           </cell>
           <cell r="M32" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000029::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000029::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="33">
@@ -796,7 +796,7 @@
             <v>164000000000030</v>
           </cell>
           <cell r="M33" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000030::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000030::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="34">
@@ -807,7 +807,7 @@
             <v>164000000000031</v>
           </cell>
           <cell r="M34" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000031::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000031::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="35">
@@ -818,7 +818,7 @@
             <v>164000000000032</v>
           </cell>
           <cell r="M35" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000032::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000032::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="36">
@@ -829,7 +829,7 @@
             <v>164000000000033</v>
           </cell>
           <cell r="M36" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000033::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000033::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="37">
@@ -840,7 +840,7 @@
             <v>164000000000034</v>
           </cell>
           <cell r="M37" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000034::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000034::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="38">
@@ -851,7 +851,7 @@
             <v>164000000000035</v>
           </cell>
           <cell r="M38" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000035::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000035::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="39">
@@ -862,7 +862,7 @@
             <v>164000000000036</v>
           </cell>
           <cell r="M39" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000036::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000036::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="40">
@@ -873,7 +873,7 @@
             <v>164000000000037</v>
           </cell>
           <cell r="M40" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000037::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000037::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="41">
@@ -884,7 +884,7 @@
             <v>164000000000038</v>
           </cell>
           <cell r="M41" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000038::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000038::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="42">
@@ -895,7 +895,7 @@
             <v>164000000000039</v>
           </cell>
           <cell r="M42" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000039::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000039::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="43">
@@ -906,7 +906,7 @@
             <v>164000000000040</v>
           </cell>
           <cell r="M43" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000040::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000040::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="44">
@@ -917,7 +917,7 @@
             <v>164000000000041</v>
           </cell>
           <cell r="M44" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000041::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000041::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="45">
@@ -928,7 +928,7 @@
             <v>164000000000042</v>
           </cell>
           <cell r="M45" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000042::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000042::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="46">
@@ -939,7 +939,7 @@
             <v>164000000000043</v>
           </cell>
           <cell r="M46" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000043::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000043::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="47">
@@ -950,7 +950,7 @@
             <v>164000000000044</v>
           </cell>
           <cell r="M47" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000044::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000044::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="48">
@@ -961,7 +961,7 @@
             <v>164000000000045</v>
           </cell>
           <cell r="M48" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000045::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000045::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="49">
@@ -972,7 +972,7 @@
             <v>164000000000046</v>
           </cell>
           <cell r="M49" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000046::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000046::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="50">
@@ -983,7 +983,7 @@
             <v>164000000000047</v>
           </cell>
           <cell r="M50" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000047::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000047::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="51">
@@ -994,7 +994,7 @@
             <v>164000000000048</v>
           </cell>
           <cell r="M51" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000048::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000048::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="52">
@@ -1005,7 +1005,7 @@
             <v>164000000000049</v>
           </cell>
           <cell r="M52" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000049::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000049::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="53">
@@ -1016,7 +1016,7 @@
             <v>164000000000050</v>
           </cell>
           <cell r="M53" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000050::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000050::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="54">
@@ -1027,7 +1027,7 @@
             <v>164000000000051</v>
           </cell>
           <cell r="M54" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000051::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000051::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="55">
@@ -1038,7 +1038,7 @@
             <v>164000000000052</v>
           </cell>
           <cell r="M55" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000052::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000052::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="56">
@@ -1049,7 +1049,7 @@
             <v>164000000000053</v>
           </cell>
           <cell r="M56" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000053::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000053::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="57">
@@ -1060,7 +1060,7 @@
             <v>164000000000054</v>
           </cell>
           <cell r="M57" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000054::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000054::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="58">
@@ -1071,7 +1071,7 @@
             <v>164000000000055</v>
           </cell>
           <cell r="M58" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000055::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000055::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="59">
@@ -1082,7 +1082,7 @@
             <v>164000000000056</v>
           </cell>
           <cell r="M59" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000056::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000056::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="60">
@@ -1093,7 +1093,7 @@
             <v>164000000000057</v>
           </cell>
           <cell r="M60" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000057::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000057::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="61">
@@ -1104,7 +1104,7 @@
             <v>164000000000058</v>
           </cell>
           <cell r="M61" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000058::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000058::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="62">
@@ -1115,7 +1115,7 @@
             <v>164000000000059</v>
           </cell>
           <cell r="M62" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000059::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000059::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="63">
@@ -1126,7 +1126,7 @@
             <v>164000000000060</v>
           </cell>
           <cell r="M63" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000060::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000060::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="64">
@@ -1137,7 +1137,7 @@
             <v>164000000000061</v>
           </cell>
           <cell r="M64" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000061::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000061::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="65">
@@ -1148,7 +1148,7 @@
             <v>164000000000062</v>
           </cell>
           <cell r="M65" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000062::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000062::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="66">
@@ -1159,7 +1159,7 @@
             <v>164000000000063</v>
           </cell>
           <cell r="M66" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000063::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000063::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="67">
@@ -1170,7 +1170,7 @@
             <v>164000000000064</v>
           </cell>
           <cell r="M67" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000064::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000064::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="68">
@@ -1181,7 +1181,7 @@
             <v>164000000000065</v>
           </cell>
           <cell r="M68" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000065::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000065::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="69">
@@ -1192,7 +1192,7 @@
             <v>164000000000066</v>
           </cell>
           <cell r="M69" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000066::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000066::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="70">
@@ -1203,7 +1203,7 @@
             <v>164000000000067</v>
           </cell>
           <cell r="M70" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000067::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000067::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="71">
@@ -1214,7 +1214,7 @@
             <v>164000000000068</v>
           </cell>
           <cell r="M71" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000068::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000068::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="72">
@@ -1225,7 +1225,7 @@
             <v>164000000000069</v>
           </cell>
           <cell r="M72" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000069::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000069::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="73">
@@ -1236,7 +1236,7 @@
             <v>164000000000070</v>
           </cell>
           <cell r="M73" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000070::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000070::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="74">
@@ -1247,7 +1247,7 @@
             <v>164000000000071</v>
           </cell>
           <cell r="M74" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000071::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000071::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="75">
@@ -1258,7 +1258,7 @@
             <v>164000000000072</v>
           </cell>
           <cell r="M75" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000072::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000072::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="76">
@@ -1269,7 +1269,7 @@
             <v>164000000000073</v>
           </cell>
           <cell r="M76" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000073::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000073::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="77">
@@ -1280,7 +1280,7 @@
             <v>164000000000074</v>
           </cell>
           <cell r="M77" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000074::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000074::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="78">
@@ -1291,7 +1291,7 @@
             <v>164000000000075</v>
           </cell>
           <cell r="M78" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000075::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000075::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="79">
@@ -1302,7 +1302,7 @@
             <v>164000000000076</v>
           </cell>
           <cell r="M79" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000076::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000076::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="80">
@@ -1313,7 +1313,7 @@
             <v>164000000000077</v>
           </cell>
           <cell r="M80" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000077::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000077::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, '2010-03-01 00:00:00+07'::timestamptz, '2014-09-30 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="81">
@@ -1324,7 +1324,7 @@
             <v>164000000000078</v>
           </cell>
           <cell r="M81" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000078::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000078::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="82">
@@ -1335,7 +1335,7 @@
             <v>164000000000079</v>
           </cell>
           <cell r="M82" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000079::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000079::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="83">
@@ -1346,7 +1346,7 @@
             <v>164000000000080</v>
           </cell>
           <cell r="M83" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000080::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="84">
@@ -1357,7 +1357,7 @@
             <v>164000000000081</v>
           </cell>
           <cell r="M84" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000081::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000081::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="85">
@@ -1368,7 +1368,7 @@
             <v>164000000000082</v>
           </cell>
           <cell r="M85" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000082::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000082::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="86">
@@ -1379,7 +1379,7 @@
             <v>164000000000083</v>
           </cell>
           <cell r="M86" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000083::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000083::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="87">
@@ -1390,7 +1390,7 @@
             <v>164000000000084</v>
           </cell>
           <cell r="M87" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000084::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000084::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="88">
@@ -1401,7 +1401,7 @@
             <v>164000000000085</v>
           </cell>
           <cell r="M88" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000085::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000085::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="89">
@@ -1412,7 +1412,7 @@
             <v>164000000000086</v>
           </cell>
           <cell r="M89" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000086::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000086::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="90">
@@ -1423,7 +1423,7 @@
             <v>164000000000087</v>
           </cell>
           <cell r="M90" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000087::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000087::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="91">
@@ -1434,7 +1434,7 @@
             <v>164000000000088</v>
           </cell>
           <cell r="M91" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000088::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000088::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="92">
@@ -1445,7 +1445,7 @@
             <v>164000000000089</v>
           </cell>
           <cell r="M92" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000089::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000089::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="93">
@@ -1456,7 +1456,7 @@
             <v>164000000000090</v>
           </cell>
           <cell r="M93" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000090::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="94">
@@ -1467,7 +1467,7 @@
             <v>164000000000091</v>
           </cell>
           <cell r="M94" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000091::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000091::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="95">
@@ -1478,7 +1478,7 @@
             <v>164000000000092</v>
           </cell>
           <cell r="M95" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000092::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000092::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="96">
@@ -1489,7 +1489,7 @@
             <v>164000000000093</v>
           </cell>
           <cell r="M96" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000093::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000093::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="97">
@@ -1500,7 +1500,7 @@
             <v>164000000000094</v>
           </cell>
           <cell r="M97" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000094::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000094::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="98">
@@ -1511,7 +1511,7 @@
             <v>164000000000095</v>
           </cell>
           <cell r="M98" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000095::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000095::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="99">
@@ -1522,7 +1522,7 @@
             <v>164000000000096</v>
           </cell>
           <cell r="M99" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000096::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000096::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="100">
@@ -1533,7 +1533,7 @@
             <v>164000000000097</v>
           </cell>
           <cell r="M100" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000097::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000097::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="101">
@@ -1544,7 +1544,7 @@
             <v>164000000000098</v>
           </cell>
           <cell r="M101" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000098::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000098::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="102">
@@ -1555,7 +1555,7 @@
             <v>164000000000099</v>
           </cell>
           <cell r="M102" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000099::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000099::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="103">
@@ -1566,7 +1566,7 @@
             <v>164000000000100</v>
           </cell>
           <cell r="M103" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000100::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000100::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, '2023-01-05 00:00:00+07'::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="104">
@@ -1577,7 +1577,7 @@
             <v>164000000000101</v>
           </cell>
           <cell r="M104" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000101::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000101::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="105">
@@ -1588,7 +1588,7 @@
             <v>164000000000102</v>
           </cell>
           <cell r="M105" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000102::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000102::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="106">
@@ -1599,7 +1599,7 @@
             <v>164000000000103</v>
           </cell>
           <cell r="M106" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000103::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000103::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="107">
@@ -1610,7 +1610,7 @@
             <v>164000000000104</v>
           </cell>
           <cell r="M107" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000104::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000104::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="108">
@@ -1621,7 +1621,7 @@
             <v>164000000000105</v>
           </cell>
           <cell r="M108" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000105::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000105::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="109">
@@ -1632,7 +1632,7 @@
             <v>164000000000106</v>
           </cell>
           <cell r="M109" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000106::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000106::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="110">
@@ -1643,7 +1643,7 @@
             <v>164000000000107</v>
           </cell>
           <cell r="M110" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000107::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000107::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="111">
@@ -1654,7 +1654,7 @@
             <v>164000000000108</v>
           </cell>
           <cell r="M111" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000108::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000108::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="112">
@@ -1665,7 +1665,7 @@
             <v>164000000000109</v>
           </cell>
           <cell r="M112" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000109::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000109::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="113">
@@ -1676,7 +1676,7 @@
             <v>164000000000110</v>
           </cell>
           <cell r="M113" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000110::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000110::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="114">
@@ -1687,7 +1687,7 @@
             <v>164000000000111</v>
           </cell>
           <cell r="M114" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000111::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000111::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="115">
@@ -1698,7 +1698,7 @@
             <v>164000000000112</v>
           </cell>
           <cell r="M115" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000112::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000112::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="116">
@@ -1709,7 +1709,7 @@
             <v>164000000000113</v>
           </cell>
           <cell r="M116" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000113::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000113::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="117">
@@ -1720,7 +1720,7 @@
             <v>164000000000114</v>
           </cell>
           <cell r="M117" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000114::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000114::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="118">
@@ -1731,7 +1731,7 @@
             <v>164000000000115</v>
           </cell>
           <cell r="M118" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000115::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000115::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="119">
@@ -1742,7 +1742,7 @@
             <v>164000000000116</v>
           </cell>
           <cell r="M119" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000116::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000116::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="120">
@@ -1753,7 +1753,7 @@
             <v>164000000000117</v>
           </cell>
           <cell r="M120" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000117::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000117::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="121">
@@ -1764,7 +1764,7 @@
             <v>164000000000118</v>
           </cell>
           <cell r="M121" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000118::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000118::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="122">
@@ -1775,7 +1775,7 @@
             <v>164000000000119</v>
           </cell>
           <cell r="M122" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000119::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000119::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="123">
@@ -1786,7 +1786,7 @@
             <v>164000000000120</v>
           </cell>
           <cell r="M123" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000120::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000120::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="124">
@@ -1797,7 +1797,7 @@
             <v>164000000000121</v>
           </cell>
           <cell r="M124" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000121::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000121::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="125">
@@ -1808,7 +1808,7 @@
             <v>164000000000122</v>
           </cell>
           <cell r="M125" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000122::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000122::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="126">
@@ -1819,7 +1819,7 @@
             <v>164000000000123</v>
           </cell>
           <cell r="M126" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000123::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000123::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="127">
@@ -1830,7 +1830,7 @@
             <v>164000000000124</v>
           </cell>
           <cell r="M127" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000124::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000124::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="128">
@@ -1841,7 +1841,7 @@
             <v>164000000000125</v>
           </cell>
           <cell r="M128" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000125::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="129">
@@ -1852,7 +1852,7 @@
             <v>164000000000126</v>
           </cell>
           <cell r="M129" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000126::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000126::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="130">
@@ -1863,7 +1863,7 @@
             <v>164000000000127</v>
           </cell>
           <cell r="M130" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000127::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000127::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="131">
@@ -1874,7 +1874,7 @@
             <v>164000000000128</v>
           </cell>
           <cell r="M131" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000128::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000128::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="132">
@@ -1885,7 +1885,7 @@
             <v>164000000000129</v>
           </cell>
           <cell r="M132" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000129::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000129::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="133">
@@ -1896,7 +1896,7 @@
             <v>164000000000130</v>
           </cell>
           <cell r="M133" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000130::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000130::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="134">
@@ -1907,7 +1907,7 @@
             <v>164000000000131</v>
           </cell>
           <cell r="M134" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000131::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000131::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="135">
@@ -1918,7 +1918,7 @@
             <v>164000000000132</v>
           </cell>
           <cell r="M135" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000132::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000132::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="136">
@@ -1929,7 +1929,7 @@
             <v>164000000000133</v>
           </cell>
           <cell r="M136" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000133::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000133::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="137">
@@ -1940,7 +1940,7 @@
             <v>164000000000134</v>
           </cell>
           <cell r="M137" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000134::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000134::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="138">
@@ -1951,7 +1951,7 @@
             <v>164000000000135</v>
           </cell>
           <cell r="M138" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000135::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000135::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="139">
@@ -1962,7 +1962,7 @@
             <v>164000000000136</v>
           </cell>
           <cell r="M139" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000136::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="140">
@@ -1973,7 +1973,7 @@
             <v>164000000000137</v>
           </cell>
           <cell r="M140" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000137::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000137::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="141">
@@ -1984,7 +1984,7 @@
             <v>164000000000138</v>
           </cell>
           <cell r="M141" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000138::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000138::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="142">
@@ -1995,7 +1995,7 @@
             <v>164000000000139</v>
           </cell>
           <cell r="M142" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000139::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000139::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="143">
@@ -2006,7 +2006,7 @@
             <v>164000000000140</v>
           </cell>
           <cell r="M143" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000140::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000140::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="144">
@@ -2017,7 +2017,7 @@
             <v>164000000000141</v>
           </cell>
           <cell r="M144" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000141::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000141::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="145">
@@ -2028,7 +2028,7 @@
             <v>164000000000142</v>
           </cell>
           <cell r="M145" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000142::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000142::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="146">
@@ -2039,7 +2039,7 @@
             <v>164000000000143</v>
           </cell>
           <cell r="M146" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000143::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000143::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="147">
@@ -2050,7 +2050,7 @@
             <v>164000000000144</v>
           </cell>
           <cell r="M147" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000144::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000144::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="148">
@@ -2061,7 +2061,7 @@
             <v>164000000000145</v>
           </cell>
           <cell r="M148" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000145::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000145::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="149">
@@ -2072,7 +2072,7 @@
             <v>164000000000146</v>
           </cell>
           <cell r="M149" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000146::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000146::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="150">
@@ -2083,7 +2083,7 @@
             <v>164000000000147</v>
           </cell>
           <cell r="M150" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000147::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000147::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="151">
@@ -2094,7 +2094,7 @@
             <v>164000000000148</v>
           </cell>
           <cell r="M151" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000148::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000148::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="152">
@@ -2105,7 +2105,7 @@
             <v>164000000000149</v>
           </cell>
           <cell r="M152" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000149::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000149::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="153">
@@ -2116,7 +2116,7 @@
             <v>164000000000150</v>
           </cell>
           <cell r="M153" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000150::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000150::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="154">
@@ -2127,7 +2127,7 @@
             <v>164000000000151</v>
           </cell>
           <cell r="M154" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000151::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000151::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="155">
@@ -2138,7 +2138,7 @@
             <v>164000000000152</v>
           </cell>
           <cell r="M155" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000152::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000152::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="156">
@@ -2149,7 +2149,7 @@
             <v>164000000000153</v>
           </cell>
           <cell r="M156" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000153::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000153::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="157">
@@ -2160,7 +2160,7 @@
             <v>164000000000154</v>
           </cell>
           <cell r="M157" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000154::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000154::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="158">
@@ -2171,7 +2171,7 @@
             <v>164000000000155</v>
           </cell>
           <cell r="M158" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="159">
@@ -2182,7 +2182,7 @@
             <v>164000000000156</v>
           </cell>
           <cell r="M159" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000156::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000156::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="160">
@@ -2193,7 +2193,7 @@
             <v>164000000000157</v>
           </cell>
           <cell r="M160" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000157::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000157::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="161">
@@ -2204,7 +2204,7 @@
             <v>164000000000158</v>
           </cell>
           <cell r="M161" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000158::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000158::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="162">
@@ -2215,7 +2215,7 @@
             <v>164000000000159</v>
           </cell>
           <cell r="M162" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000159::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000159::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="163">
@@ -2226,7 +2226,7 @@
             <v>164000000000160</v>
           </cell>
           <cell r="M163" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000160::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000160::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="164">
@@ -2237,7 +2237,7 @@
             <v>164000000000161</v>
           </cell>
           <cell r="M164" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000161::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000161::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="165">
@@ -2248,7 +2248,7 @@
             <v>164000000000162</v>
           </cell>
           <cell r="M165" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000162::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000162::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="166">
@@ -2259,7 +2259,7 @@
             <v>164000000000163</v>
           </cell>
           <cell r="M166" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000163::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000163::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="167">
@@ -2270,7 +2270,7 @@
             <v>164000000000164</v>
           </cell>
           <cell r="M167" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000164::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000164::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="168">
@@ -2281,7 +2281,7 @@
             <v>164000000000165</v>
           </cell>
           <cell r="M168" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000165::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000165::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="169">
@@ -2292,7 +2292,7 @@
             <v>164000000000166</v>
           </cell>
           <cell r="M169" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000166::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="170">
@@ -2303,7 +2303,7 @@
             <v>164000000000167</v>
           </cell>
           <cell r="M170" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000167::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000167::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="171">
@@ -2314,7 +2314,7 @@
             <v>164000000000168</v>
           </cell>
           <cell r="M171" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000168::bigint, 163000000000002::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000168::bigint, 163000000000002::bigint, 111000000000007::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="172">
@@ -2325,7 +2325,7 @@
             <v>164000000000169</v>
           </cell>
           <cell r="M172" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000169::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000169::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="173">
@@ -2336,7 +2336,7 @@
             <v>164000000000170</v>
           </cell>
           <cell r="M173" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000170::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000170::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="174">
@@ -2347,7 +2347,7 @@
             <v>164000000000171</v>
           </cell>
           <cell r="M174" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000171::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000171::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="175">
@@ -2358,7 +2358,7 @@
             <v>164000000000172</v>
           </cell>
           <cell r="M175" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000172::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000172::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="176">
@@ -2369,7 +2369,7 @@
             <v>164000000000173</v>
           </cell>
           <cell r="M176" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000173::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000173::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="177">
@@ -2380,7 +2380,7 @@
             <v>164000000000174</v>
           </cell>
           <cell r="M177" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000174::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000174::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="178">
@@ -2391,7 +2391,7 @@
             <v>164000000000175</v>
           </cell>
           <cell r="M178" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000175::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000175::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="179">
@@ -2402,7 +2402,7 @@
             <v>164000000000176</v>
           </cell>
           <cell r="M179" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000176::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000176::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="180">
@@ -2413,7 +2413,7 @@
             <v>164000000000177</v>
           </cell>
           <cell r="M180" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000177::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000177::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="181">
@@ -2424,7 +2424,7 @@
             <v>164000000000178</v>
           </cell>
           <cell r="M181" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000178::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000178::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="182">
@@ -2435,7 +2435,7 @@
             <v>164000000000179</v>
           </cell>
           <cell r="M182" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000179::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000179::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="183">
@@ -2446,7 +2446,7 @@
             <v>164000000000180</v>
           </cell>
           <cell r="M183" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000180::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000180::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="184">
@@ -2457,7 +2457,7 @@
             <v>164000000000181</v>
           </cell>
           <cell r="M184" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000181::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000181::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="185">
@@ -2468,7 +2468,7 @@
             <v>164000000000182</v>
           </cell>
           <cell r="M185" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000182::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000182::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="186">
@@ -2479,7 +2479,7 @@
             <v>164000000000183</v>
           </cell>
           <cell r="M186" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000183::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000183::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="187">
@@ -2490,7 +2490,7 @@
             <v>164000000000184</v>
           </cell>
           <cell r="M187" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000184::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000184::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="188">
@@ -2501,7 +2501,7 @@
             <v>164000000000185</v>
           </cell>
           <cell r="M188" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000185::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000185::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="189">
@@ -2512,7 +2512,7 @@
             <v>164000000000186</v>
           </cell>
           <cell r="M189" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000186::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000186::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="190">
@@ -2523,7 +2523,7 @@
             <v>164000000000187</v>
           </cell>
           <cell r="M190" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000187::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000187::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="191">
@@ -2534,7 +2534,7 @@
             <v>164000000000188</v>
           </cell>
           <cell r="M191" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000188::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000188::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="192">
@@ -2545,7 +2545,7 @@
             <v>164000000000189</v>
           </cell>
           <cell r="M192" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000189::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000189::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="193">
@@ -2556,7 +2556,7 @@
             <v>164000000000190</v>
           </cell>
           <cell r="M193" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000190::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000190::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="194">
@@ -2567,7 +2567,7 @@
             <v>164000000000191</v>
           </cell>
           <cell r="M194" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000191::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000191::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="195">
@@ -2578,7 +2578,7 @@
             <v>164000000000192</v>
           </cell>
           <cell r="M195" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000192::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000192::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="196">
@@ -2589,7 +2589,7 @@
             <v>164000000000193</v>
           </cell>
           <cell r="M196" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000193::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000193::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="197">
@@ -2600,7 +2600,7 @@
             <v>164000000000194</v>
           </cell>
           <cell r="M197" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000194::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="198">
@@ -2611,7 +2611,7 @@
             <v>164000000000195</v>
           </cell>
           <cell r="M198" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000195::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000195::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="199">
@@ -2622,7 +2622,7 @@
             <v>164000000000196</v>
           </cell>
           <cell r="M199" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000196::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000196::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000002::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="200">
@@ -2633,7 +2633,7 @@
             <v>164000000000197</v>
           </cell>
           <cell r="M200" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000197::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000197::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="201">
@@ -2644,7 +2644,7 @@
             <v>164000000000198</v>
           </cell>
           <cell r="M201" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000198::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000198::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="202">
@@ -2655,7 +2655,7 @@
             <v>164000000000199</v>
           </cell>
           <cell r="M202" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000199::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000199::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="203">
@@ -2666,7 +2666,7 @@
             <v>164000000000200</v>
           </cell>
           <cell r="M203" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000200::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000200::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="204">
@@ -2677,7 +2677,7 @@
             <v>164000000000201</v>
           </cell>
           <cell r="M204" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000201::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000201::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="205">
@@ -2688,7 +2688,7 @@
             <v>164000000000202</v>
           </cell>
           <cell r="M205" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000202::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000202::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="206">
@@ -2699,7 +2699,7 @@
             <v>164000000000203</v>
           </cell>
           <cell r="M206" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000203::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000203::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="207">
@@ -2710,7 +2710,7 @@
             <v>164000000000204</v>
           </cell>
           <cell r="M207" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000204::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000204::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="208">
@@ -2721,7 +2721,7 @@
             <v>164000000000205</v>
           </cell>
           <cell r="M208" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000205::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000205::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="209">
@@ -2732,7 +2732,7 @@
             <v>164000000000206</v>
           </cell>
           <cell r="M209" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000206::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000206::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="210">
@@ -2743,7 +2743,7 @@
             <v>164000000000207</v>
           </cell>
           <cell r="M210" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000207::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000207::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="211">
@@ -2754,7 +2754,7 @@
             <v>164000000000208</v>
           </cell>
           <cell r="M211" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000208::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000208::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="212">
@@ -2765,7 +2765,7 @@
             <v>164000000000209</v>
           </cell>
           <cell r="M212" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000209::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000209::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="213">
@@ -2776,7 +2776,7 @@
             <v>164000000000210</v>
           </cell>
           <cell r="M213" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000210::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000210::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="214">
@@ -2787,7 +2787,7 @@
             <v>164000000000211</v>
           </cell>
           <cell r="M214" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000211::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000211::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="215">
@@ -2798,7 +2798,7 @@
             <v>164000000000212</v>
           </cell>
           <cell r="M215" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000212::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000212::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="216">
@@ -2809,7 +2809,7 @@
             <v>164000000000213</v>
           </cell>
           <cell r="M216" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000213::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000213::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="217">
@@ -2820,7 +2820,7 @@
             <v>164000000000214</v>
           </cell>
           <cell r="M217" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000214::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000214::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="218">
@@ -2831,7 +2831,7 @@
             <v>164000000000215</v>
           </cell>
           <cell r="M218" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000215::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="219">
@@ -2842,7 +2842,7 @@
             <v>164000000000216</v>
           </cell>
           <cell r="M219" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000216::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000216::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="220">
@@ -2853,7 +2853,7 @@
             <v>164000000000217</v>
           </cell>
           <cell r="M220" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000217::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000217::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="221">
@@ -2864,7 +2864,7 @@
             <v>164000000000218</v>
           </cell>
           <cell r="M221" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000218::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000218::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="222">
@@ -2875,7 +2875,7 @@
             <v>164000000000219</v>
           </cell>
           <cell r="M222" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000219::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000219::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="223">
@@ -2886,7 +2886,7 @@
             <v>164000000000220</v>
           </cell>
           <cell r="M223" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000220::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000220::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="224">
@@ -2897,7 +2897,7 @@
             <v>164000000000221</v>
           </cell>
           <cell r="M224" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000221::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000221::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="225">
@@ -2908,7 +2908,7 @@
             <v>164000000000222</v>
           </cell>
           <cell r="M225" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000222::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000222::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="226">
@@ -2919,7 +2919,7 @@
             <v>164000000000223</v>
           </cell>
           <cell r="M226" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000223::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000223::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="227">
@@ -2930,7 +2930,7 @@
             <v>164000000000224</v>
           </cell>
           <cell r="M227" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000224::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000224::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="228">
@@ -2941,7 +2941,7 @@
             <v>164000000000225</v>
           </cell>
           <cell r="M228" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000225::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000225::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="229">
@@ -2952,7 +2952,7 @@
             <v>164000000000226</v>
           </cell>
           <cell r="M229" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000226::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000226::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="230">
@@ -2963,7 +2963,7 @@
             <v>164000000000227</v>
           </cell>
           <cell r="M230" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000227::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000227::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="231">
@@ -2974,7 +2974,7 @@
             <v>164000000000228</v>
           </cell>
           <cell r="M231" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000228::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000228::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="232">
@@ -2985,7 +2985,7 @@
             <v>164000000000229</v>
           </cell>
           <cell r="M232" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000229::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000229::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="233">
@@ -2996,7 +2996,7 @@
             <v>164000000000230</v>
           </cell>
           <cell r="M233" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000230::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="234">
@@ -3007,7 +3007,7 @@
             <v>164000000000231</v>
           </cell>
           <cell r="M234" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000231::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000231::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="235">
@@ -3018,7 +3018,7 @@
             <v>164000000000232</v>
           </cell>
           <cell r="M235" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000232::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000232::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="236">
@@ -3029,7 +3029,7 @@
             <v>164000000000233</v>
           </cell>
           <cell r="M236" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000233::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000233::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="237">
@@ -3040,7 +3040,7 @@
             <v>164000000000234</v>
           </cell>
           <cell r="M237" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000234::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000234::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="238">
@@ -3051,7 +3051,7 @@
             <v>164000000000235</v>
           </cell>
           <cell r="M238" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000235::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000235::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="239">
@@ -3062,7 +3062,7 @@
             <v>164000000000236</v>
           </cell>
           <cell r="M239" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000236::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000236::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="240">
@@ -3073,7 +3073,7 @@
             <v>164000000000237</v>
           </cell>
           <cell r="M240" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000237::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000237::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="241">
@@ -3084,7 +3084,7 @@
             <v>164000000000238</v>
           </cell>
           <cell r="M241" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000238::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000238::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="242">
@@ -3095,7 +3095,7 @@
             <v>164000000000239</v>
           </cell>
           <cell r="M242" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000239::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000239::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="243">
@@ -3106,7 +3106,7 @@
             <v>164000000000240</v>
           </cell>
           <cell r="M243" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000240::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000240::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="244">
@@ -3117,7 +3117,7 @@
             <v>164000000000241</v>
           </cell>
           <cell r="M244" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000241::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000241::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="245">
@@ -3128,7 +3128,7 @@
             <v>164000000000242</v>
           </cell>
           <cell r="M245" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000242::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000242::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="246">
@@ -3139,7 +3139,7 @@
             <v>164000000000243</v>
           </cell>
           <cell r="M246" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000243::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000243::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="247">
@@ -3150,7 +3150,7 @@
             <v>164000000000244</v>
           </cell>
           <cell r="M247" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000244::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000244::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="248">
@@ -3161,7 +3161,7 @@
             <v>164000000000245</v>
           </cell>
           <cell r="M248" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000245::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000245::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="249">
@@ -3172,7 +3172,7 @@
             <v>164000000000246</v>
           </cell>
           <cell r="M249" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000246::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000246::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="250">
@@ -3183,7 +3183,7 @@
             <v>164000000000247</v>
           </cell>
           <cell r="M250" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000247::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000247::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="251">
@@ -3194,7 +3194,7 @@
             <v>164000000000248</v>
           </cell>
           <cell r="M251" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000248::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000248::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="252">
@@ -3205,7 +3205,7 @@
             <v>164000000000249</v>
           </cell>
           <cell r="M252" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000249::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000249::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="253">
@@ -3216,7 +3216,7 @@
             <v>164000000000250</v>
           </cell>
           <cell r="M253" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000250::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="254">
@@ -3227,7 +3227,7 @@
             <v>164000000000251</v>
           </cell>
           <cell r="M254" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000251::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="255">
@@ -3238,7 +3238,7 @@
             <v>164000000000252</v>
           </cell>
           <cell r="M255" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000252::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000252::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="256">
@@ -3249,7 +3249,7 @@
             <v>164000000000253</v>
           </cell>
           <cell r="M256" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000253::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000253::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="257">
@@ -3260,7 +3260,7 @@
             <v>164000000000254</v>
           </cell>
           <cell r="M257" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000254::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000254::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="258">
@@ -3271,7 +3271,7 @@
             <v>164000000000255</v>
           </cell>
           <cell r="M258" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000255::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000255::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="259">
@@ -3282,7 +3282,7 @@
             <v>164000000000256</v>
           </cell>
           <cell r="M259" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000256::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000256::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="260">
@@ -3293,7 +3293,7 @@
             <v>164000000000257</v>
           </cell>
           <cell r="M260" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000257::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000257::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="261">
@@ -3304,7 +3304,7 @@
             <v>164000000000258</v>
           </cell>
           <cell r="M261" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000258::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000258::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="262">
@@ -3315,7 +3315,7 @@
             <v>164000000000259</v>
           </cell>
           <cell r="M262" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000259::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000259::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="263">
@@ -3326,7 +3326,7 @@
             <v>164000000000260</v>
           </cell>
           <cell r="M263" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000260::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000260::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="264">
@@ -3337,7 +3337,7 @@
             <v>164000000000261</v>
           </cell>
           <cell r="M264" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000261::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000261::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="265">
@@ -3348,7 +3348,7 @@
             <v>164000000000262</v>
           </cell>
           <cell r="M265" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000262::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000262::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="266">
@@ -3359,7 +3359,7 @@
             <v>164000000000263</v>
           </cell>
           <cell r="M266" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000263::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000263::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="267">
@@ -3370,7 +3370,7 @@
             <v>164000000000264</v>
           </cell>
           <cell r="M267" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000264::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000264::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="268">
@@ -3381,7 +3381,7 @@
             <v>164000000000265</v>
           </cell>
           <cell r="M268" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000265::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000265::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="269">
@@ -3392,7 +3392,7 @@
             <v>164000000000266</v>
           </cell>
           <cell r="M269" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000266::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000266::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="270">
@@ -3403,7 +3403,7 @@
             <v>164000000000267</v>
           </cell>
           <cell r="M270" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000267::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000267::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="271">
@@ -3414,7 +3414,7 @@
             <v>164000000000268</v>
           </cell>
           <cell r="M271" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000268::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000268::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="272">
@@ -3425,7 +3425,7 @@
             <v>164000000000269</v>
           </cell>
           <cell r="M272" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000269::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000269::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="273">
@@ -3436,7 +3436,7 @@
             <v>164000000000270</v>
           </cell>
           <cell r="M273" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000270::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000270::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="274">
@@ -3447,7 +3447,7 @@
             <v>164000000000271</v>
           </cell>
           <cell r="M274" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000271::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="275">
@@ -3458,7 +3458,7 @@
             <v>164000000000272</v>
           </cell>
           <cell r="M275" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000272::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000272::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="276">
@@ -3469,7 +3469,7 @@
             <v>164000000000273</v>
           </cell>
           <cell r="M276" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000273::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000273::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="277">
@@ -3480,7 +3480,7 @@
             <v>164000000000274</v>
           </cell>
           <cell r="M277" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000274::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="278">
@@ -3491,7 +3491,7 @@
             <v>164000000000275</v>
           </cell>
           <cell r="M278" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000275::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000275::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="279">
@@ -3502,7 +3502,7 @@
             <v>164000000000276</v>
           </cell>
           <cell r="M279" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000276::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000276::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="280">
@@ -3513,7 +3513,7 @@
             <v>164000000000277</v>
           </cell>
           <cell r="M280" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000277::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000277::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="281">
@@ -3524,7 +3524,7 @@
             <v>164000000000278</v>
           </cell>
           <cell r="M281" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000278::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="282">
@@ -3535,7 +3535,7 @@
             <v>164000000000279</v>
           </cell>
           <cell r="M282" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000279::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000279::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="283">
@@ -3546,7 +3546,7 @@
             <v>164000000000280</v>
           </cell>
           <cell r="M283" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000280::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000280::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="284">
@@ -3557,7 +3557,7 @@
             <v>164000000000281</v>
           </cell>
           <cell r="M284" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000281::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000281::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="285">
@@ -3568,7 +3568,7 @@
             <v>164000000000282</v>
           </cell>
           <cell r="M285" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000282::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000282::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="286">
@@ -3579,7 +3579,7 @@
             <v>164000000000283</v>
           </cell>
           <cell r="M286" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000283::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000283::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="287">
@@ -3590,7 +3590,7 @@
             <v>164000000000284</v>
           </cell>
           <cell r="M287" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000284::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000284::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="288">
@@ -3601,7 +3601,7 @@
             <v>164000000000285</v>
           </cell>
           <cell r="M288" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000285::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000285::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="289">
@@ -3612,7 +3612,7 @@
             <v>164000000000286</v>
           </cell>
           <cell r="M289" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000286::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000286::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="290">
@@ -3623,7 +3623,7 @@
             <v>164000000000287</v>
           </cell>
           <cell r="M290" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000287::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000287::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="291">
@@ -3634,7 +3634,7 @@
             <v>164000000000288</v>
           </cell>
           <cell r="M291" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000288::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000288::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="292">
@@ -3645,7 +3645,7 @@
             <v>164000000000289</v>
           </cell>
           <cell r="M292" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000289::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000289::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="293">
@@ -3656,7 +3656,7 @@
             <v>164000000000290</v>
           </cell>
           <cell r="M293" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000290::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000290::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="294">
@@ -3667,7 +3667,7 @@
             <v>164000000000291</v>
           </cell>
           <cell r="M294" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000291::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000291::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="295">
@@ -3678,7 +3678,7 @@
             <v>164000000000292</v>
           </cell>
           <cell r="M295" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000292::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000292::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="296">
@@ -3689,7 +3689,7 @@
             <v>164000000000293</v>
           </cell>
           <cell r="M296" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000293::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000293::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="297">
@@ -3700,7 +3700,7 @@
             <v>164000000000294</v>
           </cell>
           <cell r="M297" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000294::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000294::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="298">
@@ -3711,7 +3711,7 @@
             <v>164000000000295</v>
           </cell>
           <cell r="M298" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000295::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000295::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="299">
@@ -3722,7 +3722,7 @@
             <v>164000000000296</v>
           </cell>
           <cell r="M299" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000296::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000296::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="300">
@@ -3733,7 +3733,7 @@
             <v>164000000000297</v>
           </cell>
           <cell r="M300" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000297::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000297::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="301">
@@ -3744,7 +3744,7 @@
             <v>164000000000298</v>
           </cell>
           <cell r="M301" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000298::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000298::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="302">
@@ -3755,7 +3755,7 @@
             <v>164000000000299</v>
           </cell>
           <cell r="M302" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000299::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="303">
@@ -3766,7 +3766,7 @@
             <v>164000000000300</v>
           </cell>
           <cell r="M303" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000300::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000300::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="304">
@@ -3777,7 +3777,7 @@
             <v>164000000000301</v>
           </cell>
           <cell r="M304" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000301::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000301::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="305">
@@ -3788,7 +3788,7 @@
             <v>164000000000302</v>
           </cell>
           <cell r="M305" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000302::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000302::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="306">
@@ -3799,7 +3799,7 @@
             <v>164000000000303</v>
           </cell>
           <cell r="M306" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000303::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000303::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="307">
@@ -3810,7 +3810,7 @@
             <v>164000000000304</v>
           </cell>
           <cell r="M307" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000304::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000304::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="308">
@@ -3821,7 +3821,7 @@
             <v>164000000000305</v>
           </cell>
           <cell r="M308" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000305::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000305::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="309">
@@ -3832,7 +3832,7 @@
             <v>164000000000306</v>
           </cell>
           <cell r="M309" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000306::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000306::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="310">
@@ -3843,7 +3843,7 @@
             <v>164000000000307</v>
           </cell>
           <cell r="M310" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000307::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000307::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="311">
@@ -3854,7 +3854,7 @@
             <v>164000000000308</v>
           </cell>
           <cell r="M311" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000308::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000308::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="312">
@@ -3865,7 +3865,7 @@
             <v>164000000000309</v>
           </cell>
           <cell r="M312" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000309::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000309::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="313">
@@ -3876,7 +3876,7 @@
             <v>164000000000310</v>
           </cell>
           <cell r="M313" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000310::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000310::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="314">
@@ -3887,7 +3887,7 @@
             <v>164000000000311</v>
           </cell>
           <cell r="M314" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000311::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000311::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="315">
@@ -3898,7 +3898,7 @@
             <v>164000000000312</v>
           </cell>
           <cell r="M315" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000312::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000312::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="316">
@@ -3909,7 +3909,7 @@
             <v>164000000000313</v>
           </cell>
           <cell r="M316" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000313::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000313::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="317">
@@ -3920,7 +3920,7 @@
             <v>164000000000314</v>
           </cell>
           <cell r="M317" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000314::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000314::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="318">
@@ -3931,7 +3931,7 @@
             <v>164000000000315</v>
           </cell>
           <cell r="M318" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000315::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000315::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="319">
@@ -3942,7 +3942,7 @@
             <v>164000000000316</v>
           </cell>
           <cell r="M319" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000316::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000316::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="320">
@@ -3953,7 +3953,7 @@
             <v>164000000000317</v>
           </cell>
           <cell r="M320" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000317::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000317::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="321">
@@ -3964,7 +3964,7 @@
             <v>164000000000318</v>
           </cell>
           <cell r="M321" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000318::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000318::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="322">
@@ -3975,7 +3975,7 @@
             <v>164000000000319</v>
           </cell>
           <cell r="M322" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000319::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000319::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="323">
@@ -3986,7 +3986,7 @@
             <v>164000000000320</v>
           </cell>
           <cell r="M323" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000320::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000320::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="324">
@@ -3997,7 +3997,7 @@
             <v>164000000000321</v>
           </cell>
           <cell r="M324" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000321::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000321::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="325">
@@ -4008,7 +4008,7 @@
             <v>164000000000322</v>
           </cell>
           <cell r="M325" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000322::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000322::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="326">
@@ -4019,7 +4019,7 @@
             <v>164000000000323</v>
           </cell>
           <cell r="M326" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000323::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000323::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="327">
@@ -4030,7 +4030,7 @@
             <v>164000000000324</v>
           </cell>
           <cell r="M327" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000324::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000324::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="328">
@@ -4041,7 +4041,7 @@
             <v>164000000000325</v>
           </cell>
           <cell r="M328" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000325::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000325::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="329">
@@ -4052,7 +4052,7 @@
             <v>164000000000326</v>
           </cell>
           <cell r="M329" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000326::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000326::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="330">
@@ -4063,7 +4063,7 @@
             <v>164000000000327</v>
           </cell>
           <cell r="M330" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000327::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000327::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="331">
@@ -4074,7 +4074,7 @@
             <v>164000000000328</v>
           </cell>
           <cell r="M331" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000328::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000328::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="332">
@@ -4085,7 +4085,7 @@
             <v>164000000000329</v>
           </cell>
           <cell r="M332" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000329::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000329::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="333">
@@ -4096,7 +4096,7 @@
             <v>164000000000330</v>
           </cell>
           <cell r="M333" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000330::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000330::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="334">
@@ -4107,7 +4107,7 @@
             <v>164000000000331</v>
           </cell>
           <cell r="M334" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000331::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000331::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="335">
@@ -4118,7 +4118,7 @@
             <v>164000000000332</v>
           </cell>
           <cell r="M335" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000332::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000332::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="336">
@@ -4129,7 +4129,7 @@
             <v>164000000000333</v>
           </cell>
           <cell r="M336" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000333::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000333::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="337">
@@ -4140,7 +4140,7 @@
             <v>164000000000334</v>
           </cell>
           <cell r="M337" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000334::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000334::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="338">
@@ -4151,7 +4151,7 @@
             <v>164000000000335</v>
           </cell>
           <cell r="M338" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000335::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000335::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="339">
@@ -4162,7 +4162,7 @@
             <v>164000000000336</v>
           </cell>
           <cell r="M339" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000336::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000336::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="340">
@@ -4173,7 +4173,7 @@
             <v>164000000000337</v>
           </cell>
           <cell r="M340" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000337::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000337::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="341">
@@ -4184,7 +4184,7 @@
             <v>164000000000338</v>
           </cell>
           <cell r="M341" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000338::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000338::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="342">
@@ -4195,7 +4195,7 @@
             <v>164000000000339</v>
           </cell>
           <cell r="M342" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000339::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000339::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="343">
@@ -4206,7 +4206,7 @@
             <v>164000000000340</v>
           </cell>
           <cell r="M343" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000340::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000340::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="344">
@@ -4217,7 +4217,7 @@
             <v>164000000000341</v>
           </cell>
           <cell r="M344" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000341::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000341::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="345">
@@ -4228,7 +4228,7 @@
             <v>164000000000342</v>
           </cell>
           <cell r="M345" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000342::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000342::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="346">
@@ -4239,7 +4239,7 @@
             <v>164000000000343</v>
           </cell>
           <cell r="M346" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000343::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000343::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="347">
@@ -4250,7 +4250,7 @@
             <v>164000000000344</v>
           </cell>
           <cell r="M347" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000344::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000344::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="348">
@@ -4261,7 +4261,7 @@
             <v>164000000000345</v>
           </cell>
           <cell r="M348" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000345::bigint, null::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000345::bigint, null::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="349">
@@ -4272,7 +4272,7 @@
             <v>164000000000346</v>
           </cell>
           <cell r="M349" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000346::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000346::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="350">
@@ -4283,7 +4283,7 @@
             <v>164000000000347</v>
           </cell>
           <cell r="M350" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000347::bigint, 163000000000002::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000347::bigint, 163000000000002::bigint, null::bigint, 160000000000005::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="351">
@@ -4294,7 +4294,7 @@
             <v>164000000000348</v>
           </cell>
           <cell r="M351" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000348::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000348::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="352">
@@ -4305,7 +4305,7 @@
             <v>164000000000349</v>
           </cell>
           <cell r="M352" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000349::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000349::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="353">
@@ -4316,7 +4316,7 @@
             <v>164000000000350</v>
           </cell>
           <cell r="M353" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000350::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000350::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="354">
@@ -4327,7 +4327,7 @@
             <v>164000000000351</v>
           </cell>
           <cell r="M354" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000351::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000351::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="355">
@@ -4338,7 +4338,7 @@
             <v>164000000000352</v>
           </cell>
           <cell r="M355" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000352::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000352::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="356">
@@ -4349,7 +4349,7 @@
             <v>164000000000353</v>
           </cell>
           <cell r="M356" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000353::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000353::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="357">
@@ -4360,7 +4360,7 @@
             <v>164000000000354</v>
           </cell>
           <cell r="M357" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000354::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000354::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="358">
@@ -4371,7 +4371,7 @@
             <v>164000000000355</v>
           </cell>
           <cell r="M358" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000355::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000355::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="359">
@@ -4382,7 +4382,7 @@
             <v>164000000000356</v>
           </cell>
           <cell r="M359" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000356::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000356::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="360">
@@ -4393,7 +4393,7 @@
             <v>164000000000357</v>
           </cell>
           <cell r="M360" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000357::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000357::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="361">
@@ -4404,7 +4404,7 @@
             <v>164000000000358</v>
           </cell>
           <cell r="M361" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000358::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000358::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="362">
@@ -4415,7 +4415,7 @@
             <v>164000000000359</v>
           </cell>
           <cell r="M362" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000359::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000359::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="363">
@@ -4426,7 +4426,7 @@
             <v>164000000000360</v>
           </cell>
           <cell r="M363" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000360::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000360::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="364">
@@ -4437,7 +4437,7 @@
             <v>164000000000361</v>
           </cell>
           <cell r="M364" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000361::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000361::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="365">
@@ -4448,7 +4448,7 @@
             <v>164000000000362</v>
           </cell>
           <cell r="M365" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000362::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000362::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="366">
@@ -4459,7 +4459,7 @@
             <v>164000000000363</v>
           </cell>
           <cell r="M366" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000363::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000363::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="367">
@@ -4470,7 +4470,7 @@
             <v>164000000000364</v>
           </cell>
           <cell r="M367" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000364::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000364::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="368">
@@ -4481,7 +4481,7 @@
             <v>164000000000365</v>
           </cell>
           <cell r="M368" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000365::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000365::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="369">
@@ -4492,7 +4492,7 @@
             <v>164000000000366</v>
           </cell>
           <cell r="M369" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000366::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000366::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="370">
@@ -4503,7 +4503,7 @@
             <v>164000000000367</v>
           </cell>
           <cell r="M370" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000367::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000367::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="371">
@@ -4514,7 +4514,7 @@
             <v>164000000000368</v>
           </cell>
           <cell r="M371" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000368::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000368::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="372">
@@ -4525,7 +4525,7 @@
             <v>164000000000369</v>
           </cell>
           <cell r="M372" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000369::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000369::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="373">
@@ -4536,7 +4536,7 @@
             <v>164000000000370</v>
           </cell>
           <cell r="M373" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000370::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000370::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="374">
@@ -4547,7 +4547,7 @@
             <v>164000000000371</v>
           </cell>
           <cell r="M374" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000371::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000371::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="375">
@@ -4558,7 +4558,7 @@
             <v>164000000000372</v>
           </cell>
           <cell r="M375" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000372::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000372::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="376">
@@ -4569,7 +4569,7 @@
             <v>164000000000373</v>
           </cell>
           <cell r="M376" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000373::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000373::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="377">
@@ -4580,7 +4580,7 @@
             <v>164000000000374</v>
           </cell>
           <cell r="M377" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000374::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000374::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="378">
@@ -4591,7 +4591,7 @@
             <v>164000000000375</v>
           </cell>
           <cell r="M378" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000375::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000375::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="379">
@@ -4602,7 +4602,7 @@
             <v>164000000000376</v>
           </cell>
           <cell r="M379" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000376::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000376::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="380">
@@ -4613,7 +4613,7 @@
             <v>164000000000377</v>
           </cell>
           <cell r="M380" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000377::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000377::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="381">
@@ -4624,7 +4624,7 @@
             <v>164000000000378</v>
           </cell>
           <cell r="M381" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000378::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000378::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="382">
@@ -4635,7 +4635,7 @@
             <v>164000000000379</v>
           </cell>
           <cell r="M382" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000379::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000379::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="383">
@@ -4646,7 +4646,7 @@
             <v>164000000000380</v>
           </cell>
           <cell r="M383" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000380::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000380::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="384">
@@ -4657,7 +4657,7 @@
             <v>164000000000381</v>
           </cell>
           <cell r="M384" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000381::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000381::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="385">
@@ -4668,7 +4668,7 @@
             <v>164000000000382</v>
           </cell>
           <cell r="M385" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000382::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000382::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="386">
@@ -4679,7 +4679,7 @@
             <v>164000000000383</v>
           </cell>
           <cell r="M386" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000383::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000383::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="387">
@@ -4690,7 +4690,7 @@
             <v>164000000000384</v>
           </cell>
           <cell r="M387" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000384::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000384::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="388">
@@ -4701,7 +4701,7 @@
             <v>164000000000385</v>
           </cell>
           <cell r="M388" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000385::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000385::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="389">
@@ -4712,7 +4712,7 @@
             <v>164000000000386</v>
           </cell>
           <cell r="M389" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000386::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000386::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="390">
@@ -4723,7 +4723,7 @@
             <v>164000000000387</v>
           </cell>
           <cell r="M390" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000387::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000387::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="391">
@@ -4734,7 +4734,7 @@
             <v>164000000000388</v>
           </cell>
           <cell r="M391" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000388::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000388::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="392">
@@ -4745,7 +4745,7 @@
             <v>164000000000389</v>
           </cell>
           <cell r="M392" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000389::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000389::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="393">
@@ -4756,7 +4756,7 @@
             <v>164000000000390</v>
           </cell>
           <cell r="M393" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000390::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000390::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="394">
@@ -4767,7 +4767,7 @@
             <v>164000000000391</v>
           </cell>
           <cell r="M394" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000391::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000391::bigint, 163000000000001::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="395">
@@ -4778,7 +4778,7 @@
             <v>164000000000392</v>
           </cell>
           <cell r="M395" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000392::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000392::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="396">
@@ -4789,7 +4789,7 @@
             <v>164000000000393</v>
           </cell>
           <cell r="M396" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000393::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000393::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="397">
@@ -4800,7 +4800,7 @@
             <v>164000000000394</v>
           </cell>
           <cell r="M397" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000394::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000394::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="398">
@@ -4811,7 +4811,7 @@
             <v>164000000000395</v>
           </cell>
           <cell r="M398" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000395::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000395::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="399">
@@ -4822,7 +4822,7 @@
             <v>164000000000396</v>
           </cell>
           <cell r="M399" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000396::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000396::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="400">
@@ -4833,7 +4833,7 @@
             <v>164000000000397</v>
           </cell>
           <cell r="M400" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000397::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000397::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="401">
@@ -4844,7 +4844,7 @@
             <v>164000000000398</v>
           </cell>
           <cell r="M401" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000398::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000398::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="402">
@@ -4855,7 +4855,7 @@
             <v>164000000000399</v>
           </cell>
           <cell r="M402" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000399::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000399::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="403">
@@ -4866,7 +4866,7 @@
             <v>164000000000400</v>
           </cell>
           <cell r="M403" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000400::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000400::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="404">
@@ -4877,7 +4877,7 @@
             <v>164000000000401</v>
           </cell>
           <cell r="M404" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000401::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000401::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="405">
@@ -4888,7 +4888,7 @@
             <v>164000000000402</v>
           </cell>
           <cell r="M405" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000402::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000402::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="406">
@@ -4899,7 +4899,7 @@
             <v>164000000000403</v>
           </cell>
           <cell r="M406" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000403::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000403::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="407">
@@ -4910,7 +4910,7 @@
             <v>164000000000404</v>
           </cell>
           <cell r="M407" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000404::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000404::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="408">
@@ -4921,7 +4921,7 @@
             <v>164000000000405</v>
           </cell>
           <cell r="M408" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000405::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000405::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="409">
@@ -4932,7 +4932,7 @@
             <v>164000000000406</v>
           </cell>
           <cell r="M409" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000406::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000406::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="410">
@@ -4943,7 +4943,7 @@
             <v>164000000000407</v>
           </cell>
           <cell r="M410" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000407::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000407::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="411">
@@ -4954,7 +4954,7 @@
             <v>164000000000408</v>
           </cell>
           <cell r="M411" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000408::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000408::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="412">
@@ -4965,7 +4965,7 @@
             <v>164000000000409</v>
           </cell>
           <cell r="M412" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000409::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000409::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="413">
@@ -4976,7 +4976,7 @@
             <v>164000000000410</v>
           </cell>
           <cell r="M413" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000410::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000410::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="414">
@@ -4987,7 +4987,7 @@
             <v>164000000000411</v>
           </cell>
           <cell r="M414" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000411::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000411::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="415">
@@ -4998,7 +4998,7 @@
             <v>164000000000412</v>
           </cell>
           <cell r="M415" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000412::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000412::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="416">
@@ -5009,7 +5009,7 @@
             <v>164000000000413</v>
           </cell>
           <cell r="M416" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000413::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000413::bigint, 163000000000002::bigint, 111000000000006::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="417">
@@ -5020,7 +5020,7 @@
             <v>164000000000414</v>
           </cell>
           <cell r="M417" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000414::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000414::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="418">
@@ -5031,7 +5031,7 @@
             <v>164000000000415</v>
           </cell>
           <cell r="M418" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000415::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000415::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="419">
@@ -5042,7 +5042,7 @@
             <v>164000000000416</v>
           </cell>
           <cell r="M419" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000416::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000416::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="420">
@@ -5053,7 +5053,7 @@
             <v>164000000000417</v>
           </cell>
           <cell r="M420" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000417::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000417::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="421">
@@ -5064,7 +5064,7 @@
             <v>164000000000418</v>
           </cell>
           <cell r="M421" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000418::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000418::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="422">
@@ -5075,7 +5075,7 @@
             <v>164000000000419</v>
           </cell>
           <cell r="M422" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000419::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000419::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="423">
@@ -5086,7 +5086,7 @@
             <v>164000000000420</v>
           </cell>
           <cell r="M423" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000420::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000420::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="424">
@@ -5097,7 +5097,7 @@
             <v>164000000000421</v>
           </cell>
           <cell r="M424" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000421::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000421::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="425">
@@ -5108,7 +5108,7 @@
             <v>164000000000422</v>
           </cell>
           <cell r="M425" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000422::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000422::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="426">
@@ -5119,7 +5119,7 @@
             <v>164000000000423</v>
           </cell>
           <cell r="M426" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000423::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000423::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="427">
@@ -5130,7 +5130,7 @@
             <v>164000000000424</v>
           </cell>
           <cell r="M427" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000424::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000424::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="428">
@@ -5141,7 +5141,7 @@
             <v>164000000000425</v>
           </cell>
           <cell r="M428" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000425::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000425::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="429">
@@ -5152,7 +5152,7 @@
             <v>164000000000426</v>
           </cell>
           <cell r="M429" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000426::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000426::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="430">
@@ -5163,7 +5163,7 @@
             <v>164000000000427</v>
           </cell>
           <cell r="M430" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000427::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000427::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="431">
@@ -5174,7 +5174,7 @@
             <v>164000000000428</v>
           </cell>
           <cell r="M431" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000428::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000428::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="432">
@@ -5185,7 +5185,7 @@
             <v>164000000000429</v>
           </cell>
           <cell r="M432" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000429::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000429::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="433">
@@ -5196,7 +5196,7 @@
             <v>164000000000430</v>
           </cell>
           <cell r="M433" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000430::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000430::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="434">
@@ -5207,7 +5207,7 @@
             <v>164000000000431</v>
           </cell>
           <cell r="M434" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000431::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000431::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="435">
@@ -5218,7 +5218,7 @@
             <v>164000000000432</v>
           </cell>
           <cell r="M435" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000432::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000432::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="436">
@@ -5229,7 +5229,7 @@
             <v>164000000000433</v>
           </cell>
           <cell r="M436" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000433::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000433::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="437">
@@ -5240,7 +5240,7 @@
             <v>164000000000434</v>
           </cell>
           <cell r="M437" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000434::bigint, 163000000000002::bigint, null::bigint, null::bigint, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000434::bigint, 163000000000002::bigint, null::bigint, null::bigint, '2003-7-7 00:00:00+07'::timestamptz, '2023-02-11 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="438">
@@ -5251,7 +5251,7 @@
             <v>164000000000435</v>
           </cell>
           <cell r="M438" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000435::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000435::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="439">
@@ -5262,7 +5262,7 @@
             <v>164000000000436</v>
           </cell>
           <cell r="M439" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000436::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000436::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="440">
@@ -5273,7 +5273,7 @@
             <v>164000000000437</v>
           </cell>
           <cell r="M440" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000437::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="441">
@@ -5284,7 +5284,7 @@
             <v>164000000000438</v>
           </cell>
           <cell r="M441" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000438::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000438::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="442">
@@ -5295,7 +5295,7 @@
             <v>164000000000439</v>
           </cell>
           <cell r="M442" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000439::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000439::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="443">
@@ -5306,7 +5306,7 @@
             <v>164000000000440</v>
           </cell>
           <cell r="M443" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000440::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000440::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="444">
@@ -5317,7 +5317,7 @@
             <v>164000000000441</v>
           </cell>
           <cell r="M444" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000441::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000441::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="445">
@@ -5328,7 +5328,7 @@
             <v>164000000000442</v>
           </cell>
           <cell r="M445" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000442::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000442::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="446">
@@ -5339,7 +5339,7 @@
             <v>164000000000443</v>
           </cell>
           <cell r="M446" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000443::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000443::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="447">
@@ -5350,7 +5350,7 @@
             <v>164000000000444</v>
           </cell>
           <cell r="M447" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000444::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000444::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="448">
@@ -5361,7 +5361,7 @@
             <v>164000000000445</v>
           </cell>
           <cell r="M448" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000445::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000445::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="449">
@@ -5372,7 +5372,7 @@
             <v>164000000000446</v>
           </cell>
           <cell r="M449" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000446::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000446::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="450">
@@ -5383,7 +5383,7 @@
             <v>164000000000447</v>
           </cell>
           <cell r="M450" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000447::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000447::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="451">
@@ -5394,7 +5394,7 @@
             <v>164000000000448</v>
           </cell>
           <cell r="M451" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000448::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000448::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="452">
@@ -5405,7 +5405,7 @@
             <v>164000000000449</v>
           </cell>
           <cell r="M452" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000449::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000449::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="453">
@@ -5416,7 +5416,7 @@
             <v>164000000000450</v>
           </cell>
           <cell r="M453" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000450::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="454">
@@ -5427,7 +5427,7 @@
             <v>164000000000451</v>
           </cell>
           <cell r="M454" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000451::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000451::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="455">
@@ -5438,7 +5438,7 @@
             <v>164000000000452</v>
           </cell>
           <cell r="M455" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000452::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000452::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="456">
@@ -5449,7 +5449,7 @@
             <v>164000000000453</v>
           </cell>
           <cell r="M456" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000453::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000453::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="457">
@@ -5460,7 +5460,7 @@
             <v>164000000000454</v>
           </cell>
           <cell r="M457" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000454::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000454::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="458">
@@ -5471,7 +5471,7 @@
             <v>164000000000455</v>
           </cell>
           <cell r="M458" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000455::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000455::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="459">
@@ -5482,7 +5482,7 @@
             <v>164000000000456</v>
           </cell>
           <cell r="M459" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000456::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000456::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="460">
@@ -5493,7 +5493,7 @@
             <v>164000000000457</v>
           </cell>
           <cell r="M460" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000457::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000457::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="461">
@@ -5504,7 +5504,7 @@
             <v>164000000000458</v>
           </cell>
           <cell r="M461" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000458::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000458::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="462">
@@ -5515,7 +5515,7 @@
             <v>164000000000459</v>
           </cell>
           <cell r="M462" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000459::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000459::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="463">
@@ -5526,7 +5526,7 @@
             <v>164000000000460</v>
           </cell>
           <cell r="M463" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000460::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000460::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="464">
@@ -5537,7 +5537,7 @@
             <v>164000000000461</v>
           </cell>
           <cell r="M464" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000461::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000461::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="465">
@@ -5548,7 +5548,7 @@
             <v>164000000000462</v>
           </cell>
           <cell r="M465" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000462::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000462::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="466">
@@ -5559,7 +5559,7 @@
             <v>164000000000463</v>
           </cell>
           <cell r="M466" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000463::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000463::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="467">
@@ -5570,7 +5570,7 @@
             <v>164000000000464</v>
           </cell>
           <cell r="M467" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000464::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000464::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="468">
@@ -5581,7 +5581,7 @@
             <v>164000000000465</v>
           </cell>
           <cell r="M468" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000465::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000465::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="469">
@@ -5592,7 +5592,7 @@
             <v>164000000000466</v>
           </cell>
           <cell r="M469" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000466::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000466::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="470">
@@ -5603,7 +5603,7 @@
             <v>164000000000467</v>
           </cell>
           <cell r="M470" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000467::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000467::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="471">
@@ -5614,7 +5614,7 @@
             <v>164000000000468</v>
           </cell>
           <cell r="M471" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000468::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000468::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="472">
@@ -5625,7 +5625,7 @@
             <v>164000000000469</v>
           </cell>
           <cell r="M472" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000469::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000469::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="473">
@@ -5636,7 +5636,7 @@
             <v>164000000000470</v>
           </cell>
           <cell r="M473" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000470::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000470::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="474">
@@ -5647,7 +5647,7 @@
             <v>164000000000471</v>
           </cell>
           <cell r="M474" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000471::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000471::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="475">
@@ -5658,7 +5658,7 @@
             <v>164000000000472</v>
           </cell>
           <cell r="M475" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000472::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000472::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="476">
@@ -5669,7 +5669,7 @@
             <v>164000000000473</v>
           </cell>
           <cell r="M476" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000473::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000473::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="477">
@@ -5680,7 +5680,7 @@
             <v>164000000000474</v>
           </cell>
           <cell r="M477" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000474::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000474::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="478">
@@ -5691,7 +5691,7 @@
             <v>164000000000475</v>
           </cell>
           <cell r="M478" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000475::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000475::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="479">
@@ -5702,7 +5702,7 @@
             <v>164000000000476</v>
           </cell>
           <cell r="M479" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000476::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000476::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="480">
@@ -5713,7 +5713,7 @@
             <v>164000000000477</v>
           </cell>
           <cell r="M480" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000477::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000477::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="481">
@@ -5724,7 +5724,7 @@
             <v>164000000000478</v>
           </cell>
           <cell r="M481" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000478::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000478::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="482">
@@ -5735,7 +5735,7 @@
             <v>164000000000479</v>
           </cell>
           <cell r="M482" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000479::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000479::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="483">
@@ -5746,7 +5746,7 @@
             <v>164000000000480</v>
           </cell>
           <cell r="M483" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000480::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000480::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="484">
@@ -5757,7 +5757,7 @@
             <v>164000000000481</v>
           </cell>
           <cell r="M484" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000481::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000481::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="485">
@@ -5768,7 +5768,7 @@
             <v>164000000000482</v>
           </cell>
           <cell r="M485" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000482::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000482::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="486">
@@ -5779,7 +5779,7 @@
             <v>164000000000483</v>
           </cell>
           <cell r="M486" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000483::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000483::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="487">
@@ -5790,7 +5790,7 @@
             <v>164000000000484</v>
           </cell>
           <cell r="M487" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000484::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000484::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="488">
@@ -5801,7 +5801,7 @@
             <v>164000000000485</v>
           </cell>
           <cell r="M488" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000485::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="489">
@@ -5812,7 +5812,7 @@
             <v>164000000000486</v>
           </cell>
           <cell r="M489" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000486::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000486::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="490">
@@ -5823,7 +5823,7 @@
             <v>164000000000487</v>
           </cell>
           <cell r="M490" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000487::bigint, 163000000000002::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000487::bigint, 163000000000002::bigint, 111000000000004::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="491">
@@ -5834,7 +5834,7 @@
             <v>164000000000488</v>
           </cell>
           <cell r="M491" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000488::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000488::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="492">
@@ -5845,7 +5845,7 @@
             <v>164000000000489</v>
           </cell>
           <cell r="M492" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000489::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000489::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="493">
@@ -5856,7 +5856,7 @@
             <v>164000000000490</v>
           </cell>
           <cell r="M493" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000490::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000490::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="494">
@@ -5867,7 +5867,7 @@
             <v>164000000000491</v>
           </cell>
           <cell r="M494" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000491::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000491::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="495">
@@ -5878,7 +5878,7 @@
             <v>164000000000492</v>
           </cell>
           <cell r="M495" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000492::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000492::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="496">
@@ -5889,7 +5889,7 @@
             <v>164000000000493</v>
           </cell>
           <cell r="M496" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000493::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000493::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="497">
@@ -5900,7 +5900,7 @@
             <v>164000000000494</v>
           </cell>
           <cell r="M497" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000494::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000494::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="498">
@@ -5911,7 +5911,7 @@
             <v>164000000000495</v>
           </cell>
           <cell r="M498" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000495::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000495::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="499">
@@ -5922,7 +5922,7 @@
             <v>164000000000496</v>
           </cell>
           <cell r="M499" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000496::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000496::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="500">
@@ -5933,7 +5933,7 @@
             <v>164000000000497</v>
           </cell>
           <cell r="M500" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000497::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000497::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="501">
@@ -5944,7 +5944,7 @@
             <v>164000000000498</v>
           </cell>
           <cell r="M501" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000498::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000498::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="502">
@@ -5955,7 +5955,7 @@
             <v>164000000000499</v>
           </cell>
           <cell r="M502" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000499::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000499::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="503">
@@ -5966,7 +5966,7 @@
             <v>164000000000500</v>
           </cell>
           <cell r="M503" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000500::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000500::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="504">
@@ -5977,7 +5977,7 @@
             <v>164000000000501</v>
           </cell>
           <cell r="M504" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000501::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000501::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="505">
@@ -5988,7 +5988,7 @@
             <v>164000000000502</v>
           </cell>
           <cell r="M505" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000502::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000502::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="506">
@@ -5999,7 +5999,7 @@
             <v>164000000000503</v>
           </cell>
           <cell r="M506" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000503::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000503::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="507">
@@ -6010,7 +6010,7 @@
             <v>164000000000504</v>
           </cell>
           <cell r="M507" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000504::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000504::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="508">
@@ -6021,7 +6021,7 @@
             <v>164000000000505</v>
           </cell>
           <cell r="M508" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000505::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000505::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="509">
@@ -6032,7 +6032,7 @@
             <v>164000000000506</v>
           </cell>
           <cell r="M509" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000506::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000506::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="510">
@@ -6043,7 +6043,7 @@
             <v>164000000000507</v>
           </cell>
           <cell r="M510" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000507::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000507::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="511">
@@ -6054,7 +6054,7 @@
             <v>164000000000508</v>
           </cell>
           <cell r="M511" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000508::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000508::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="512">
@@ -6065,7 +6065,7 @@
             <v>164000000000509</v>
           </cell>
           <cell r="M512" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000509::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000509::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="513">
@@ -6076,7 +6076,7 @@
             <v>164000000000510</v>
           </cell>
           <cell r="M513" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000510::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000510::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="514">
@@ -6087,7 +6087,7 @@
             <v>164000000000511</v>
           </cell>
           <cell r="M514" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000511::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000511::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="515">
@@ -6098,7 +6098,7 @@
             <v>164000000000512</v>
           </cell>
           <cell r="M515" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000512::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000512::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="516">
@@ -6109,7 +6109,7 @@
             <v>164000000000513</v>
           </cell>
           <cell r="M516" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000513::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000513::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="517">
@@ -6120,7 +6120,7 @@
             <v>164000000000514</v>
           </cell>
           <cell r="M517" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000514::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000514::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="518">
@@ -6131,7 +6131,7 @@
             <v>164000000000515</v>
           </cell>
           <cell r="M518" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000515::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000515::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="519">
@@ -6142,7 +6142,7 @@
             <v>164000000000516</v>
           </cell>
           <cell r="M519" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000516::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000516::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="520">
@@ -6153,7 +6153,7 @@
             <v>164000000000517</v>
           </cell>
           <cell r="M520" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000517::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000517::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="521">
@@ -6164,7 +6164,7 @@
             <v>164000000000518</v>
           </cell>
           <cell r="M521" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000518::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000518::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="522">
@@ -6175,7 +6175,7 @@
             <v>164000000000519</v>
           </cell>
           <cell r="M522" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000519::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000519::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="523">
@@ -6186,7 +6186,7 @@
             <v>164000000000520</v>
           </cell>
           <cell r="M523" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000520::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000520::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="524">
@@ -6197,7 +6197,7 @@
             <v>164000000000521</v>
           </cell>
           <cell r="M524" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000521::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000521::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="525">
@@ -6208,7 +6208,7 @@
             <v>164000000000522</v>
           </cell>
           <cell r="M525" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000522::bigint, 163000000000002::bigint, 111000000000012::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000522::bigint, 163000000000002::bigint, 111000000000012::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="526">
@@ -6219,7 +6219,7 @@
             <v>164000000000523</v>
           </cell>
           <cell r="M526" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000523::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000523::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="527">
@@ -6230,7 +6230,7 @@
             <v>164000000000524</v>
           </cell>
           <cell r="M527" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000524::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000524::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="528">
@@ -6241,7 +6241,7 @@
             <v>164000000000525</v>
           </cell>
           <cell r="M528" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000525::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000525::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="529">
@@ -6252,7 +6252,7 @@
             <v>164000000000526</v>
           </cell>
           <cell r="M529" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000526::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000526::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="530">
@@ -6263,7 +6263,7 @@
             <v>164000000000527</v>
           </cell>
           <cell r="M530" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000527::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000527::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="531">
@@ -6274,7 +6274,7 @@
             <v>164000000000528</v>
           </cell>
           <cell r="M531" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000528::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000528::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="532">
@@ -6285,7 +6285,7 @@
             <v>164000000000529</v>
           </cell>
           <cell r="M532" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000529::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000529::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="533">
@@ -6296,7 +6296,7 @@
             <v>164000000000530</v>
           </cell>
           <cell r="M533" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000530::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000530::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="534">
@@ -6307,7 +6307,7 @@
             <v>164000000000531</v>
           </cell>
           <cell r="M534" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000531::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000531::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="535">
@@ -6318,7 +6318,7 @@
             <v>164000000000532</v>
           </cell>
           <cell r="M535" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000532::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000532::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="536">
@@ -6329,7 +6329,7 @@
             <v>164000000000533</v>
           </cell>
           <cell r="M536" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000533::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000533::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="537">
@@ -6340,7 +6340,7 @@
             <v>164000000000534</v>
           </cell>
           <cell r="M537" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000534::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000534::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="538">
@@ -6351,7 +6351,7 @@
             <v>164000000000535</v>
           </cell>
           <cell r="M538" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000535::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000535::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="539">
@@ -6362,7 +6362,7 @@
             <v>164000000000536</v>
           </cell>
           <cell r="M539" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000536::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000536::bigint, 163000000000002::bigint, 111000000000007::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="540">
@@ -6373,7 +6373,7 @@
             <v>164000000000537</v>
           </cell>
           <cell r="M540" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000537::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000537::bigint, 163000000000002::bigint, null::bigint, 160000000000003::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="541">
@@ -6384,7 +6384,7 @@
             <v>164000000000538</v>
           </cell>
           <cell r="M541" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000538::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000538::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="542">
@@ -6395,7 +6395,7 @@
             <v>164000000000539</v>
           </cell>
           <cell r="M542" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000539::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000539::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="543">
@@ -6406,7 +6406,7 @@
             <v>164000000000540</v>
           </cell>
           <cell r="M543" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000540::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000540::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '1900-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="544">
@@ -6417,7 +6417,7 @@
             <v>164000000000541</v>
           </cell>
           <cell r="M544" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000541::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000541::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="545">
@@ -6428,7 +6428,7 @@
             <v>164000000000542</v>
           </cell>
           <cell r="M545" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000542::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000542::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="546">
@@ -6439,7 +6439,7 @@
             <v>164000000000543</v>
           </cell>
           <cell r="M546" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000543::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000543::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="547">
@@ -6450,7 +6450,7 @@
             <v>164000000000544</v>
           </cell>
           <cell r="M547" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000544::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000544::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="548">
@@ -6461,7 +6461,7 @@
             <v>164000000000545</v>
           </cell>
           <cell r="M548" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000545::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000545::bigint, 163000000000002::bigint, 111000000000004::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="549">
@@ -6472,7 +6472,7 @@
             <v>164000000000546</v>
           </cell>
           <cell r="M549" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000546::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000546::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="550">
@@ -6483,7 +6483,7 @@
             <v>164000000000547</v>
           </cell>
           <cell r="M550" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000547::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000547::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="551">
@@ -6494,7 +6494,7 @@
             <v>164000000000548</v>
           </cell>
           <cell r="M551" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000548::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000548::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="552">
@@ -6505,7 +6505,7 @@
             <v>164000000000549</v>
           </cell>
           <cell r="M552" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000549::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000549::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="553">
@@ -6516,7 +6516,7 @@
             <v>164000000000550</v>
           </cell>
           <cell r="M553" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000550::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000550::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="554">
@@ -6527,7 +6527,7 @@
             <v>164000000000551</v>
           </cell>
           <cell r="M554" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000551::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000551::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="555">
@@ -6538,7 +6538,7 @@
             <v>164000000000552</v>
           </cell>
           <cell r="M555" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000552::bigint, 163000000000007::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000552::bigint, 163000000000007::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="556">
@@ -6549,7 +6549,7 @@
             <v>164000000000553</v>
           </cell>
           <cell r="M556" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000553::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000553::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="557">
@@ -6560,7 +6560,7 @@
             <v>164000000000554</v>
           </cell>
           <cell r="M557" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000554::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000554::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="558">
@@ -6571,7 +6571,7 @@
             <v>164000000000555</v>
           </cell>
           <cell r="M558" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000555::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000555::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="559">
@@ -6582,7 +6582,7 @@
             <v>164000000000556</v>
           </cell>
           <cell r="M559" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000556::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="560">
@@ -6593,7 +6593,7 @@
             <v>164000000000557</v>
           </cell>
           <cell r="M560" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000557::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="561">
@@ -6604,7 +6604,7 @@
             <v>164000000000558</v>
           </cell>
           <cell r="M561" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000558::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="562">
@@ -6615,7 +6615,7 @@
             <v>164000000000559</v>
           </cell>
           <cell r="M562" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="563">
@@ -6626,7 +6626,7 @@
             <v>164000000000560</v>
           </cell>
           <cell r="M563" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000560::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="564">
@@ -6637,7 +6637,7 @@
             <v>164000000000561</v>
           </cell>
           <cell r="M564" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000561::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="565">
@@ -6648,7 +6648,7 @@
             <v>164000000000562</v>
           </cell>
           <cell r="M565" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000562::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="566">
@@ -6659,7 +6659,7 @@
             <v>164000000000563</v>
           </cell>
           <cell r="M566" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000563::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="567">
@@ -6670,7 +6670,7 @@
             <v>164000000000564</v>
           </cell>
           <cell r="M567" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000564::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="568">
@@ -6681,7 +6681,7 @@
             <v>164000000000565</v>
           </cell>
           <cell r="M568" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000565::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="569">
@@ -6692,7 +6692,7 @@
             <v>164000000000566</v>
           </cell>
           <cell r="M569" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000566::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="570">
@@ -6703,7 +6703,7 @@
             <v>164000000000567</v>
           </cell>
           <cell r="M570" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000567::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="571">
@@ -6714,7 +6714,7 @@
             <v>164000000000568</v>
           </cell>
           <cell r="M571" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="572">
@@ -6725,7 +6725,7 @@
             <v>164000000000569</v>
           </cell>
           <cell r="M572" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="573">
@@ -6736,7 +6736,7 @@
             <v>164000000000570</v>
           </cell>
           <cell r="M573" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="574">
@@ -6747,7 +6747,7 @@
             <v>164000000000571</v>
           </cell>
           <cell r="M574" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="575">
@@ -6758,7 +6758,7 @@
             <v>164000000000572</v>
           </cell>
           <cell r="M575" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="576">
@@ -6769,7 +6769,7 @@
             <v>164000000000573</v>
           </cell>
           <cell r="M576" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="577">
@@ -6780,7 +6780,7 @@
             <v>164000000000574</v>
           </cell>
           <cell r="M577" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="578">
@@ -6791,7 +6791,7 @@
             <v>164000000000575</v>
           </cell>
           <cell r="M578" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="579">
@@ -6802,7 +6802,7 @@
             <v>164000000000576</v>
           </cell>
           <cell r="M579" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="580">
@@ -6813,7 +6813,7 @@
             <v>164000000000577</v>
           </cell>
           <cell r="M580" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="581">
@@ -6824,7 +6824,7 @@
             <v>164000000000578</v>
           </cell>
           <cell r="M581" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="582">
@@ -6835,7 +6835,7 @@
             <v>164000000000579</v>
           </cell>
           <cell r="M582" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="583">
@@ -6846,7 +6846,7 @@
             <v>164000000000580</v>
           </cell>
           <cell r="M583" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="584">
@@ -6857,7 +6857,7 @@
             <v>164000000000581</v>
           </cell>
           <cell r="M584" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="585">
@@ -6868,7 +6868,7 @@
             <v>164000000000582</v>
           </cell>
           <cell r="M585" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000582::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000582::bigint, 163000000000002::bigint, 111000000000003::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="586">
@@ -6879,7 +6879,7 @@
             <v>164000000000583</v>
           </cell>
           <cell r="M586" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="587">
@@ -6890,7 +6890,7 @@
             <v>164000000000584</v>
           </cell>
           <cell r="M587" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="588">
@@ -6901,7 +6901,7 @@
             <v>164000000000585</v>
           </cell>
           <cell r="M588" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null, varInstitutionBranchID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
       </sheetData>
@@ -19095,7 +19095,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -7203,12 +7203,12 @@
   </sheetPr>
   <dimension ref="B1:H589"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D230" sqref="D230"/>
       <selection pane="topRight" activeCell="D230" sqref="D230"/>
       <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
-      <selection pane="bottomRight" activeCell="D230" sqref="D230"/>
+      <selection pane="bottomRight" activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19091,8 +19091,8 @@
   </sheetPr>
   <dimension ref="B1:F589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -7204,11 +7204,11 @@
   <dimension ref="B1:H589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C431" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D230" sqref="D230"/>
       <selection pane="topRight" activeCell="D230" sqref="D230"/>
       <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
-      <selection pane="bottomRight" activeCell="E304" sqref="E304"/>
+      <selection pane="bottomRight" activeCell="G442" sqref="G442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
@@ -7204,11 +7204,11 @@
   <dimension ref="B1:H589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C431" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D230" sqref="D230"/>
       <selection pane="topRight" activeCell="D230" sqref="D230"/>
       <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
-      <selection pane="bottomRight" activeCell="G442" sqref="G442"/>
+      <selection pane="bottomRight" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10342,15 +10342,17 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M157, ""), "", '[1]Internal Career (Last Position)'!$C157)</f>
         <v>Fikri</v>
       </c>
-      <c r="D157" s="3"/>
+      <c r="D157" s="3">
+        <v>95000000000023</v>
+      </c>
       <c r="E157" s="3"/>
       <c r="G157" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000008</v>
+        <v>225000000000009</v>
       </c>
       <c r="H157" s="16" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000154::bigint, 95000000000023::bigint, null::bigint);</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
@@ -10366,7 +10368,7 @@
       <c r="E158" s="3"/>
       <c r="G158" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000008</v>
+        <v>225000000000009</v>
       </c>
       <c r="H158" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10386,7 +10388,7 @@
       <c r="E159" s="3"/>
       <c r="G159" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000008</v>
+        <v>225000000000009</v>
       </c>
       <c r="H159" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10408,7 +10410,7 @@
       <c r="E160" s="3"/>
       <c r="G160" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H160" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10428,7 +10430,7 @@
       <c r="E161" s="3"/>
       <c r="G161" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H161" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10448,7 +10450,7 @@
       <c r="E162" s="3"/>
       <c r="G162" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H162" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10468,7 +10470,7 @@
       <c r="E163" s="3"/>
       <c r="G163" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H163" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10488,7 +10490,7 @@
       <c r="E164" s="3"/>
       <c r="G164" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H164" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10508,7 +10510,7 @@
       <c r="E165" s="3"/>
       <c r="G165" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H165" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10528,7 +10530,7 @@
       <c r="E166" s="3"/>
       <c r="G166" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H166" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10548,7 +10550,7 @@
       <c r="E167" s="3"/>
       <c r="G167" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H167" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10568,7 +10570,7 @@
       <c r="E168" s="3"/>
       <c r="G168" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H168" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10588,7 +10590,7 @@
       <c r="E169" s="3"/>
       <c r="G169" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="H169" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10610,7 +10612,7 @@
       <c r="E170" s="3"/>
       <c r="G170" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000010</v>
+        <v>225000000000011</v>
       </c>
       <c r="H170" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10632,7 +10634,7 @@
       <c r="E171" s="3"/>
       <c r="G171" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H171" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10652,7 +10654,7 @@
       <c r="E172" s="3"/>
       <c r="G172" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H172" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10672,7 +10674,7 @@
       <c r="E173" s="3"/>
       <c r="G173" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H173" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10692,7 +10694,7 @@
       <c r="E174" s="3"/>
       <c r="G174" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H174" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10712,7 +10714,7 @@
       <c r="E175" s="3"/>
       <c r="G175" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H175" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10732,7 +10734,7 @@
       <c r="E176" s="3"/>
       <c r="G176" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H176" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10752,7 +10754,7 @@
       <c r="E177" s="3"/>
       <c r="G177" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H177" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10772,7 +10774,7 @@
       <c r="E178" s="3"/>
       <c r="G178" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H178" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10792,7 +10794,7 @@
       <c r="E179" s="3"/>
       <c r="G179" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H179" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10812,7 +10814,7 @@
       <c r="E180" s="3"/>
       <c r="G180" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H180" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10832,7 +10834,7 @@
       <c r="E181" s="3"/>
       <c r="G181" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H181" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10852,7 +10854,7 @@
       <c r="E182" s="3"/>
       <c r="G182" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H182" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10872,7 +10874,7 @@
       <c r="E183" s="3"/>
       <c r="G183" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H183" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10892,7 +10894,7 @@
       <c r="E184" s="3"/>
       <c r="G184" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H184" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10912,7 +10914,7 @@
       <c r="E185" s="3"/>
       <c r="G185" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H185" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10932,7 +10934,7 @@
       <c r="E186" s="3"/>
       <c r="G186" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H186" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10952,7 +10954,7 @@
       <c r="E187" s="3"/>
       <c r="G187" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H187" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10972,7 +10974,7 @@
       <c r="E188" s="3"/>
       <c r="G188" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H188" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10992,7 +10994,7 @@
       <c r="E189" s="3"/>
       <c r="G189" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H189" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11012,7 +11014,7 @@
       <c r="E190" s="3"/>
       <c r="G190" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H190" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11032,7 +11034,7 @@
       <c r="E191" s="3"/>
       <c r="G191" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H191" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11052,7 +11054,7 @@
       <c r="E192" s="3"/>
       <c r="G192" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H192" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11072,7 +11074,7 @@
       <c r="E193" s="3"/>
       <c r="G193" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H193" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11092,7 +11094,7 @@
       <c r="E194" s="3"/>
       <c r="G194" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H194" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11112,7 +11114,7 @@
       <c r="E195" s="3"/>
       <c r="G195" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H195" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11132,7 +11134,7 @@
       <c r="E196" s="3"/>
       <c r="G196" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H196" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11152,7 +11154,7 @@
       <c r="E197" s="3"/>
       <c r="G197" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H197" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11172,7 +11174,7 @@
       <c r="E198" s="3"/>
       <c r="G198" s="15">
         <f t="shared" ref="G198:G261" si="7" xml:space="preserve"> G197 + IF(EXACT(H198, ""), 0, 1)</f>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="H198" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11194,7 +11196,7 @@
       <c r="E199" s="3"/>
       <c r="G199" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H199" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11214,7 +11216,7 @@
       <c r="E200" s="3"/>
       <c r="G200" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H200" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11234,7 +11236,7 @@
       <c r="E201" s="3"/>
       <c r="G201" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H201" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11254,7 +11256,7 @@
       <c r="E202" s="3"/>
       <c r="G202" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H202" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11274,7 +11276,7 @@
       <c r="E203" s="3"/>
       <c r="G203" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H203" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11294,7 +11296,7 @@
       <c r="E204" s="3"/>
       <c r="G204" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H204" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11314,7 +11316,7 @@
       <c r="E205" s="3"/>
       <c r="G205" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H205" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11334,7 +11336,7 @@
       <c r="E206" s="3"/>
       <c r="G206" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H206" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11354,7 +11356,7 @@
       <c r="E207" s="3"/>
       <c r="G207" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H207" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11374,7 +11376,7 @@
       <c r="E208" s="3"/>
       <c r="G208" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H208" s="16" t="str">
         <f t="shared" ref="H208:H271" si="8">IF(EXACT(D208, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B208, ""), "null", B208), "::bigint, ", IF(EXACT(D208, ""), "null", D208), "::bigint, ", IF(EXACT(E208, ""), "null", E208), "::bigint);"))</f>
@@ -11394,7 +11396,7 @@
       <c r="E209" s="3"/>
       <c r="G209" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H209" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11414,7 +11416,7 @@
       <c r="E210" s="3"/>
       <c r="G210" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H210" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11434,7 +11436,7 @@
       <c r="E211" s="3"/>
       <c r="G211" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H211" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11454,7 +11456,7 @@
       <c r="E212" s="3"/>
       <c r="G212" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H212" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11474,7 +11476,7 @@
       <c r="E213" s="3"/>
       <c r="G213" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H213" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11494,7 +11496,7 @@
       <c r="E214" s="3"/>
       <c r="G214" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H214" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11514,7 +11516,7 @@
       <c r="E215" s="3"/>
       <c r="G215" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H215" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11534,7 +11536,7 @@
       <c r="E216" s="3"/>
       <c r="G216" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H216" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11554,7 +11556,7 @@
       <c r="E217" s="3"/>
       <c r="G217" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H217" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11574,7 +11576,7 @@
       <c r="E218" s="3"/>
       <c r="G218" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H218" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11594,7 +11596,7 @@
       <c r="E219" s="3"/>
       <c r="G219" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H219" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11614,7 +11616,7 @@
       <c r="E220" s="3"/>
       <c r="G220" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H220" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11634,7 +11636,7 @@
       <c r="E221" s="3"/>
       <c r="G221" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H221" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11654,7 +11656,7 @@
       <c r="E222" s="3"/>
       <c r="G222" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H222" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11674,7 +11676,7 @@
       <c r="E223" s="3"/>
       <c r="G223" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H223" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11694,7 +11696,7 @@
       <c r="E224" s="3"/>
       <c r="G224" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H224" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11714,7 +11716,7 @@
       <c r="E225" s="3"/>
       <c r="G225" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H225" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11734,7 +11736,7 @@
       <c r="E226" s="3"/>
       <c r="G226" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H226" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11754,7 +11756,7 @@
       <c r="E227" s="3"/>
       <c r="G227" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H227" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11774,7 +11776,7 @@
       <c r="E228" s="3"/>
       <c r="G228" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H228" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11794,7 +11796,7 @@
       <c r="E229" s="3"/>
       <c r="G229" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H229" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11814,7 +11816,7 @@
       <c r="E230" s="3"/>
       <c r="G230" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H230" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11834,7 +11836,7 @@
       <c r="E231" s="3"/>
       <c r="G231" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H231" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11854,7 +11856,7 @@
       <c r="E232" s="3"/>
       <c r="G232" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H232" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11874,7 +11876,7 @@
       <c r="E233" s="3"/>
       <c r="G233" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H233" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11894,7 +11896,7 @@
       <c r="E234" s="3"/>
       <c r="G234" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="H234" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11916,7 +11918,7 @@
       <c r="E235" s="3"/>
       <c r="G235" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H235" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11936,7 +11938,7 @@
       <c r="E236" s="3"/>
       <c r="G236" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H236" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11956,7 +11958,7 @@
       <c r="E237" s="3"/>
       <c r="G237" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H237" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11976,7 +11978,7 @@
       <c r="E238" s="3"/>
       <c r="G238" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H238" s="16" t="str">
         <f t="shared" si="8"/>
@@ -11996,7 +11998,7 @@
       <c r="E239" s="3"/>
       <c r="G239" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H239" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12016,7 +12018,7 @@
       <c r="E240" s="3"/>
       <c r="G240" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H240" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12036,7 +12038,7 @@
       <c r="E241" s="3"/>
       <c r="G241" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H241" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12056,7 +12058,7 @@
       <c r="E242" s="3"/>
       <c r="G242" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H242" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12076,7 +12078,7 @@
       <c r="E243" s="3"/>
       <c r="G243" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H243" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12096,7 +12098,7 @@
       <c r="E244" s="3"/>
       <c r="G244" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H244" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12116,7 +12118,7 @@
       <c r="E245" s="3"/>
       <c r="G245" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H245" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12136,7 +12138,7 @@
       <c r="E246" s="3"/>
       <c r="G246" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H246" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12156,7 +12158,7 @@
       <c r="E247" s="3"/>
       <c r="G247" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H247" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12176,7 +12178,7 @@
       <c r="E248" s="3"/>
       <c r="G248" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H248" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12196,7 +12198,7 @@
       <c r="E249" s="3"/>
       <c r="G249" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H249" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12216,7 +12218,7 @@
       <c r="E250" s="3"/>
       <c r="G250" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H250" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12236,7 +12238,7 @@
       <c r="E251" s="3"/>
       <c r="G251" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H251" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12256,7 +12258,7 @@
       <c r="E252" s="3"/>
       <c r="G252" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H252" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12276,7 +12278,7 @@
       <c r="E253" s="3"/>
       <c r="G253" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H253" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12296,7 +12298,7 @@
       <c r="E254" s="3"/>
       <c r="G254" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="H254" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12318,7 +12320,7 @@
       <c r="E255" s="3"/>
       <c r="G255" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000014</v>
+        <v>225000000000015</v>
       </c>
       <c r="H255" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12340,7 +12342,7 @@
       <c r="E256" s="3"/>
       <c r="G256" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H256" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12360,7 +12362,7 @@
       <c r="E257" s="3"/>
       <c r="G257" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H257" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12380,7 +12382,7 @@
       <c r="E258" s="3"/>
       <c r="G258" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H258" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12400,7 +12402,7 @@
       <c r="E259" s="3"/>
       <c r="G259" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H259" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12420,7 +12422,7 @@
       <c r="E260" s="3"/>
       <c r="G260" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H260" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12440,7 +12442,7 @@
       <c r="E261" s="3"/>
       <c r="G261" s="15">
         <f t="shared" si="7"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H261" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12460,7 +12462,7 @@
       <c r="E262" s="3"/>
       <c r="G262" s="15">
         <f t="shared" ref="G262:G325" si="9" xml:space="preserve"> G261 + IF(EXACT(H262, ""), 0, 1)</f>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H262" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12480,7 +12482,7 @@
       <c r="E263" s="3"/>
       <c r="G263" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H263" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12500,7 +12502,7 @@
       <c r="E264" s="3"/>
       <c r="G264" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H264" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12520,7 +12522,7 @@
       <c r="E265" s="3"/>
       <c r="G265" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H265" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12540,7 +12542,7 @@
       <c r="E266" s="3"/>
       <c r="G266" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H266" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12560,7 +12562,7 @@
       <c r="E267" s="3"/>
       <c r="G267" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H267" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12580,7 +12582,7 @@
       <c r="E268" s="3"/>
       <c r="G268" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H268" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12600,7 +12602,7 @@
       <c r="E269" s="3"/>
       <c r="G269" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H269" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12620,7 +12622,7 @@
       <c r="E270" s="3"/>
       <c r="G270" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H270" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12640,7 +12642,7 @@
       <c r="E271" s="3"/>
       <c r="G271" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H271" s="16" t="str">
         <f t="shared" si="8"/>
@@ -12660,7 +12662,7 @@
       <c r="E272" s="3"/>
       <c r="G272" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H272" s="16" t="str">
         <f t="shared" ref="H272:H335" si="10">IF(EXACT(D272, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B272, ""), "null", B272), "::bigint, ", IF(EXACT(D272, ""), "null", D272), "::bigint, ", IF(EXACT(E272, ""), "null", E272), "::bigint);"))</f>
@@ -12680,7 +12682,7 @@
       <c r="E273" s="3"/>
       <c r="G273" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H273" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12700,7 +12702,7 @@
       <c r="E274" s="3"/>
       <c r="G274" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H274" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12720,7 +12722,7 @@
       <c r="E275" s="3"/>
       <c r="G275" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H275" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12740,7 +12742,7 @@
       <c r="E276" s="3"/>
       <c r="G276" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H276" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12760,7 +12762,7 @@
       <c r="E277" s="3"/>
       <c r="G277" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H277" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12780,7 +12782,7 @@
       <c r="E278" s="3"/>
       <c r="G278" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H278" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12800,7 +12802,7 @@
       <c r="E279" s="3"/>
       <c r="G279" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H279" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12820,7 +12822,7 @@
       <c r="E280" s="3"/>
       <c r="G280" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H280" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12840,7 +12842,7 @@
       <c r="E281" s="3"/>
       <c r="G281" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H281" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12860,7 +12862,7 @@
       <c r="E282" s="3"/>
       <c r="G282" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H282" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12880,7 +12882,7 @@
       <c r="E283" s="3"/>
       <c r="G283" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H283" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12900,7 +12902,7 @@
       <c r="E284" s="3"/>
       <c r="G284" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H284" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12920,7 +12922,7 @@
       <c r="E285" s="3"/>
       <c r="G285" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H285" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12940,7 +12942,7 @@
       <c r="E286" s="3"/>
       <c r="G286" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H286" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12960,7 +12962,7 @@
       <c r="E287" s="3"/>
       <c r="G287" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H287" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12980,7 +12982,7 @@
       <c r="E288" s="3"/>
       <c r="G288" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H288" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13000,7 +13002,7 @@
       <c r="E289" s="3"/>
       <c r="G289" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H289" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13020,7 +13022,7 @@
       <c r="E290" s="3"/>
       <c r="G290" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H290" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13040,7 +13042,7 @@
       <c r="E291" s="3"/>
       <c r="G291" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H291" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13060,7 +13062,7 @@
       <c r="E292" s="3"/>
       <c r="G292" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H292" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13080,7 +13082,7 @@
       <c r="E293" s="3"/>
       <c r="G293" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H293" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13100,7 +13102,7 @@
       <c r="E294" s="3"/>
       <c r="G294" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H294" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13120,7 +13122,7 @@
       <c r="E295" s="3"/>
       <c r="G295" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H295" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13140,7 +13142,7 @@
       <c r="E296" s="3"/>
       <c r="G296" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H296" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13160,7 +13162,7 @@
       <c r="E297" s="3"/>
       <c r="G297" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H297" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13180,7 +13182,7 @@
       <c r="E298" s="3"/>
       <c r="G298" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H298" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13200,7 +13202,7 @@
       <c r="E299" s="3"/>
       <c r="G299" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H299" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13220,7 +13222,7 @@
       <c r="E300" s="3"/>
       <c r="G300" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H300" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13240,7 +13242,7 @@
       <c r="E301" s="3"/>
       <c r="G301" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H301" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13260,7 +13262,7 @@
       <c r="E302" s="3"/>
       <c r="G302" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H302" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13280,7 +13282,7 @@
       <c r="E303" s="3"/>
       <c r="G303" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="H303" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13302,7 +13304,7 @@
       <c r="E304" s="3"/>
       <c r="G304" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H304" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13322,7 +13324,7 @@
       <c r="E305" s="3"/>
       <c r="G305" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H305" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13342,7 +13344,7 @@
       <c r="E306" s="3"/>
       <c r="G306" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H306" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13362,7 +13364,7 @@
       <c r="E307" s="3"/>
       <c r="G307" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H307" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13382,7 +13384,7 @@
       <c r="E308" s="3"/>
       <c r="G308" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H308" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13402,7 +13404,7 @@
       <c r="E309" s="3"/>
       <c r="G309" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H309" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13422,7 +13424,7 @@
       <c r="E310" s="3"/>
       <c r="G310" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H310" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13442,7 +13444,7 @@
       <c r="E311" s="3"/>
       <c r="G311" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H311" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13462,7 +13464,7 @@
       <c r="E312" s="3"/>
       <c r="G312" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H312" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13482,7 +13484,7 @@
       <c r="E313" s="3"/>
       <c r="G313" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H313" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13502,7 +13504,7 @@
       <c r="E314" s="3"/>
       <c r="G314" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H314" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13522,7 +13524,7 @@
       <c r="E315" s="3"/>
       <c r="G315" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H315" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13542,7 +13544,7 @@
       <c r="E316" s="3"/>
       <c r="G316" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H316" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13562,7 +13564,7 @@
       <c r="E317" s="3"/>
       <c r="G317" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H317" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13582,7 +13584,7 @@
       <c r="E318" s="3"/>
       <c r="G318" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H318" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13602,7 +13604,7 @@
       <c r="E319" s="3"/>
       <c r="G319" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H319" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13622,7 +13624,7 @@
       <c r="E320" s="3"/>
       <c r="G320" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H320" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13642,7 +13644,7 @@
       <c r="E321" s="3"/>
       <c r="G321" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H321" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13662,7 +13664,7 @@
       <c r="E322" s="3"/>
       <c r="G322" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H322" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13682,7 +13684,7 @@
       <c r="E323" s="3"/>
       <c r="G323" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H323" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13702,7 +13704,7 @@
       <c r="E324" s="3"/>
       <c r="G324" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H324" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13722,7 +13724,7 @@
       <c r="E325" s="3"/>
       <c r="G325" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H325" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13742,7 +13744,7 @@
       <c r="E326" s="3"/>
       <c r="G326" s="15">
         <f t="shared" ref="G326:G389" si="11" xml:space="preserve"> G325 + IF(EXACT(H326, ""), 0, 1)</f>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H326" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13762,7 +13764,7 @@
       <c r="E327" s="3"/>
       <c r="G327" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H327" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13782,7 +13784,7 @@
       <c r="E328" s="3"/>
       <c r="G328" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H328" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13802,7 +13804,7 @@
       <c r="E329" s="3"/>
       <c r="G329" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H329" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13822,7 +13824,7 @@
       <c r="E330" s="3"/>
       <c r="G330" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H330" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13842,7 +13844,7 @@
       <c r="E331" s="3"/>
       <c r="G331" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H331" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13862,7 +13864,7 @@
       <c r="E332" s="3"/>
       <c r="G332" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H332" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13882,7 +13884,7 @@
       <c r="E333" s="3"/>
       <c r="G333" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H333" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13902,7 +13904,7 @@
       <c r="E334" s="3"/>
       <c r="G334" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H334" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13922,7 +13924,7 @@
       <c r="E335" s="3"/>
       <c r="G335" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H335" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13942,7 +13944,7 @@
       <c r="E336" s="3"/>
       <c r="G336" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H336" s="16" t="str">
         <f t="shared" ref="H336:H399" si="12">IF(EXACT(D336, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B336, ""), "null", B336), "::bigint, ", IF(EXACT(D336, ""), "null", D336), "::bigint, ", IF(EXACT(E336, ""), "null", E336), "::bigint);"))</f>
@@ -13962,7 +13964,7 @@
       <c r="E337" s="3"/>
       <c r="G337" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H337" s="16" t="str">
         <f t="shared" si="12"/>
@@ -13982,7 +13984,7 @@
       <c r="E338" s="3"/>
       <c r="G338" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H338" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14002,7 +14004,7 @@
       <c r="E339" s="3"/>
       <c r="G339" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H339" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14022,7 +14024,7 @@
       <c r="E340" s="3"/>
       <c r="G340" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H340" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14042,7 +14044,7 @@
       <c r="E341" s="3"/>
       <c r="G341" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H341" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14062,7 +14064,7 @@
       <c r="E342" s="3"/>
       <c r="G342" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H342" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14082,7 +14084,7 @@
       <c r="E343" s="3"/>
       <c r="G343" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H343" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14102,7 +14104,7 @@
       <c r="E344" s="3"/>
       <c r="G344" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H344" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14122,7 +14124,7 @@
       <c r="E345" s="3"/>
       <c r="G345" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H345" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14142,7 +14144,7 @@
       <c r="E346" s="3"/>
       <c r="G346" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H346" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14162,7 +14164,7 @@
       <c r="E347" s="3"/>
       <c r="G347" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H347" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14182,7 +14184,7 @@
       <c r="E348" s="3"/>
       <c r="G348" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H348" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14202,7 +14204,7 @@
       <c r="E349" s="3"/>
       <c r="G349" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H349" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14224,7 +14226,7 @@
       <c r="E350" s="3"/>
       <c r="G350" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H350" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14244,7 +14246,7 @@
       <c r="E351" s="3"/>
       <c r="G351" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H351" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14264,7 +14266,7 @@
       <c r="E352" s="3"/>
       <c r="G352" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H352" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14284,7 +14286,7 @@
       <c r="E353" s="3"/>
       <c r="G353" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H353" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14304,7 +14306,7 @@
       <c r="E354" s="3"/>
       <c r="G354" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H354" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14324,7 +14326,7 @@
       <c r="E355" s="3"/>
       <c r="G355" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H355" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14344,7 +14346,7 @@
       <c r="E356" s="3"/>
       <c r="G356" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H356" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14364,7 +14366,7 @@
       <c r="E357" s="3"/>
       <c r="G357" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H357" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14384,7 +14386,7 @@
       <c r="E358" s="3"/>
       <c r="G358" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H358" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14404,7 +14406,7 @@
       <c r="E359" s="3"/>
       <c r="G359" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H359" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14424,7 +14426,7 @@
       <c r="E360" s="3"/>
       <c r="G360" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H360" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14444,7 +14446,7 @@
       <c r="E361" s="3"/>
       <c r="G361" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H361" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14464,7 +14466,7 @@
       <c r="E362" s="3"/>
       <c r="G362" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H362" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14484,7 +14486,7 @@
       <c r="E363" s="3"/>
       <c r="G363" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H363" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14504,7 +14506,7 @@
       <c r="E364" s="3"/>
       <c r="G364" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H364" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14524,7 +14526,7 @@
       <c r="E365" s="3"/>
       <c r="G365" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H365" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14544,7 +14546,7 @@
       <c r="E366" s="3"/>
       <c r="G366" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H366" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14564,7 +14566,7 @@
       <c r="E367" s="3"/>
       <c r="G367" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H367" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14584,7 +14586,7 @@
       <c r="E368" s="3"/>
       <c r="G368" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H368" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14604,7 +14606,7 @@
       <c r="E369" s="3"/>
       <c r="G369" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H369" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14624,7 +14626,7 @@
       <c r="E370" s="3"/>
       <c r="G370" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H370" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14644,7 +14646,7 @@
       <c r="E371" s="3"/>
       <c r="G371" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H371" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14664,7 +14666,7 @@
       <c r="E372" s="3"/>
       <c r="G372" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H372" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14684,7 +14686,7 @@
       <c r="E373" s="3"/>
       <c r="G373" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H373" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14704,7 +14706,7 @@
       <c r="E374" s="3"/>
       <c r="G374" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H374" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14724,7 +14726,7 @@
       <c r="E375" s="3"/>
       <c r="G375" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H375" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14744,7 +14746,7 @@
       <c r="E376" s="3"/>
       <c r="G376" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H376" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14764,7 +14766,7 @@
       <c r="E377" s="3"/>
       <c r="G377" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H377" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14784,7 +14786,7 @@
       <c r="E378" s="3"/>
       <c r="G378" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H378" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14804,7 +14806,7 @@
       <c r="E379" s="3"/>
       <c r="G379" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H379" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14824,7 +14826,7 @@
       <c r="E380" s="3"/>
       <c r="G380" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H380" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14844,7 +14846,7 @@
       <c r="E381" s="3"/>
       <c r="G381" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H381" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14864,7 +14866,7 @@
       <c r="E382" s="3"/>
       <c r="G382" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H382" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14884,7 +14886,7 @@
       <c r="E383" s="3"/>
       <c r="G383" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H383" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14904,7 +14906,7 @@
       <c r="E384" s="3"/>
       <c r="G384" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H384" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14924,7 +14926,7 @@
       <c r="E385" s="3"/>
       <c r="G385" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H385" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14944,7 +14946,7 @@
       <c r="E386" s="3"/>
       <c r="G386" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H386" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14964,7 +14966,7 @@
       <c r="E387" s="3"/>
       <c r="G387" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H387" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14984,7 +14986,7 @@
       <c r="E388" s="3"/>
       <c r="G388" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H388" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15004,7 +15006,7 @@
       <c r="E389" s="3"/>
       <c r="G389" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H389" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15024,7 +15026,7 @@
       <c r="E390" s="3"/>
       <c r="G390" s="15">
         <f t="shared" ref="G390:G453" si="13" xml:space="preserve"> G389 + IF(EXACT(H390, ""), 0, 1)</f>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H390" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15044,7 +15046,7 @@
       <c r="E391" s="3"/>
       <c r="G391" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H391" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15064,7 +15066,7 @@
       <c r="E392" s="3"/>
       <c r="G392" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H392" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15084,7 +15086,7 @@
       <c r="E393" s="3"/>
       <c r="G393" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H393" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15106,7 +15108,7 @@
       <c r="E394" s="3"/>
       <c r="G394" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H394" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15126,7 +15128,7 @@
       <c r="E395" s="3"/>
       <c r="G395" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H395" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15146,7 +15148,7 @@
       <c r="E396" s="3"/>
       <c r="G396" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H396" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15166,7 +15168,7 @@
       <c r="E397" s="3"/>
       <c r="G397" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H397" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15186,7 +15188,7 @@
       <c r="E398" s="3"/>
       <c r="G398" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H398" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15206,7 +15208,7 @@
       <c r="E399" s="3"/>
       <c r="G399" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H399" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15228,7 +15230,7 @@
       <c r="E400" s="3"/>
       <c r="G400" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H400" s="16" t="str">
         <f t="shared" ref="H400:H463" si="14">IF(EXACT(D400, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B400, ""), "null", B400), "::bigint, ", IF(EXACT(D400, ""), "null", D400), "::bigint, ", IF(EXACT(E400, ""), "null", E400), "::bigint);"))</f>
@@ -15248,7 +15250,7 @@
       <c r="E401" s="3"/>
       <c r="G401" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H401" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15268,7 +15270,7 @@
       <c r="E402" s="3"/>
       <c r="G402" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H402" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15288,7 +15290,7 @@
       <c r="E403" s="3"/>
       <c r="G403" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H403" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15308,7 +15310,7 @@
       <c r="E404" s="3"/>
       <c r="G404" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H404" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15328,7 +15330,7 @@
       <c r="E405" s="3"/>
       <c r="G405" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H405" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15348,7 +15350,7 @@
       <c r="E406" s="3"/>
       <c r="G406" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H406" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15368,7 +15370,7 @@
       <c r="E407" s="3"/>
       <c r="G407" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H407" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15388,7 +15390,7 @@
       <c r="E408" s="3"/>
       <c r="G408" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H408" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15408,7 +15410,7 @@
       <c r="E409" s="3"/>
       <c r="G409" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H409" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15428,7 +15430,7 @@
       <c r="E410" s="3"/>
       <c r="G410" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H410" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15448,7 +15450,7 @@
       <c r="E411" s="3"/>
       <c r="G411" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H411" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15468,7 +15470,7 @@
       <c r="E412" s="3"/>
       <c r="G412" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H412" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15488,7 +15490,7 @@
       <c r="E413" s="3"/>
       <c r="G413" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H413" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15508,7 +15510,7 @@
       <c r="E414" s="3"/>
       <c r="G414" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H414" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15528,7 +15530,7 @@
       <c r="E415" s="3"/>
       <c r="G415" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H415" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15550,7 +15552,7 @@
       <c r="E416" s="3"/>
       <c r="G416" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H416" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15570,7 +15572,7 @@
       <c r="E417" s="3"/>
       <c r="G417" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H417" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15590,7 +15592,7 @@
       <c r="E418" s="3"/>
       <c r="G418" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H418" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15610,7 +15612,7 @@
       <c r="E419" s="3"/>
       <c r="G419" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H419" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15630,7 +15632,7 @@
       <c r="E420" s="3"/>
       <c r="G420" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H420" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15650,7 +15652,7 @@
       <c r="E421" s="3"/>
       <c r="G421" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H421" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15670,7 +15672,7 @@
       <c r="E422" s="3"/>
       <c r="G422" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H422" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15690,7 +15692,7 @@
       <c r="E423" s="3"/>
       <c r="G423" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H423" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15710,7 +15712,7 @@
       <c r="E424" s="3"/>
       <c r="G424" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H424" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15730,7 +15732,7 @@
       <c r="E425" s="3"/>
       <c r="G425" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H425" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15750,7 +15752,7 @@
       <c r="E426" s="3"/>
       <c r="G426" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H426" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15770,7 +15772,7 @@
       <c r="E427" s="3"/>
       <c r="G427" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H427" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15790,7 +15792,7 @@
       <c r="E428" s="3"/>
       <c r="G428" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H428" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15810,7 +15812,7 @@
       <c r="E429" s="3"/>
       <c r="G429" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H429" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15830,7 +15832,7 @@
       <c r="E430" s="3"/>
       <c r="G430" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H430" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15852,7 +15854,7 @@
       <c r="E431" s="3"/>
       <c r="G431" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H431" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15872,7 +15874,7 @@
       <c r="E432" s="3"/>
       <c r="G432" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H432" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15892,7 +15894,7 @@
       <c r="E433" s="3"/>
       <c r="G433" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H433" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15912,7 +15914,7 @@
       <c r="E434" s="3"/>
       <c r="G434" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H434" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15932,7 +15934,7 @@
       <c r="E435" s="3"/>
       <c r="G435" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H435" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15952,7 +15954,7 @@
       <c r="E436" s="3"/>
       <c r="G436" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H436" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15972,7 +15974,7 @@
       <c r="E437" s="3"/>
       <c r="G437" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H437" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15992,7 +15994,7 @@
       <c r="E438" s="3"/>
       <c r="G438" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H438" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16012,7 +16014,7 @@
       <c r="E439" s="3"/>
       <c r="G439" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H439" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16032,7 +16034,7 @@
       <c r="E440" s="3"/>
       <c r="G440" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H440" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16052,7 +16054,7 @@
       <c r="E441" s="3"/>
       <c r="G441" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H441" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16074,7 +16076,7 @@
       <c r="E442" s="3"/>
       <c r="G442" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H442" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16094,7 +16096,7 @@
       <c r="E443" s="3"/>
       <c r="G443" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H443" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16114,7 +16116,7 @@
       <c r="E444" s="3"/>
       <c r="G444" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H444" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16134,7 +16136,7 @@
       <c r="E445" s="3"/>
       <c r="G445" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H445" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16154,7 +16156,7 @@
       <c r="E446" s="3"/>
       <c r="G446" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H446" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16174,7 +16176,7 @@
       <c r="E447" s="3"/>
       <c r="G447" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H447" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16194,7 +16196,7 @@
       <c r="E448" s="3"/>
       <c r="G448" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H448" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16214,7 +16216,7 @@
       <c r="E449" s="3"/>
       <c r="G449" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H449" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16234,7 +16236,7 @@
       <c r="E450" s="3"/>
       <c r="G450" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H450" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16254,7 +16256,7 @@
       <c r="E451" s="3"/>
       <c r="G451" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H451" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16274,7 +16276,7 @@
       <c r="E452" s="3"/>
       <c r="G452" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H452" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16294,7 +16296,7 @@
       <c r="E453" s="3"/>
       <c r="G453" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H453" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16314,7 +16316,7 @@
       <c r="E454" s="3"/>
       <c r="G454" s="15">
         <f t="shared" ref="G454:G517" si="15" xml:space="preserve"> G453 + IF(EXACT(H454, ""), 0, 1)</f>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H454" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16336,7 +16338,7 @@
       <c r="E455" s="3"/>
       <c r="G455" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H455" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16356,7 +16358,7 @@
       <c r="E456" s="3"/>
       <c r="G456" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H456" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16376,7 +16378,7 @@
       <c r="E457" s="3"/>
       <c r="G457" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H457" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16396,7 +16398,7 @@
       <c r="E458" s="3"/>
       <c r="G458" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H458" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16416,7 +16418,7 @@
       <c r="E459" s="3"/>
       <c r="G459" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H459" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16436,7 +16438,7 @@
       <c r="E460" s="3"/>
       <c r="G460" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H460" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16456,7 +16458,7 @@
       <c r="E461" s="3"/>
       <c r="G461" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H461" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16476,7 +16478,7 @@
       <c r="E462" s="3"/>
       <c r="G462" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H462" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16496,7 +16498,7 @@
       <c r="E463" s="3"/>
       <c r="G463" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H463" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16516,7 +16518,7 @@
       <c r="E464" s="3"/>
       <c r="G464" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H464" s="16" t="str">
         <f t="shared" ref="H464:H527" si="16">IF(EXACT(D464, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B464, ""), "null", B464), "::bigint, ", IF(EXACT(D464, ""), "null", D464), "::bigint, ", IF(EXACT(E464, ""), "null", E464), "::bigint);"))</f>
@@ -16536,7 +16538,7 @@
       <c r="E465" s="3"/>
       <c r="G465" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H465" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16556,7 +16558,7 @@
       <c r="E466" s="3"/>
       <c r="G466" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H466" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16576,7 +16578,7 @@
       <c r="E467" s="3"/>
       <c r="G467" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H467" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16596,7 +16598,7 @@
       <c r="E468" s="3"/>
       <c r="G468" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H468" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16616,7 +16618,7 @@
       <c r="E469" s="3"/>
       <c r="G469" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H469" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16636,7 +16638,7 @@
       <c r="E470" s="3"/>
       <c r="G470" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H470" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16656,7 +16658,7 @@
       <c r="E471" s="3"/>
       <c r="G471" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H471" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16676,7 +16678,7 @@
       <c r="E472" s="3"/>
       <c r="G472" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H472" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16696,7 +16698,7 @@
       <c r="E473" s="3"/>
       <c r="G473" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H473" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16716,7 +16718,7 @@
       <c r="E474" s="3"/>
       <c r="G474" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H474" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16736,7 +16738,7 @@
       <c r="E475" s="3"/>
       <c r="G475" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H475" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16756,7 +16758,7 @@
       <c r="E476" s="3"/>
       <c r="G476" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H476" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16776,7 +16778,7 @@
       <c r="E477" s="3"/>
       <c r="G477" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H477" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16796,7 +16798,7 @@
       <c r="E478" s="3"/>
       <c r="G478" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H478" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16816,7 +16818,7 @@
       <c r="E479" s="3"/>
       <c r="G479" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H479" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16836,7 +16838,7 @@
       <c r="E480" s="3"/>
       <c r="G480" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H480" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16856,7 +16858,7 @@
       <c r="E481" s="3"/>
       <c r="G481" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H481" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16876,7 +16878,7 @@
       <c r="E482" s="3"/>
       <c r="G482" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H482" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16896,7 +16898,7 @@
       <c r="E483" s="3"/>
       <c r="G483" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H483" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16916,7 +16918,7 @@
       <c r="E484" s="3"/>
       <c r="G484" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H484" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16936,7 +16938,7 @@
       <c r="E485" s="3"/>
       <c r="G485" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H485" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16956,7 +16958,7 @@
       <c r="E486" s="3"/>
       <c r="G486" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H486" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16976,7 +16978,7 @@
       <c r="E487" s="3"/>
       <c r="G487" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H487" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16996,7 +16998,7 @@
       <c r="E488" s="3"/>
       <c r="G488" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H488" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17016,7 +17018,7 @@
       <c r="E489" s="3"/>
       <c r="G489" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H489" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17038,7 +17040,7 @@
       <c r="E490" s="3"/>
       <c r="G490" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H490" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17058,7 +17060,7 @@
       <c r="E491" s="3"/>
       <c r="G491" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H491" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17078,7 +17080,7 @@
       <c r="E492" s="3"/>
       <c r="G492" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H492" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17098,7 +17100,7 @@
       <c r="E493" s="3"/>
       <c r="G493" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H493" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17118,7 +17120,7 @@
       <c r="E494" s="3"/>
       <c r="G494" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H494" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17138,7 +17140,7 @@
       <c r="E495" s="3"/>
       <c r="G495" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H495" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17158,7 +17160,7 @@
       <c r="E496" s="3"/>
       <c r="G496" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H496" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17178,7 +17180,7 @@
       <c r="E497" s="3"/>
       <c r="G497" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H497" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17198,7 +17200,7 @@
       <c r="E498" s="3"/>
       <c r="G498" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H498" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17218,7 +17220,7 @@
       <c r="E499" s="3"/>
       <c r="G499" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H499" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17240,7 +17242,7 @@
       <c r="E500" s="3"/>
       <c r="G500" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H500" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17260,7 +17262,7 @@
       <c r="E501" s="3"/>
       <c r="G501" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H501" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17280,7 +17282,7 @@
       <c r="E502" s="3"/>
       <c r="G502" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H502" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17300,7 +17302,7 @@
       <c r="E503" s="3"/>
       <c r="G503" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H503" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17320,7 +17322,7 @@
       <c r="E504" s="3"/>
       <c r="G504" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H504" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17340,7 +17342,7 @@
       <c r="E505" s="3"/>
       <c r="G505" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H505" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17360,7 +17362,7 @@
       <c r="E506" s="3"/>
       <c r="G506" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H506" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17380,7 +17382,7 @@
       <c r="E507" s="3"/>
       <c r="G507" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H507" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17400,7 +17402,7 @@
       <c r="E508" s="3"/>
       <c r="G508" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H508" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17420,7 +17422,7 @@
       <c r="E509" s="3"/>
       <c r="G509" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H509" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17440,7 +17442,7 @@
       <c r="E510" s="3"/>
       <c r="G510" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H510" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17460,7 +17462,7 @@
       <c r="E511" s="3"/>
       <c r="G511" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H511" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17480,7 +17482,7 @@
       <c r="E512" s="3"/>
       <c r="G512" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H512" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17500,7 +17502,7 @@
       <c r="E513" s="3"/>
       <c r="G513" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H513" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17520,7 +17522,7 @@
       <c r="E514" s="3"/>
       <c r="G514" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H514" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17540,7 +17542,7 @@
       <c r="E515" s="3"/>
       <c r="G515" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H515" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17560,7 +17562,7 @@
       <c r="E516" s="3"/>
       <c r="G516" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H516" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17580,7 +17582,7 @@
       <c r="E517" s="3"/>
       <c r="G517" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H517" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17600,7 +17602,7 @@
       <c r="E518" s="3"/>
       <c r="G518" s="15">
         <f t="shared" ref="G518:G581" si="17" xml:space="preserve"> G517 + IF(EXACT(H518, ""), 0, 1)</f>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H518" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17620,7 +17622,7 @@
       <c r="E519" s="3"/>
       <c r="G519" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H519" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17640,7 +17642,7 @@
       <c r="E520" s="3"/>
       <c r="G520" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H520" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17660,7 +17662,7 @@
       <c r="E521" s="3"/>
       <c r="G521" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H521" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17680,7 +17682,7 @@
       <c r="E522" s="3"/>
       <c r="G522" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H522" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17700,7 +17702,7 @@
       <c r="E523" s="3"/>
       <c r="G523" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H523" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17720,7 +17722,7 @@
       <c r="E524" s="3"/>
       <c r="G524" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H524" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17742,7 +17744,7 @@
       <c r="E525" s="3"/>
       <c r="G525" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H525" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17762,7 +17764,7 @@
       <c r="E526" s="3"/>
       <c r="G526" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H526" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17782,7 +17784,7 @@
       <c r="E527" s="3"/>
       <c r="G527" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H527" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17802,7 +17804,7 @@
       <c r="E528" s="3"/>
       <c r="G528" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H528" s="16" t="str">
         <f t="shared" ref="H528:H589" si="18">IF(EXACT(D528, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B528, ""), "null", B528), "::bigint, ", IF(EXACT(D528, ""), "null", D528), "::bigint, ", IF(EXACT(E528, ""), "null", E528), "::bigint);"))</f>
@@ -17822,7 +17824,7 @@
       <c r="E529" s="3"/>
       <c r="G529" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H529" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17844,7 +17846,7 @@
       <c r="E530" s="3"/>
       <c r="G530" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H530" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17864,7 +17866,7 @@
       <c r="E531" s="3"/>
       <c r="G531" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H531" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17884,7 +17886,7 @@
       <c r="E532" s="3"/>
       <c r="G532" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H532" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17904,7 +17906,7 @@
       <c r="E533" s="3"/>
       <c r="G533" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H533" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17924,7 +17926,7 @@
       <c r="E534" s="3"/>
       <c r="G534" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H534" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17944,7 +17946,7 @@
       <c r="E535" s="3"/>
       <c r="G535" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H535" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17964,7 +17966,7 @@
       <c r="E536" s="3"/>
       <c r="G536" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H536" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17984,7 +17986,7 @@
       <c r="E537" s="3"/>
       <c r="G537" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H537" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18004,7 +18006,7 @@
       <c r="E538" s="3"/>
       <c r="G538" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H538" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18026,7 +18028,7 @@
       <c r="E539" s="3"/>
       <c r="G539" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H539" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18046,7 +18048,7 @@
       <c r="E540" s="3"/>
       <c r="G540" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H540" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18066,7 +18068,7 @@
       <c r="E541" s="3"/>
       <c r="G541" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H541" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18086,7 +18088,7 @@
       <c r="E542" s="3"/>
       <c r="G542" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H542" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18106,7 +18108,7 @@
       <c r="E543" s="3"/>
       <c r="G543" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H543" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18126,7 +18128,7 @@
       <c r="E544" s="3"/>
       <c r="G544" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H544" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18142,15 +18144,17 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M545, ""), "", '[1]Internal Career (Last Position)'!$C545)</f>
         <v>Wardah Laily Khoiriyah</v>
       </c>
-      <c r="D545" s="3"/>
+      <c r="D545" s="3">
+        <v>95000000000023</v>
+      </c>
       <c r="E545" s="3"/>
       <c r="G545" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000030</v>
       </c>
       <c r="H545" s="16" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000542::bigint, 95000000000023::bigint, null::bigint);</v>
       </c>
     </row>
     <row r="546" spans="2:8" x14ac:dyDescent="0.2">
@@ -18166,7 +18170,7 @@
       <c r="E546" s="3"/>
       <c r="G546" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000030</v>
       </c>
       <c r="H546" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18186,7 +18190,7 @@
       <c r="E547" s="3"/>
       <c r="G547" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000030</v>
       </c>
       <c r="H547" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18208,7 +18212,7 @@
       <c r="E548" s="3"/>
       <c r="G548" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000031</v>
       </c>
       <c r="H548" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18228,7 +18232,7 @@
       <c r="E549" s="3"/>
       <c r="G549" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000031</v>
       </c>
       <c r="H549" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18250,7 +18254,7 @@
       <c r="E550" s="3"/>
       <c r="G550" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H550" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18270,7 +18274,7 @@
       <c r="E551" s="3"/>
       <c r="G551" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H551" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18290,7 +18294,7 @@
       <c r="E552" s="3"/>
       <c r="G552" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H552" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18310,7 +18314,7 @@
       <c r="E553" s="3"/>
       <c r="G553" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H553" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18330,7 +18334,7 @@
       <c r="E554" s="3"/>
       <c r="G554" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H554" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18350,7 +18354,7 @@
       <c r="E555" s="3"/>
       <c r="G555" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H555" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18370,7 +18374,7 @@
       <c r="E556" s="3"/>
       <c r="G556" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H556" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18390,7 +18394,7 @@
       <c r="E557" s="3"/>
       <c r="G557" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H557" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18410,7 +18414,7 @@
       <c r="E558" s="3"/>
       <c r="G558" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H558" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18430,7 +18434,7 @@
       <c r="E559" s="3"/>
       <c r="G559" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H559" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18450,7 +18454,7 @@
       <c r="E560" s="3"/>
       <c r="G560" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H560" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18470,7 +18474,7 @@
       <c r="E561" s="3"/>
       <c r="G561" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H561" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18490,7 +18494,7 @@
       <c r="E562" s="3"/>
       <c r="G562" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H562" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18510,7 +18514,7 @@
       <c r="E563" s="3"/>
       <c r="G563" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H563" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18530,7 +18534,7 @@
       <c r="E564" s="3"/>
       <c r="G564" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H564" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18550,7 +18554,7 @@
       <c r="E565" s="3"/>
       <c r="G565" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H565" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18570,7 +18574,7 @@
       <c r="E566" s="3"/>
       <c r="G566" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H566" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18590,7 +18594,7 @@
       <c r="E567" s="3"/>
       <c r="G567" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H567" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18610,7 +18614,7 @@
       <c r="E568" s="3"/>
       <c r="G568" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H568" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18630,7 +18634,7 @@
       <c r="E569" s="3"/>
       <c r="G569" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H569" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18650,7 +18654,7 @@
       <c r="E570" s="3"/>
       <c r="G570" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H570" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18670,7 +18674,7 @@
       <c r="E571" s="3"/>
       <c r="G571" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H571" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18690,7 +18694,7 @@
       <c r="E572" s="3"/>
       <c r="G572" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H572" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18710,7 +18714,7 @@
       <c r="E573" s="3"/>
       <c r="G573" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H573" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18730,7 +18734,7 @@
       <c r="E574" s="3"/>
       <c r="G574" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H574" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18750,7 +18754,7 @@
       <c r="E575" s="3"/>
       <c r="G575" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H575" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18770,7 +18774,7 @@
       <c r="E576" s="3"/>
       <c r="G576" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H576" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18790,7 +18794,7 @@
       <c r="E577" s="3"/>
       <c r="G577" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H577" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18810,7 +18814,7 @@
       <c r="E578" s="3"/>
       <c r="G578" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H578" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18830,7 +18834,7 @@
       <c r="E579" s="3"/>
       <c r="G579" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H579" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18850,7 +18854,7 @@
       <c r="E580" s="3"/>
       <c r="G580" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H580" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18870,7 +18874,7 @@
       <c r="E581" s="3"/>
       <c r="G581" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H581" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18890,7 +18894,7 @@
       <c r="E582" s="3"/>
       <c r="G582" s="15">
         <f t="shared" ref="G582:G589" si="19" xml:space="preserve"> G581 + IF(EXACT(H582, ""), 0, 1)</f>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H582" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18910,7 +18914,7 @@
       <c r="E583" s="3"/>
       <c r="G583" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H583" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18930,7 +18934,7 @@
       <c r="E584" s="3"/>
       <c r="G584" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="H584" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18952,7 +18956,7 @@
       <c r="E585" s="3"/>
       <c r="G585" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000031</v>
+        <v>225000000000033</v>
       </c>
       <c r="H585" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18972,7 +18976,7 @@
       <c r="E586" s="3"/>
       <c r="G586" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000031</v>
+        <v>225000000000033</v>
       </c>
       <c r="H586" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18992,7 +18996,7 @@
       <c r="E587" s="3"/>
       <c r="G587" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000031</v>
+        <v>225000000000033</v>
       </c>
       <c r="H587" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19012,7 +19016,7 @@
       <c r="E588" s="3"/>
       <c r="G588" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000031</v>
+        <v>225000000000033</v>
       </c>
       <c r="H588" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19032,7 +19036,7 @@
       <c r="E589" s="4"/>
       <c r="G589" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000031</v>
+        <v>225000000000033</v>
       </c>
       <c r="H589" s="17" t="str">
         <f t="shared" si="18"/>
@@ -19095,7 +19099,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22507,21 +22511,21 @@
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B157" s="26" t="str">
+      <c r="B157" s="26">
         <f>IF(EXACT(MAIN!H157, ""), "", MAIN!G157)</f>
-        <v/>
-      </c>
-      <c r="C157" s="3" t="str">
+        <v>225000000000009</v>
+      </c>
+      <c r="C157" s="3">
         <f>IF(EXACT(MAIN!$H157, ""), "", MAIN!$B157)</f>
-        <v/>
+        <v>164000000000154</v>
       </c>
       <c r="D157" s="3" t="str">
         <f>IF(EXACT(MAIN!$H157, ""), "", MAIN!$C157)</f>
-        <v/>
-      </c>
-      <c r="E157" s="3" t="str">
+        <v>Fikri</v>
+      </c>
+      <c r="E157" s="3">
         <f>IF(EXACT(MAIN!$H157, ""), "", MAIN!$D157)</f>
-        <v/>
+        <v>95000000000023</v>
       </c>
       <c r="F157" s="28" t="str">
         <f>IF(EXACT(MAIN!$H157, ""), "", ""&amp;MAIN!$E157)</f>
@@ -22575,7 +22579,7 @@
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="26">
         <f>IF(EXACT(MAIN!H160, ""), "", MAIN!G160)</f>
-        <v>225000000000009</v>
+        <v>225000000000010</v>
       </c>
       <c r="C160" s="3">
         <f>IF(EXACT(MAIN!$H160, ""), "", MAIN!$B160)</f>
@@ -22795,7 +22799,7 @@
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="26">
         <f>IF(EXACT(MAIN!H170, ""), "", MAIN!G170)</f>
-        <v>225000000000010</v>
+        <v>225000000000011</v>
       </c>
       <c r="C170" s="3">
         <f>IF(EXACT(MAIN!$H170, ""), "", MAIN!$B170)</f>
@@ -22817,7 +22821,7 @@
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="26">
         <f>IF(EXACT(MAIN!H171, ""), "", MAIN!G171)</f>
-        <v>225000000000011</v>
+        <v>225000000000012</v>
       </c>
       <c r="C171" s="3">
         <f>IF(EXACT(MAIN!$H171, ""), "", MAIN!$B171)</f>
@@ -23433,7 +23437,7 @@
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" s="26">
         <f>IF(EXACT(MAIN!H199, ""), "", MAIN!G199)</f>
-        <v>225000000000012</v>
+        <v>225000000000013</v>
       </c>
       <c r="C199" s="3">
         <f>IF(EXACT(MAIN!$H199, ""), "", MAIN!$B199)</f>
@@ -24225,7 +24229,7 @@
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" s="26">
         <f>IF(EXACT(MAIN!H235, ""), "", MAIN!G235)</f>
-        <v>225000000000013</v>
+        <v>225000000000014</v>
       </c>
       <c r="C235" s="3">
         <f>IF(EXACT(MAIN!$H235, ""), "", MAIN!$B235)</f>
@@ -24665,7 +24669,7 @@
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" s="26">
         <f>IF(EXACT(MAIN!H255, ""), "", MAIN!G255)</f>
-        <v>225000000000014</v>
+        <v>225000000000015</v>
       </c>
       <c r="C255" s="3">
         <f>IF(EXACT(MAIN!$H255, ""), "", MAIN!$B255)</f>
@@ -24687,7 +24691,7 @@
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256" s="26">
         <f>IF(EXACT(MAIN!H256, ""), "", MAIN!G256)</f>
-        <v>225000000000015</v>
+        <v>225000000000016</v>
       </c>
       <c r="C256" s="3">
         <f>IF(EXACT(MAIN!$H256, ""), "", MAIN!$B256)</f>
@@ -25743,7 +25747,7 @@
     <row r="304" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B304" s="26">
         <f>IF(EXACT(MAIN!H304, ""), "", MAIN!G304)</f>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="C304" s="3">
         <f>IF(EXACT(MAIN!$H304, ""), "", MAIN!$B304)</f>
@@ -26755,7 +26759,7 @@
     <row r="350" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B350" s="26">
         <f>IF(EXACT(MAIN!H350, ""), "", MAIN!G350)</f>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="C350" s="3">
         <f>IF(EXACT(MAIN!$H350, ""), "", MAIN!$B350)</f>
@@ -27723,7 +27727,7 @@
     <row r="394" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B394" s="26">
         <f>IF(EXACT(MAIN!H394, ""), "", MAIN!G394)</f>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="C394" s="3">
         <f>IF(EXACT(MAIN!$H394, ""), "", MAIN!$B394)</f>
@@ -27855,7 +27859,7 @@
     <row r="400" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B400" s="26">
         <f>IF(EXACT(MAIN!H400, ""), "", MAIN!G400)</f>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="C400" s="3">
         <f>IF(EXACT(MAIN!$H400, ""), "", MAIN!$B400)</f>
@@ -28207,7 +28211,7 @@
     <row r="416" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B416" s="26">
         <f>IF(EXACT(MAIN!H416, ""), "", MAIN!G416)</f>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="C416" s="3">
         <f>IF(EXACT(MAIN!$H416, ""), "", MAIN!$B416)</f>
@@ -28537,7 +28541,7 @@
     <row r="431" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B431" s="26">
         <f>IF(EXACT(MAIN!H431, ""), "", MAIN!G431)</f>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="C431" s="3">
         <f>IF(EXACT(MAIN!$H431, ""), "", MAIN!$B431)</f>
@@ -28779,7 +28783,7 @@
     <row r="442" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B442" s="26">
         <f>IF(EXACT(MAIN!H442, ""), "", MAIN!G442)</f>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="C442" s="3">
         <f>IF(EXACT(MAIN!$H442, ""), "", MAIN!$B442)</f>
@@ -29065,7 +29069,7 @@
     <row r="455" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B455" s="26">
         <f>IF(EXACT(MAIN!H455, ""), "", MAIN!G455)</f>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="C455" s="3">
         <f>IF(EXACT(MAIN!$H455, ""), "", MAIN!$B455)</f>
@@ -29835,7 +29839,7 @@
     <row r="490" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B490" s="26">
         <f>IF(EXACT(MAIN!H490, ""), "", MAIN!G490)</f>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="C490" s="3">
         <f>IF(EXACT(MAIN!$H490, ""), "", MAIN!$B490)</f>
@@ -30055,7 +30059,7 @@
     <row r="500" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B500" s="26">
         <f>IF(EXACT(MAIN!H500, ""), "", MAIN!G500)</f>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="C500" s="3">
         <f>IF(EXACT(MAIN!$H500, ""), "", MAIN!$B500)</f>
@@ -30605,7 +30609,7 @@
     <row r="525" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B525" s="26">
         <f>IF(EXACT(MAIN!H525, ""), "", MAIN!G525)</f>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="C525" s="3">
         <f>IF(EXACT(MAIN!$H525, ""), "", MAIN!$B525)</f>
@@ -30715,7 +30719,7 @@
     <row r="530" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B530" s="26">
         <f>IF(EXACT(MAIN!H530, ""), "", MAIN!G530)</f>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="C530" s="3">
         <f>IF(EXACT(MAIN!$H530, ""), "", MAIN!$B530)</f>
@@ -30913,7 +30917,7 @@
     <row r="539" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B539" s="26">
         <f>IF(EXACT(MAIN!H539, ""), "", MAIN!G539)</f>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="C539" s="3">
         <f>IF(EXACT(MAIN!$H539, ""), "", MAIN!$B539)</f>
@@ -31043,21 +31047,21 @@
       </c>
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B545" s="26" t="str">
+      <c r="B545" s="26">
         <f>IF(EXACT(MAIN!H545, ""), "", MAIN!G545)</f>
-        <v/>
-      </c>
-      <c r="C545" s="3" t="str">
+        <v>225000000000030</v>
+      </c>
+      <c r="C545" s="3">
         <f>IF(EXACT(MAIN!$H545, ""), "", MAIN!$B545)</f>
-        <v/>
+        <v>164000000000542</v>
       </c>
       <c r="D545" s="3" t="str">
         <f>IF(EXACT(MAIN!$H545, ""), "", MAIN!$C545)</f>
-        <v/>
-      </c>
-      <c r="E545" s="3" t="str">
+        <v>Wardah Laily Khoiriyah</v>
+      </c>
+      <c r="E545" s="3">
         <f>IF(EXACT(MAIN!$H545, ""), "", MAIN!$D545)</f>
-        <v/>
+        <v>95000000000023</v>
       </c>
       <c r="F545" s="28" t="str">
         <f>IF(EXACT(MAIN!$H545, ""), "", ""&amp;MAIN!$E545)</f>
@@ -31111,7 +31115,7 @@
     <row r="548" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B548" s="26">
         <f>IF(EXACT(MAIN!H548, ""), "", MAIN!G548)</f>
-        <v>225000000000029</v>
+        <v>225000000000031</v>
       </c>
       <c r="C548" s="3">
         <f>IF(EXACT(MAIN!$H548, ""), "", MAIN!$B548)</f>
@@ -31155,7 +31159,7 @@
     <row r="550" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B550" s="26">
         <f>IF(EXACT(MAIN!H550, ""), "", MAIN!G550)</f>
-        <v>225000000000030</v>
+        <v>225000000000032</v>
       </c>
       <c r="C550" s="3">
         <f>IF(EXACT(MAIN!$H550, ""), "", MAIN!$B550)</f>
@@ -31925,7 +31929,7 @@
     <row r="585" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B585" s="26">
         <f>IF(EXACT(MAIN!H585, ""), "", MAIN!G585)</f>
-        <v>225000000000031</v>
+        <v>225000000000033</v>
       </c>
       <c r="C585" s="3">
         <f>IF(EXACT(MAIN!$H585, ""), "", MAIN!$B585)</f>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
             <v>164000000000155</v>
           </cell>
           <cell r="M158" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000155::bigint, 163000000000001::bigint, 111000000000011::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="159">
@@ -3524,7 +3524,7 @@
             <v>164000000000278</v>
           </cell>
           <cell r="M281" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000278::bigint, 163000000000002::bigint, 111000000000011::bigint, 160000000000003::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="282">
@@ -6615,7 +6615,7 @@
             <v>164000000000559</v>
           </cell>
           <cell r="M562" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000559::bigint, 163000000000002::bigint, 111000000000005::bigint, 160000000000004::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="563">
@@ -6714,7 +6714,7 @@
             <v>164000000000568</v>
           </cell>
           <cell r="M571" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000568::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="572">
@@ -6725,7 +6725,7 @@
             <v>164000000000569</v>
           </cell>
           <cell r="M572" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000569::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="573">
@@ -6736,7 +6736,7 @@
             <v>164000000000570</v>
           </cell>
           <cell r="M573" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000570::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="574">
@@ -6747,7 +6747,7 @@
             <v>164000000000571</v>
           </cell>
           <cell r="M574" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000571::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="575">
@@ -6758,7 +6758,7 @@
             <v>164000000000572</v>
           </cell>
           <cell r="M575" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000572::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="576">
@@ -6769,7 +6769,7 @@
             <v>164000000000573</v>
           </cell>
           <cell r="M576" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000573::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="577">
@@ -6780,7 +6780,7 @@
             <v>164000000000574</v>
           </cell>
           <cell r="M577" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000574::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="578">
@@ -6791,7 +6791,7 @@
             <v>164000000000575</v>
           </cell>
           <cell r="M578" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000575::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="579">
@@ -6802,7 +6802,7 @@
             <v>164000000000576</v>
           </cell>
           <cell r="M579" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000576::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="580">
@@ -6813,7 +6813,7 @@
             <v>164000000000577</v>
           </cell>
           <cell r="M580" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000577::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="581">
@@ -6824,7 +6824,7 @@
             <v>164000000000578</v>
           </cell>
           <cell r="M581" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000578::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="582">
@@ -6835,7 +6835,7 @@
             <v>164000000000579</v>
           </cell>
           <cell r="M582" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000579::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="583">
@@ -6846,7 +6846,7 @@
             <v>164000000000580</v>
           </cell>
           <cell r="M583" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000580::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="584">
@@ -6857,7 +6857,7 @@
             <v>164000000000581</v>
           </cell>
           <cell r="M584" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000581::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="585">
@@ -6879,7 +6879,7 @@
             <v>164000000000583</v>
           </cell>
           <cell r="M586" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000583::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="587">
@@ -6890,7 +6890,7 @@
             <v>164000000000584</v>
           </cell>
           <cell r="M587" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000584::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
         <row r="588">
@@ -6901,7 +6901,7 @@
             <v>164000000000585</v>
           </cell>
           <cell r="M588" t="str">
-            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, null::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
       </sheetData>
@@ -7204,11 +7204,11 @@
   <dimension ref="B1:H589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D230" sqref="D230"/>
       <selection pane="topRight" activeCell="D230" sqref="D230"/>
       <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
-      <selection pane="bottomRight" activeCell="D128" sqref="D128"/>
+      <selection pane="bottomRight" activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7216,8 +7216,7 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="4" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -9763,14 +9762,16 @@
       <c r="D128" s="3">
         <v>95000000000023</v>
       </c>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3">
+        <v>46000000000009</v>
+      </c>
       <c r="G128" s="15">
         <f t="shared" si="3"/>
         <v>225000000000008</v>
       </c>
       <c r="H128" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000125::bigint, 95000000000023::bigint, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000125::bigint, 95000000000023::bigint, 46000000000009::bigint);</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
@@ -10342,17 +10343,15 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M157, ""), "", '[1]Internal Career (Last Position)'!$C157)</f>
         <v>Fikri</v>
       </c>
-      <c r="D157" s="3">
-        <v>95000000000023</v>
-      </c>
+      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="G157" s="15">
         <f t="shared" si="5"/>
-        <v>225000000000009</v>
+        <v>225000000000008</v>
       </c>
       <c r="H157" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000154::bigint, 95000000000023::bigint, null::bigint);</v>
+        <v/>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.2">
@@ -10364,15 +10363,19 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M158, ""), "", '[1]Internal Career (Last Position)'!$C158)</f>
         <v>M. Fikri Caesarandi Hasibuan</v>
       </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="D158" s="3">
+        <v>95000000000023</v>
+      </c>
+      <c r="E158" s="3">
+        <v>46000000000033</v>
+      </c>
       <c r="G158" s="15">
         <f t="shared" si="5"/>
         <v>225000000000009</v>
       </c>
       <c r="H158" s="16" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000155::bigint, 95000000000023::bigint, 46000000000033::bigint);</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.2">
@@ -11915,14 +11918,16 @@
       <c r="D235" s="3">
         <v>95000000000018</v>
       </c>
-      <c r="E235" s="3"/>
+      <c r="E235" s="3">
+        <v>46000000000033</v>
+      </c>
       <c r="G235" s="15">
         <f t="shared" si="7"/>
         <v>225000000000014</v>
       </c>
       <c r="H235" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000232::bigint, 95000000000018::bigint, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000232::bigint, 95000000000018::bigint, 46000000000033::bigint);</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.2">
@@ -12838,15 +12843,19 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M281, ""), "", '[1]Internal Career (Last Position)'!$C281)</f>
         <v>T. Marungkil U. S. Sagala</v>
       </c>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
+      <c r="D281" s="3">
+        <v>95000000000018</v>
+      </c>
+      <c r="E281" s="3">
+        <v>46000000000009</v>
+      </c>
       <c r="G281" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H281" s="16" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000278::bigint, 95000000000018::bigint, 46000000000009::bigint);</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.2">
@@ -12862,7 +12871,7 @@
       <c r="E282" s="3"/>
       <c r="G282" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H282" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12882,7 +12891,7 @@
       <c r="E283" s="3"/>
       <c r="G283" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H283" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12902,7 +12911,7 @@
       <c r="E284" s="3"/>
       <c r="G284" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H284" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12922,7 +12931,7 @@
       <c r="E285" s="3"/>
       <c r="G285" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H285" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12942,7 +12951,7 @@
       <c r="E286" s="3"/>
       <c r="G286" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H286" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12962,7 +12971,7 @@
       <c r="E287" s="3"/>
       <c r="G287" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H287" s="16" t="str">
         <f t="shared" si="10"/>
@@ -12982,7 +12991,7 @@
       <c r="E288" s="3"/>
       <c r="G288" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H288" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13002,7 +13011,7 @@
       <c r="E289" s="3"/>
       <c r="G289" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H289" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13022,7 +13031,7 @@
       <c r="E290" s="3"/>
       <c r="G290" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H290" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13042,7 +13051,7 @@
       <c r="E291" s="3"/>
       <c r="G291" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H291" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13062,7 +13071,7 @@
       <c r="E292" s="3"/>
       <c r="G292" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H292" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13082,7 +13091,7 @@
       <c r="E293" s="3"/>
       <c r="G293" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H293" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13102,7 +13111,7 @@
       <c r="E294" s="3"/>
       <c r="G294" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H294" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13122,7 +13131,7 @@
       <c r="E295" s="3"/>
       <c r="G295" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H295" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13142,7 +13151,7 @@
       <c r="E296" s="3"/>
       <c r="G296" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H296" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13162,7 +13171,7 @@
       <c r="E297" s="3"/>
       <c r="G297" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H297" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13182,7 +13191,7 @@
       <c r="E298" s="3"/>
       <c r="G298" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H298" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13202,7 +13211,7 @@
       <c r="E299" s="3"/>
       <c r="G299" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H299" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13222,7 +13231,7 @@
       <c r="E300" s="3"/>
       <c r="G300" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H300" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13242,7 +13251,7 @@
       <c r="E301" s="3"/>
       <c r="G301" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H301" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13262,7 +13271,7 @@
       <c r="E302" s="3"/>
       <c r="G302" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H302" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13282,7 +13291,7 @@
       <c r="E303" s="3"/>
       <c r="G303" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000016</v>
+        <v>225000000000017</v>
       </c>
       <c r="H303" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13304,7 +13313,7 @@
       <c r="E304" s="3"/>
       <c r="G304" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H304" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13324,7 +13333,7 @@
       <c r="E305" s="3"/>
       <c r="G305" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H305" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13344,7 +13353,7 @@
       <c r="E306" s="3"/>
       <c r="G306" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H306" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13364,7 +13373,7 @@
       <c r="E307" s="3"/>
       <c r="G307" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H307" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13384,7 +13393,7 @@
       <c r="E308" s="3"/>
       <c r="G308" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H308" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13404,7 +13413,7 @@
       <c r="E309" s="3"/>
       <c r="G309" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H309" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13424,7 +13433,7 @@
       <c r="E310" s="3"/>
       <c r="G310" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H310" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13444,7 +13453,7 @@
       <c r="E311" s="3"/>
       <c r="G311" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H311" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13464,7 +13473,7 @@
       <c r="E312" s="3"/>
       <c r="G312" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H312" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13484,7 +13493,7 @@
       <c r="E313" s="3"/>
       <c r="G313" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H313" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13504,7 +13513,7 @@
       <c r="E314" s="3"/>
       <c r="G314" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H314" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13524,7 +13533,7 @@
       <c r="E315" s="3"/>
       <c r="G315" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H315" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13544,7 +13553,7 @@
       <c r="E316" s="3"/>
       <c r="G316" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H316" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13564,7 +13573,7 @@
       <c r="E317" s="3"/>
       <c r="G317" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H317" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13584,7 +13593,7 @@
       <c r="E318" s="3"/>
       <c r="G318" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H318" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13604,7 +13613,7 @@
       <c r="E319" s="3"/>
       <c r="G319" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H319" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13624,7 +13633,7 @@
       <c r="E320" s="3"/>
       <c r="G320" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H320" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13644,7 +13653,7 @@
       <c r="E321" s="3"/>
       <c r="G321" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H321" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13664,7 +13673,7 @@
       <c r="E322" s="3"/>
       <c r="G322" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H322" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13684,7 +13693,7 @@
       <c r="E323" s="3"/>
       <c r="G323" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H323" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13704,7 +13713,7 @@
       <c r="E324" s="3"/>
       <c r="G324" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H324" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13724,7 +13733,7 @@
       <c r="E325" s="3"/>
       <c r="G325" s="15">
         <f t="shared" si="9"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H325" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13744,7 +13753,7 @@
       <c r="E326" s="3"/>
       <c r="G326" s="15">
         <f t="shared" ref="G326:G389" si="11" xml:space="preserve"> G325 + IF(EXACT(H326, ""), 0, 1)</f>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H326" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13764,7 +13773,7 @@
       <c r="E327" s="3"/>
       <c r="G327" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H327" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13784,7 +13793,7 @@
       <c r="E328" s="3"/>
       <c r="G328" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H328" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13804,7 +13813,7 @@
       <c r="E329" s="3"/>
       <c r="G329" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H329" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13824,7 +13833,7 @@
       <c r="E330" s="3"/>
       <c r="G330" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H330" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13844,7 +13853,7 @@
       <c r="E331" s="3"/>
       <c r="G331" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H331" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13864,7 +13873,7 @@
       <c r="E332" s="3"/>
       <c r="G332" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H332" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13884,7 +13893,7 @@
       <c r="E333" s="3"/>
       <c r="G333" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H333" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13904,7 +13913,7 @@
       <c r="E334" s="3"/>
       <c r="G334" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H334" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13924,7 +13933,7 @@
       <c r="E335" s="3"/>
       <c r="G335" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H335" s="16" t="str">
         <f t="shared" si="10"/>
@@ -13944,7 +13953,7 @@
       <c r="E336" s="3"/>
       <c r="G336" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H336" s="16" t="str">
         <f t="shared" ref="H336:H399" si="12">IF(EXACT(D336, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B336, ""), "null", B336), "::bigint, ", IF(EXACT(D336, ""), "null", D336), "::bigint, ", IF(EXACT(E336, ""), "null", E336), "::bigint);"))</f>
@@ -13964,7 +13973,7 @@
       <c r="E337" s="3"/>
       <c r="G337" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H337" s="16" t="str">
         <f t="shared" si="12"/>
@@ -13984,7 +13993,7 @@
       <c r="E338" s="3"/>
       <c r="G338" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H338" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14004,7 +14013,7 @@
       <c r="E339" s="3"/>
       <c r="G339" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H339" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14024,7 +14033,7 @@
       <c r="E340" s="3"/>
       <c r="G340" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H340" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14044,7 +14053,7 @@
       <c r="E341" s="3"/>
       <c r="G341" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H341" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14064,7 +14073,7 @@
       <c r="E342" s="3"/>
       <c r="G342" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H342" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14084,7 +14093,7 @@
       <c r="E343" s="3"/>
       <c r="G343" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H343" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14104,7 +14113,7 @@
       <c r="E344" s="3"/>
       <c r="G344" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H344" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14124,7 +14133,7 @@
       <c r="E345" s="3"/>
       <c r="G345" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H345" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14144,7 +14153,7 @@
       <c r="E346" s="3"/>
       <c r="G346" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H346" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14164,7 +14173,7 @@
       <c r="E347" s="3"/>
       <c r="G347" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H347" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14184,7 +14193,7 @@
       <c r="E348" s="3"/>
       <c r="G348" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H348" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14204,7 +14213,7 @@
       <c r="E349" s="3"/>
       <c r="G349" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="H349" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14226,7 +14235,7 @@
       <c r="E350" s="3"/>
       <c r="G350" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H350" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14246,7 +14255,7 @@
       <c r="E351" s="3"/>
       <c r="G351" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H351" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14266,7 +14275,7 @@
       <c r="E352" s="3"/>
       <c r="G352" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H352" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14286,7 +14295,7 @@
       <c r="E353" s="3"/>
       <c r="G353" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H353" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14306,7 +14315,7 @@
       <c r="E354" s="3"/>
       <c r="G354" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H354" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14326,7 +14335,7 @@
       <c r="E355" s="3"/>
       <c r="G355" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H355" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14346,7 +14355,7 @@
       <c r="E356" s="3"/>
       <c r="G356" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H356" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14366,7 +14375,7 @@
       <c r="E357" s="3"/>
       <c r="G357" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H357" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14386,7 +14395,7 @@
       <c r="E358" s="3"/>
       <c r="G358" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H358" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14406,7 +14415,7 @@
       <c r="E359" s="3"/>
       <c r="G359" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H359" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14426,7 +14435,7 @@
       <c r="E360" s="3"/>
       <c r="G360" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H360" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14446,7 +14455,7 @@
       <c r="E361" s="3"/>
       <c r="G361" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H361" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14466,7 +14475,7 @@
       <c r="E362" s="3"/>
       <c r="G362" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H362" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14486,7 +14495,7 @@
       <c r="E363" s="3"/>
       <c r="G363" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H363" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14506,7 +14515,7 @@
       <c r="E364" s="3"/>
       <c r="G364" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H364" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14526,7 +14535,7 @@
       <c r="E365" s="3"/>
       <c r="G365" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H365" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14546,7 +14555,7 @@
       <c r="E366" s="3"/>
       <c r="G366" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H366" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14566,7 +14575,7 @@
       <c r="E367" s="3"/>
       <c r="G367" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H367" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14586,7 +14595,7 @@
       <c r="E368" s="3"/>
       <c r="G368" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H368" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14606,7 +14615,7 @@
       <c r="E369" s="3"/>
       <c r="G369" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H369" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14626,7 +14635,7 @@
       <c r="E370" s="3"/>
       <c r="G370" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H370" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14646,7 +14655,7 @@
       <c r="E371" s="3"/>
       <c r="G371" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H371" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14666,7 +14675,7 @@
       <c r="E372" s="3"/>
       <c r="G372" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H372" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14686,7 +14695,7 @@
       <c r="E373" s="3"/>
       <c r="G373" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H373" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14706,7 +14715,7 @@
       <c r="E374" s="3"/>
       <c r="G374" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H374" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14726,7 +14735,7 @@
       <c r="E375" s="3"/>
       <c r="G375" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H375" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14746,7 +14755,7 @@
       <c r="E376" s="3"/>
       <c r="G376" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H376" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14766,7 +14775,7 @@
       <c r="E377" s="3"/>
       <c r="G377" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H377" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14786,7 +14795,7 @@
       <c r="E378" s="3"/>
       <c r="G378" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H378" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14806,7 +14815,7 @@
       <c r="E379" s="3"/>
       <c r="G379" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H379" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14826,7 +14835,7 @@
       <c r="E380" s="3"/>
       <c r="G380" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H380" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14846,7 +14855,7 @@
       <c r="E381" s="3"/>
       <c r="G381" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H381" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14866,7 +14875,7 @@
       <c r="E382" s="3"/>
       <c r="G382" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H382" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14886,7 +14895,7 @@
       <c r="E383" s="3"/>
       <c r="G383" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H383" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14906,7 +14915,7 @@
       <c r="E384" s="3"/>
       <c r="G384" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H384" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14926,7 +14935,7 @@
       <c r="E385" s="3"/>
       <c r="G385" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H385" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14946,7 +14955,7 @@
       <c r="E386" s="3"/>
       <c r="G386" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H386" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14966,7 +14975,7 @@
       <c r="E387" s="3"/>
       <c r="G387" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H387" s="16" t="str">
         <f t="shared" si="12"/>
@@ -14986,7 +14995,7 @@
       <c r="E388" s="3"/>
       <c r="G388" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H388" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15006,7 +15015,7 @@
       <c r="E389" s="3"/>
       <c r="G389" s="15">
         <f t="shared" si="11"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H389" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15026,7 +15035,7 @@
       <c r="E390" s="3"/>
       <c r="G390" s="15">
         <f t="shared" ref="G390:G453" si="13" xml:space="preserve"> G389 + IF(EXACT(H390, ""), 0, 1)</f>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H390" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15046,7 +15055,7 @@
       <c r="E391" s="3"/>
       <c r="G391" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H391" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15066,7 +15075,7 @@
       <c r="E392" s="3"/>
       <c r="G392" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H392" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15086,7 +15095,7 @@
       <c r="E393" s="3"/>
       <c r="G393" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="H393" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15108,7 +15117,7 @@
       <c r="E394" s="3"/>
       <c r="G394" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H394" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15128,7 +15137,7 @@
       <c r="E395" s="3"/>
       <c r="G395" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H395" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15148,7 +15157,7 @@
       <c r="E396" s="3"/>
       <c r="G396" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H396" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15168,7 +15177,7 @@
       <c r="E397" s="3"/>
       <c r="G397" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H397" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15188,7 +15197,7 @@
       <c r="E398" s="3"/>
       <c r="G398" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H398" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15208,7 +15217,7 @@
       <c r="E399" s="3"/>
       <c r="G399" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="H399" s="16" t="str">
         <f t="shared" si="12"/>
@@ -15230,7 +15239,7 @@
       <c r="E400" s="3"/>
       <c r="G400" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H400" s="16" t="str">
         <f t="shared" ref="H400:H463" si="14">IF(EXACT(D400, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B400, ""), "null", B400), "::bigint, ", IF(EXACT(D400, ""), "null", D400), "::bigint, ", IF(EXACT(E400, ""), "null", E400), "::bigint);"))</f>
@@ -15250,7 +15259,7 @@
       <c r="E401" s="3"/>
       <c r="G401" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H401" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15270,7 +15279,7 @@
       <c r="E402" s="3"/>
       <c r="G402" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H402" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15290,7 +15299,7 @@
       <c r="E403" s="3"/>
       <c r="G403" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H403" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15310,7 +15319,7 @@
       <c r="E404" s="3"/>
       <c r="G404" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H404" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15330,7 +15339,7 @@
       <c r="E405" s="3"/>
       <c r="G405" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H405" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15350,7 +15359,7 @@
       <c r="E406" s="3"/>
       <c r="G406" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H406" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15370,7 +15379,7 @@
       <c r="E407" s="3"/>
       <c r="G407" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H407" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15390,7 +15399,7 @@
       <c r="E408" s="3"/>
       <c r="G408" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H408" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15410,7 +15419,7 @@
       <c r="E409" s="3"/>
       <c r="G409" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H409" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15430,7 +15439,7 @@
       <c r="E410" s="3"/>
       <c r="G410" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H410" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15450,7 +15459,7 @@
       <c r="E411" s="3"/>
       <c r="G411" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H411" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15470,7 +15479,7 @@
       <c r="E412" s="3"/>
       <c r="G412" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H412" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15490,7 +15499,7 @@
       <c r="E413" s="3"/>
       <c r="G413" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H413" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15510,7 +15519,7 @@
       <c r="E414" s="3"/>
       <c r="G414" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H414" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15530,7 +15539,7 @@
       <c r="E415" s="3"/>
       <c r="G415" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="H415" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15552,7 +15561,7 @@
       <c r="E416" s="3"/>
       <c r="G416" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H416" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15572,7 +15581,7 @@
       <c r="E417" s="3"/>
       <c r="G417" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H417" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15592,7 +15601,7 @@
       <c r="E418" s="3"/>
       <c r="G418" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H418" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15612,7 +15621,7 @@
       <c r="E419" s="3"/>
       <c r="G419" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H419" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15632,7 +15641,7 @@
       <c r="E420" s="3"/>
       <c r="G420" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H420" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15652,7 +15661,7 @@
       <c r="E421" s="3"/>
       <c r="G421" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H421" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15672,7 +15681,7 @@
       <c r="E422" s="3"/>
       <c r="G422" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H422" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15692,7 +15701,7 @@
       <c r="E423" s="3"/>
       <c r="G423" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H423" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15712,7 +15721,7 @@
       <c r="E424" s="3"/>
       <c r="G424" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H424" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15732,7 +15741,7 @@
       <c r="E425" s="3"/>
       <c r="G425" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H425" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15752,7 +15761,7 @@
       <c r="E426" s="3"/>
       <c r="G426" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H426" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15772,7 +15781,7 @@
       <c r="E427" s="3"/>
       <c r="G427" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H427" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15792,7 +15801,7 @@
       <c r="E428" s="3"/>
       <c r="G428" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H428" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15812,7 +15821,7 @@
       <c r="E429" s="3"/>
       <c r="G429" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H429" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15832,7 +15841,7 @@
       <c r="E430" s="3"/>
       <c r="G430" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="H430" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15854,7 +15863,7 @@
       <c r="E431" s="3"/>
       <c r="G431" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H431" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15874,7 +15883,7 @@
       <c r="E432" s="3"/>
       <c r="G432" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H432" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15894,7 +15903,7 @@
       <c r="E433" s="3"/>
       <c r="G433" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H433" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15914,7 +15923,7 @@
       <c r="E434" s="3"/>
       <c r="G434" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H434" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15934,7 +15943,7 @@
       <c r="E435" s="3"/>
       <c r="G435" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H435" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15954,7 +15963,7 @@
       <c r="E436" s="3"/>
       <c r="G436" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H436" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15974,7 +15983,7 @@
       <c r="E437" s="3"/>
       <c r="G437" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H437" s="16" t="str">
         <f t="shared" si="14"/>
@@ -15994,7 +16003,7 @@
       <c r="E438" s="3"/>
       <c r="G438" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H438" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16014,7 +16023,7 @@
       <c r="E439" s="3"/>
       <c r="G439" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H439" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16034,7 +16043,7 @@
       <c r="E440" s="3"/>
       <c r="G440" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H440" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16054,7 +16063,7 @@
       <c r="E441" s="3"/>
       <c r="G441" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="H441" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16076,7 +16085,7 @@
       <c r="E442" s="3"/>
       <c r="G442" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H442" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16096,7 +16105,7 @@
       <c r="E443" s="3"/>
       <c r="G443" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H443" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16116,7 +16125,7 @@
       <c r="E444" s="3"/>
       <c r="G444" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H444" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16136,7 +16145,7 @@
       <c r="E445" s="3"/>
       <c r="G445" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H445" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16156,7 +16165,7 @@
       <c r="E446" s="3"/>
       <c r="G446" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H446" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16176,7 +16185,7 @@
       <c r="E447" s="3"/>
       <c r="G447" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H447" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16196,7 +16205,7 @@
       <c r="E448" s="3"/>
       <c r="G448" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H448" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16216,7 +16225,7 @@
       <c r="E449" s="3"/>
       <c r="G449" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H449" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16236,7 +16245,7 @@
       <c r="E450" s="3"/>
       <c r="G450" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H450" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16256,7 +16265,7 @@
       <c r="E451" s="3"/>
       <c r="G451" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H451" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16276,7 +16285,7 @@
       <c r="E452" s="3"/>
       <c r="G452" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H452" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16296,7 +16305,7 @@
       <c r="E453" s="3"/>
       <c r="G453" s="15">
         <f t="shared" si="13"/>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H453" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16316,7 +16325,7 @@
       <c r="E454" s="3"/>
       <c r="G454" s="15">
         <f t="shared" ref="G454:G517" si="15" xml:space="preserve"> G453 + IF(EXACT(H454, ""), 0, 1)</f>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="H454" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16338,7 +16347,7 @@
       <c r="E455" s="3"/>
       <c r="G455" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H455" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16358,7 +16367,7 @@
       <c r="E456" s="3"/>
       <c r="G456" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H456" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16378,7 +16387,7 @@
       <c r="E457" s="3"/>
       <c r="G457" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H457" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16398,7 +16407,7 @@
       <c r="E458" s="3"/>
       <c r="G458" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H458" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16418,7 +16427,7 @@
       <c r="E459" s="3"/>
       <c r="G459" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H459" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16438,7 +16447,7 @@
       <c r="E460" s="3"/>
       <c r="G460" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H460" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16458,7 +16467,7 @@
       <c r="E461" s="3"/>
       <c r="G461" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H461" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16478,7 +16487,7 @@
       <c r="E462" s="3"/>
       <c r="G462" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H462" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16498,7 +16507,7 @@
       <c r="E463" s="3"/>
       <c r="G463" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H463" s="16" t="str">
         <f t="shared" si="14"/>
@@ -16518,7 +16527,7 @@
       <c r="E464" s="3"/>
       <c r="G464" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H464" s="16" t="str">
         <f t="shared" ref="H464:H527" si="16">IF(EXACT(D464, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B464, ""), "null", B464), "::bigint, ", IF(EXACT(D464, ""), "null", D464), "::bigint, ", IF(EXACT(E464, ""), "null", E464), "::bigint);"))</f>
@@ -16538,7 +16547,7 @@
       <c r="E465" s="3"/>
       <c r="G465" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H465" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16558,7 +16567,7 @@
       <c r="E466" s="3"/>
       <c r="G466" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H466" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16578,7 +16587,7 @@
       <c r="E467" s="3"/>
       <c r="G467" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H467" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16598,7 +16607,7 @@
       <c r="E468" s="3"/>
       <c r="G468" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H468" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16618,7 +16627,7 @@
       <c r="E469" s="3"/>
       <c r="G469" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H469" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16638,7 +16647,7 @@
       <c r="E470" s="3"/>
       <c r="G470" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H470" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16658,7 +16667,7 @@
       <c r="E471" s="3"/>
       <c r="G471" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H471" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16678,7 +16687,7 @@
       <c r="E472" s="3"/>
       <c r="G472" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H472" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16698,7 +16707,7 @@
       <c r="E473" s="3"/>
       <c r="G473" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H473" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16718,7 +16727,7 @@
       <c r="E474" s="3"/>
       <c r="G474" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H474" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16738,7 +16747,7 @@
       <c r="E475" s="3"/>
       <c r="G475" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H475" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16758,7 +16767,7 @@
       <c r="E476" s="3"/>
       <c r="G476" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H476" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16778,7 +16787,7 @@
       <c r="E477" s="3"/>
       <c r="G477" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H477" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16798,7 +16807,7 @@
       <c r="E478" s="3"/>
       <c r="G478" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H478" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16818,7 +16827,7 @@
       <c r="E479" s="3"/>
       <c r="G479" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H479" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16838,7 +16847,7 @@
       <c r="E480" s="3"/>
       <c r="G480" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H480" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16858,7 +16867,7 @@
       <c r="E481" s="3"/>
       <c r="G481" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H481" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16878,7 +16887,7 @@
       <c r="E482" s="3"/>
       <c r="G482" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H482" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16898,7 +16907,7 @@
       <c r="E483" s="3"/>
       <c r="G483" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H483" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16918,7 +16927,7 @@
       <c r="E484" s="3"/>
       <c r="G484" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H484" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16938,7 +16947,7 @@
       <c r="E485" s="3"/>
       <c r="G485" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H485" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16958,7 +16967,7 @@
       <c r="E486" s="3"/>
       <c r="G486" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H486" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16978,7 +16987,7 @@
       <c r="E487" s="3"/>
       <c r="G487" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H487" s="16" t="str">
         <f t="shared" si="16"/>
@@ -16998,7 +17007,7 @@
       <c r="E488" s="3"/>
       <c r="G488" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H488" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17018,7 +17027,7 @@
       <c r="E489" s="3"/>
       <c r="G489" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="H489" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17040,7 +17049,7 @@
       <c r="E490" s="3"/>
       <c r="G490" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H490" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17060,7 +17069,7 @@
       <c r="E491" s="3"/>
       <c r="G491" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H491" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17080,7 +17089,7 @@
       <c r="E492" s="3"/>
       <c r="G492" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H492" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17100,7 +17109,7 @@
       <c r="E493" s="3"/>
       <c r="G493" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H493" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17120,7 +17129,7 @@
       <c r="E494" s="3"/>
       <c r="G494" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H494" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17140,7 +17149,7 @@
       <c r="E495" s="3"/>
       <c r="G495" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H495" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17160,7 +17169,7 @@
       <c r="E496" s="3"/>
       <c r="G496" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H496" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17180,7 +17189,7 @@
       <c r="E497" s="3"/>
       <c r="G497" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H497" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17200,7 +17209,7 @@
       <c r="E498" s="3"/>
       <c r="G498" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H498" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17220,7 +17229,7 @@
       <c r="E499" s="3"/>
       <c r="G499" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="H499" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17242,7 +17251,7 @@
       <c r="E500" s="3"/>
       <c r="G500" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H500" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17262,7 +17271,7 @@
       <c r="E501" s="3"/>
       <c r="G501" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H501" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17282,7 +17291,7 @@
       <c r="E502" s="3"/>
       <c r="G502" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H502" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17302,7 +17311,7 @@
       <c r="E503" s="3"/>
       <c r="G503" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H503" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17322,7 +17331,7 @@
       <c r="E504" s="3"/>
       <c r="G504" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H504" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17342,7 +17351,7 @@
       <c r="E505" s="3"/>
       <c r="G505" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H505" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17362,7 +17371,7 @@
       <c r="E506" s="3"/>
       <c r="G506" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H506" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17382,7 +17391,7 @@
       <c r="E507" s="3"/>
       <c r="G507" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H507" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17402,7 +17411,7 @@
       <c r="E508" s="3"/>
       <c r="G508" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H508" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17422,7 +17431,7 @@
       <c r="E509" s="3"/>
       <c r="G509" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H509" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17442,7 +17451,7 @@
       <c r="E510" s="3"/>
       <c r="G510" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H510" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17462,7 +17471,7 @@
       <c r="E511" s="3"/>
       <c r="G511" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H511" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17482,7 +17491,7 @@
       <c r="E512" s="3"/>
       <c r="G512" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H512" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17502,7 +17511,7 @@
       <c r="E513" s="3"/>
       <c r="G513" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H513" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17522,7 +17531,7 @@
       <c r="E514" s="3"/>
       <c r="G514" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H514" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17542,7 +17551,7 @@
       <c r="E515" s="3"/>
       <c r="G515" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H515" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17562,7 +17571,7 @@
       <c r="E516" s="3"/>
       <c r="G516" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H516" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17582,7 +17591,7 @@
       <c r="E517" s="3"/>
       <c r="G517" s="15">
         <f t="shared" si="15"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H517" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17602,7 +17611,7 @@
       <c r="E518" s="3"/>
       <c r="G518" s="15">
         <f t="shared" ref="G518:G581" si="17" xml:space="preserve"> G517 + IF(EXACT(H518, ""), 0, 1)</f>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H518" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17622,7 +17631,7 @@
       <c r="E519" s="3"/>
       <c r="G519" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H519" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17642,7 +17651,7 @@
       <c r="E520" s="3"/>
       <c r="G520" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H520" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17662,7 +17671,7 @@
       <c r="E521" s="3"/>
       <c r="G521" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H521" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17682,7 +17691,7 @@
       <c r="E522" s="3"/>
       <c r="G522" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H522" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17702,7 +17711,7 @@
       <c r="E523" s="3"/>
       <c r="G523" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H523" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17722,7 +17731,7 @@
       <c r="E524" s="3"/>
       <c r="G524" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="H524" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17744,7 +17753,7 @@
       <c r="E525" s="3"/>
       <c r="G525" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H525" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17764,7 +17773,7 @@
       <c r="E526" s="3"/>
       <c r="G526" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H526" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17784,7 +17793,7 @@
       <c r="E527" s="3"/>
       <c r="G527" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H527" s="16" t="str">
         <f t="shared" si="16"/>
@@ -17804,7 +17813,7 @@
       <c r="E528" s="3"/>
       <c r="G528" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H528" s="16" t="str">
         <f t="shared" ref="H528:H589" si="18">IF(EXACT(D528, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B528, ""), "null", B528), "::bigint, ", IF(EXACT(D528, ""), "null", D528), "::bigint, ", IF(EXACT(E528, ""), "null", E528), "::bigint);"))</f>
@@ -17824,7 +17833,7 @@
       <c r="E529" s="3"/>
       <c r="G529" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="H529" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17846,7 +17855,7 @@
       <c r="E530" s="3"/>
       <c r="G530" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H530" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17866,7 +17875,7 @@
       <c r="E531" s="3"/>
       <c r="G531" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H531" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17886,7 +17895,7 @@
       <c r="E532" s="3"/>
       <c r="G532" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H532" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17906,7 +17915,7 @@
       <c r="E533" s="3"/>
       <c r="G533" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H533" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17926,7 +17935,7 @@
       <c r="E534" s="3"/>
       <c r="G534" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H534" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17946,7 +17955,7 @@
       <c r="E535" s="3"/>
       <c r="G535" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H535" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17966,7 +17975,7 @@
       <c r="E536" s="3"/>
       <c r="G536" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H536" s="16" t="str">
         <f t="shared" si="18"/>
@@ -17986,7 +17995,7 @@
       <c r="E537" s="3"/>
       <c r="G537" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H537" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18006,7 +18015,7 @@
       <c r="E538" s="3"/>
       <c r="G538" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="H538" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18028,7 +18037,7 @@
       <c r="E539" s="3"/>
       <c r="G539" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="H539" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18048,7 +18057,7 @@
       <c r="E540" s="3"/>
       <c r="G540" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="H540" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18068,7 +18077,7 @@
       <c r="E541" s="3"/>
       <c r="G541" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="H541" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18088,7 +18097,7 @@
       <c r="E542" s="3"/>
       <c r="G542" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="H542" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18108,7 +18117,7 @@
       <c r="E543" s="3"/>
       <c r="G543" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="H543" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18128,7 +18137,7 @@
       <c r="E544" s="3"/>
       <c r="G544" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="H544" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18147,14 +18156,16 @@
       <c r="D545" s="3">
         <v>95000000000023</v>
       </c>
-      <c r="E545" s="3"/>
+      <c r="E545" s="3">
+        <v>46000000000033</v>
+      </c>
       <c r="G545" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000031</v>
       </c>
       <c r="H545" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000542::bigint, 95000000000023::bigint, null::bigint);</v>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000542::bigint, 95000000000023::bigint, 46000000000033::bigint);</v>
       </c>
     </row>
     <row r="546" spans="2:8" x14ac:dyDescent="0.2">
@@ -18170,7 +18181,7 @@
       <c r="E546" s="3"/>
       <c r="G546" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000031</v>
       </c>
       <c r="H546" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18190,7 +18201,7 @@
       <c r="E547" s="3"/>
       <c r="G547" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000030</v>
+        <v>225000000000031</v>
       </c>
       <c r="H547" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18212,7 +18223,7 @@
       <c r="E548" s="3"/>
       <c r="G548" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000031</v>
+        <v>225000000000032</v>
       </c>
       <c r="H548" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18232,7 +18243,7 @@
       <c r="E549" s="3"/>
       <c r="G549" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000031</v>
+        <v>225000000000032</v>
       </c>
       <c r="H549" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18254,7 +18265,7 @@
       <c r="E550" s="3"/>
       <c r="G550" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H550" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18274,7 +18285,7 @@
       <c r="E551" s="3"/>
       <c r="G551" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H551" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18294,7 +18305,7 @@
       <c r="E552" s="3"/>
       <c r="G552" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H552" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18314,7 +18325,7 @@
       <c r="E553" s="3"/>
       <c r="G553" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H553" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18334,7 +18345,7 @@
       <c r="E554" s="3"/>
       <c r="G554" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H554" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18354,7 +18365,7 @@
       <c r="E555" s="3"/>
       <c r="G555" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H555" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18374,7 +18385,7 @@
       <c r="E556" s="3"/>
       <c r="G556" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H556" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18394,7 +18405,7 @@
       <c r="E557" s="3"/>
       <c r="G557" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H557" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18414,7 +18425,7 @@
       <c r="E558" s="3"/>
       <c r="G558" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H558" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18434,7 +18445,7 @@
       <c r="E559" s="3"/>
       <c r="G559" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H559" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18454,7 +18465,7 @@
       <c r="E560" s="3"/>
       <c r="G560" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H560" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18474,7 +18485,7 @@
       <c r="E561" s="3"/>
       <c r="G561" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="H561" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18490,15 +18501,17 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M562, ""), "", '[1]Internal Career (Last Position)'!$C562)</f>
         <v>Adhe Kurniawan</v>
       </c>
-      <c r="D562" s="3"/>
+      <c r="D562" s="3">
+        <v>95000000000015</v>
+      </c>
       <c r="E562" s="3"/>
       <c r="G562" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H562" s="16" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000559::bigint, 95000000000015::bigint, null::bigint);</v>
       </c>
     </row>
     <row r="563" spans="2:8" x14ac:dyDescent="0.2">
@@ -18514,7 +18527,7 @@
       <c r="E563" s="3"/>
       <c r="G563" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H563" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18534,7 +18547,7 @@
       <c r="E564" s="3"/>
       <c r="G564" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H564" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18554,7 +18567,7 @@
       <c r="E565" s="3"/>
       <c r="G565" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H565" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18574,7 +18587,7 @@
       <c r="E566" s="3"/>
       <c r="G566" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H566" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18594,7 +18607,7 @@
       <c r="E567" s="3"/>
       <c r="G567" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H567" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18614,7 +18627,7 @@
       <c r="E568" s="3"/>
       <c r="G568" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H568" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18634,7 +18647,7 @@
       <c r="E569" s="3"/>
       <c r="G569" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H569" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18654,7 +18667,7 @@
       <c r="E570" s="3"/>
       <c r="G570" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H570" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18674,7 +18687,7 @@
       <c r="E571" s="3"/>
       <c r="G571" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H571" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18694,7 +18707,7 @@
       <c r="E572" s="3"/>
       <c r="G572" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H572" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18714,7 +18727,7 @@
       <c r="E573" s="3"/>
       <c r="G573" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H573" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18734,7 +18747,7 @@
       <c r="E574" s="3"/>
       <c r="G574" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H574" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18754,7 +18767,7 @@
       <c r="E575" s="3"/>
       <c r="G575" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H575" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18774,7 +18787,7 @@
       <c r="E576" s="3"/>
       <c r="G576" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H576" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18794,7 +18807,7 @@
       <c r="E577" s="3"/>
       <c r="G577" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H577" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18814,7 +18827,7 @@
       <c r="E578" s="3"/>
       <c r="G578" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H578" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18834,7 +18847,7 @@
       <c r="E579" s="3"/>
       <c r="G579" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H579" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18854,7 +18867,7 @@
       <c r="E580" s="3"/>
       <c r="G580" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H580" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18874,7 +18887,7 @@
       <c r="E581" s="3"/>
       <c r="G581" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H581" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18894,7 +18907,7 @@
       <c r="E582" s="3"/>
       <c r="G582" s="15">
         <f t="shared" ref="G582:G589" si="19" xml:space="preserve"> G581 + IF(EXACT(H582, ""), 0, 1)</f>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H582" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18914,7 +18927,7 @@
       <c r="E583" s="3"/>
       <c r="G583" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H583" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18934,7 +18947,7 @@
       <c r="E584" s="3"/>
       <c r="G584" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000032</v>
+        <v>225000000000034</v>
       </c>
       <c r="H584" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18956,7 +18969,7 @@
       <c r="E585" s="3"/>
       <c r="G585" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000033</v>
+        <v>225000000000035</v>
       </c>
       <c r="H585" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18976,7 +18989,7 @@
       <c r="E586" s="3"/>
       <c r="G586" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000033</v>
+        <v>225000000000035</v>
       </c>
       <c r="H586" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18996,7 +19009,7 @@
       <c r="E587" s="3"/>
       <c r="G587" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000033</v>
+        <v>225000000000035</v>
       </c>
       <c r="H587" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19016,7 +19029,7 @@
       <c r="E588" s="3"/>
       <c r="G588" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000033</v>
+        <v>225000000000035</v>
       </c>
       <c r="H588" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19036,7 +19049,7 @@
       <c r="E589" s="4"/>
       <c r="G589" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000033</v>
+        <v>225000000000035</v>
       </c>
       <c r="H589" s="17" t="str">
         <f t="shared" si="18"/>
@@ -21891,7 +21904,7 @@
       </c>
       <c r="F128" s="28" t="str">
         <f>IF(EXACT(MAIN!$H128, ""), "", ""&amp;MAIN!$E128)</f>
-        <v/>
+        <v>46000000000009</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
@@ -22511,21 +22524,21 @@
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B157" s="26">
+      <c r="B157" s="26" t="str">
         <f>IF(EXACT(MAIN!H157, ""), "", MAIN!G157)</f>
-        <v>225000000000009</v>
-      </c>
-      <c r="C157" s="3">
+        <v/>
+      </c>
+      <c r="C157" s="3" t="str">
         <f>IF(EXACT(MAIN!$H157, ""), "", MAIN!$B157)</f>
-        <v>164000000000154</v>
+        <v/>
       </c>
       <c r="D157" s="3" t="str">
         <f>IF(EXACT(MAIN!$H157, ""), "", MAIN!$C157)</f>
-        <v>Fikri</v>
-      </c>
-      <c r="E157" s="3">
+        <v/>
+      </c>
+      <c r="E157" s="3" t="str">
         <f>IF(EXACT(MAIN!$H157, ""), "", MAIN!$D157)</f>
-        <v>95000000000023</v>
+        <v/>
       </c>
       <c r="F157" s="28" t="str">
         <f>IF(EXACT(MAIN!$H157, ""), "", ""&amp;MAIN!$E157)</f>
@@ -22533,25 +22546,25 @@
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B158" s="26" t="str">
+      <c r="B158" s="26">
         <f>IF(EXACT(MAIN!H158, ""), "", MAIN!G158)</f>
-        <v/>
-      </c>
-      <c r="C158" s="3" t="str">
+        <v>225000000000009</v>
+      </c>
+      <c r="C158" s="3">
         <f>IF(EXACT(MAIN!$H158, ""), "", MAIN!$B158)</f>
-        <v/>
+        <v>164000000000155</v>
       </c>
       <c r="D158" s="3" t="str">
         <f>IF(EXACT(MAIN!$H158, ""), "", MAIN!$C158)</f>
-        <v/>
-      </c>
-      <c r="E158" s="3" t="str">
+        <v>M. Fikri Caesarandi Hasibuan</v>
+      </c>
+      <c r="E158" s="3">
         <f>IF(EXACT(MAIN!$H158, ""), "", MAIN!$D158)</f>
-        <v/>
+        <v>95000000000023</v>
       </c>
       <c r="F158" s="28" t="str">
         <f>IF(EXACT(MAIN!$H158, ""), "", ""&amp;MAIN!$E158)</f>
-        <v/>
+        <v>46000000000033</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
@@ -24245,7 +24258,7 @@
       </c>
       <c r="F235" s="28" t="str">
         <f>IF(EXACT(MAIN!$H235, ""), "", ""&amp;MAIN!$E235)</f>
-        <v/>
+        <v>46000000000033</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
@@ -25239,25 +25252,25 @@
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B281" s="26" t="str">
+      <c r="B281" s="26">
         <f>IF(EXACT(MAIN!H281, ""), "", MAIN!G281)</f>
-        <v/>
-      </c>
-      <c r="C281" s="3" t="str">
+        <v>225000000000017</v>
+      </c>
+      <c r="C281" s="3">
         <f>IF(EXACT(MAIN!$H281, ""), "", MAIN!$B281)</f>
-        <v/>
+        <v>164000000000278</v>
       </c>
       <c r="D281" s="3" t="str">
         <f>IF(EXACT(MAIN!$H281, ""), "", MAIN!$C281)</f>
-        <v/>
-      </c>
-      <c r="E281" s="3" t="str">
+        <v>T. Marungkil U. S. Sagala</v>
+      </c>
+      <c r="E281" s="3">
         <f>IF(EXACT(MAIN!$H281, ""), "", MAIN!$D281)</f>
-        <v/>
+        <v>95000000000018</v>
       </c>
       <c r="F281" s="28" t="str">
         <f>IF(EXACT(MAIN!$H281, ""), "", ""&amp;MAIN!$E281)</f>
-        <v/>
+        <v>46000000000009</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.2">
@@ -25747,7 +25760,7 @@
     <row r="304" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B304" s="26">
         <f>IF(EXACT(MAIN!H304, ""), "", MAIN!G304)</f>
-        <v>225000000000017</v>
+        <v>225000000000018</v>
       </c>
       <c r="C304" s="3">
         <f>IF(EXACT(MAIN!$H304, ""), "", MAIN!$B304)</f>
@@ -26759,7 +26772,7 @@
     <row r="350" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B350" s="26">
         <f>IF(EXACT(MAIN!H350, ""), "", MAIN!G350)</f>
-        <v>225000000000018</v>
+        <v>225000000000019</v>
       </c>
       <c r="C350" s="3">
         <f>IF(EXACT(MAIN!$H350, ""), "", MAIN!$B350)</f>
@@ -27727,7 +27740,7 @@
     <row r="394" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B394" s="26">
         <f>IF(EXACT(MAIN!H394, ""), "", MAIN!G394)</f>
-        <v>225000000000019</v>
+        <v>225000000000020</v>
       </c>
       <c r="C394" s="3">
         <f>IF(EXACT(MAIN!$H394, ""), "", MAIN!$B394)</f>
@@ -27859,7 +27872,7 @@
     <row r="400" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B400" s="26">
         <f>IF(EXACT(MAIN!H400, ""), "", MAIN!G400)</f>
-        <v>225000000000020</v>
+        <v>225000000000021</v>
       </c>
       <c r="C400" s="3">
         <f>IF(EXACT(MAIN!$H400, ""), "", MAIN!$B400)</f>
@@ -28211,7 +28224,7 @@
     <row r="416" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B416" s="26">
         <f>IF(EXACT(MAIN!H416, ""), "", MAIN!G416)</f>
-        <v>225000000000021</v>
+        <v>225000000000022</v>
       </c>
       <c r="C416" s="3">
         <f>IF(EXACT(MAIN!$H416, ""), "", MAIN!$B416)</f>
@@ -28541,7 +28554,7 @@
     <row r="431" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B431" s="26">
         <f>IF(EXACT(MAIN!H431, ""), "", MAIN!G431)</f>
-        <v>225000000000022</v>
+        <v>225000000000023</v>
       </c>
       <c r="C431" s="3">
         <f>IF(EXACT(MAIN!$H431, ""), "", MAIN!$B431)</f>
@@ -28783,7 +28796,7 @@
     <row r="442" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B442" s="26">
         <f>IF(EXACT(MAIN!H442, ""), "", MAIN!G442)</f>
-        <v>225000000000023</v>
+        <v>225000000000024</v>
       </c>
       <c r="C442" s="3">
         <f>IF(EXACT(MAIN!$H442, ""), "", MAIN!$B442)</f>
@@ -29069,7 +29082,7 @@
     <row r="455" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B455" s="26">
         <f>IF(EXACT(MAIN!H455, ""), "", MAIN!G455)</f>
-        <v>225000000000024</v>
+        <v>225000000000025</v>
       </c>
       <c r="C455" s="3">
         <f>IF(EXACT(MAIN!$H455, ""), "", MAIN!$B455)</f>
@@ -29839,7 +29852,7 @@
     <row r="490" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B490" s="26">
         <f>IF(EXACT(MAIN!H490, ""), "", MAIN!G490)</f>
-        <v>225000000000025</v>
+        <v>225000000000026</v>
       </c>
       <c r="C490" s="3">
         <f>IF(EXACT(MAIN!$H490, ""), "", MAIN!$B490)</f>
@@ -30059,7 +30072,7 @@
     <row r="500" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B500" s="26">
         <f>IF(EXACT(MAIN!H500, ""), "", MAIN!G500)</f>
-        <v>225000000000026</v>
+        <v>225000000000027</v>
       </c>
       <c r="C500" s="3">
         <f>IF(EXACT(MAIN!$H500, ""), "", MAIN!$B500)</f>
@@ -30609,7 +30622,7 @@
     <row r="525" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B525" s="26">
         <f>IF(EXACT(MAIN!H525, ""), "", MAIN!G525)</f>
-        <v>225000000000027</v>
+        <v>225000000000028</v>
       </c>
       <c r="C525" s="3">
         <f>IF(EXACT(MAIN!$H525, ""), "", MAIN!$B525)</f>
@@ -30719,7 +30732,7 @@
     <row r="530" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B530" s="26">
         <f>IF(EXACT(MAIN!H530, ""), "", MAIN!G530)</f>
-        <v>225000000000028</v>
+        <v>225000000000029</v>
       </c>
       <c r="C530" s="3">
         <f>IF(EXACT(MAIN!$H530, ""), "", MAIN!$B530)</f>
@@ -30917,7 +30930,7 @@
     <row r="539" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B539" s="26">
         <f>IF(EXACT(MAIN!H539, ""), "", MAIN!G539)</f>
-        <v>225000000000029</v>
+        <v>225000000000030</v>
       </c>
       <c r="C539" s="3">
         <f>IF(EXACT(MAIN!$H539, ""), "", MAIN!$B539)</f>
@@ -31049,7 +31062,7 @@
     <row r="545" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B545" s="26">
         <f>IF(EXACT(MAIN!H545, ""), "", MAIN!G545)</f>
-        <v>225000000000030</v>
+        <v>225000000000031</v>
       </c>
       <c r="C545" s="3">
         <f>IF(EXACT(MAIN!$H545, ""), "", MAIN!$B545)</f>
@@ -31065,7 +31078,7 @@
       </c>
       <c r="F545" s="28" t="str">
         <f>IF(EXACT(MAIN!$H545, ""), "", ""&amp;MAIN!$E545)</f>
-        <v/>
+        <v>46000000000033</v>
       </c>
     </row>
     <row r="546" spans="2:6" x14ac:dyDescent="0.2">
@@ -31115,7 +31128,7 @@
     <row r="548" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B548" s="26">
         <f>IF(EXACT(MAIN!H548, ""), "", MAIN!G548)</f>
-        <v>225000000000031</v>
+        <v>225000000000032</v>
       </c>
       <c r="C548" s="3">
         <f>IF(EXACT(MAIN!$H548, ""), "", MAIN!$B548)</f>
@@ -31159,7 +31172,7 @@
     <row r="550" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B550" s="26">
         <f>IF(EXACT(MAIN!H550, ""), "", MAIN!G550)</f>
-        <v>225000000000032</v>
+        <v>225000000000033</v>
       </c>
       <c r="C550" s="3">
         <f>IF(EXACT(MAIN!$H550, ""), "", MAIN!$B550)</f>
@@ -31421,21 +31434,21 @@
       </c>
     </row>
     <row r="562" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B562" s="26" t="str">
+      <c r="B562" s="26">
         <f>IF(EXACT(MAIN!H562, ""), "", MAIN!G562)</f>
-        <v/>
-      </c>
-      <c r="C562" s="3" t="str">
+        <v>225000000000034</v>
+      </c>
+      <c r="C562" s="3">
         <f>IF(EXACT(MAIN!$H562, ""), "", MAIN!$B562)</f>
-        <v/>
+        <v>164000000000559</v>
       </c>
       <c r="D562" s="3" t="str">
         <f>IF(EXACT(MAIN!$H562, ""), "", MAIN!$C562)</f>
-        <v/>
-      </c>
-      <c r="E562" s="3" t="str">
+        <v>Adhe Kurniawan</v>
+      </c>
+      <c r="E562" s="3">
         <f>IF(EXACT(MAIN!$H562, ""), "", MAIN!$D562)</f>
-        <v/>
+        <v>95000000000015</v>
       </c>
       <c r="F562" s="28" t="str">
         <f>IF(EXACT(MAIN!$H562, ""), "", ""&amp;MAIN!$E562)</f>
@@ -31929,7 +31942,7 @@
     <row r="585" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B585" s="26">
         <f>IF(EXACT(MAIN!H585, ""), "", MAIN!G585)</f>
-        <v>225000000000033</v>
+        <v>225000000000035</v>
       </c>
       <c r="C585" s="3">
         <f>IF(EXACT(MAIN!$H585, ""), "", MAIN!$B585)</f>

--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblMapper_WorkerCareerInternalToUserRole.xlsx
@@ -386,7 +386,98 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6902,6 +6993,72 @@
           </cell>
           <cell r="M588" t="str">
             <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000585::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+          </cell>
+        </row>
+        <row r="589">
+          <cell r="C589" t="str">
+            <v>Budi Sandika</v>
+          </cell>
+          <cell r="L589">
+            <v>164000000000586</v>
+          </cell>
+          <cell r="M589" t="str">
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, 32000000000586::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+          </cell>
+        </row>
+        <row r="590">
+          <cell r="C590" t="str">
+            <v>Fachri Azhar</v>
+          </cell>
+          <cell r="L590">
+            <v>164000000000587</v>
+          </cell>
+          <cell r="M590" t="str">
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+          </cell>
+        </row>
+        <row r="591">
+          <cell r="C591" t="str">
+            <v>Firmansyah Awaludin</v>
+          </cell>
+          <cell r="L591">
+            <v>164000000000588</v>
+          </cell>
+          <cell r="M591" t="str">
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+          </cell>
+        </row>
+        <row r="592">
+          <cell r="C592" t="str">
+            <v>Iman Faisal Abdurahman</v>
+          </cell>
+          <cell r="L592">
+            <v>164000000000589</v>
+          </cell>
+          <cell r="M592" t="str">
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+          </cell>
+        </row>
+        <row r="593">
+          <cell r="C593" t="str">
+            <v>Muhammad Irfan Alfikri</v>
+          </cell>
+          <cell r="L593">
+            <v>164000000000590</v>
+          </cell>
+          <cell r="M593" t="str">
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
+          </cell>
+        </row>
+        <row r="594">
+          <cell r="C594" t="str">
+            <v>Syafri Johansah</v>
+          </cell>
+          <cell r="L594">
+            <v>164000000000591</v>
+          </cell>
+          <cell r="M594" t="str">
+            <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblWorkerCareerInternal_SET"(varSystemLoginSession, null, null, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null, varInstitutionBranchID, varBaseCurrencyID, null::bigint, 163000000000002::bigint, null::bigint, 160000000000001::bigint, null::timestamptz, '9999-12-31 23:59:59+07'::timestamptz, null::bigint);</v>
           </cell>
         </row>
       </sheetData>
@@ -7201,14 +7358,14 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:H589"/>
+  <dimension ref="B1:H594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C579" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D230" sqref="D230"/>
       <selection pane="topRight" activeCell="D230" sqref="D230"/>
       <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
-      <selection pane="bottomRight" activeCell="C349" sqref="C349"/>
+      <selection pane="bottomRight" activeCell="H591" sqref="H591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17816,7 +17973,7 @@
         <v>225000000000028</v>
       </c>
       <c r="H528" s="16" t="str">
-        <f t="shared" ref="H528:H589" si="18">IF(EXACT(D528, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B528, ""), "null", B528), "::bigint, ", IF(EXACT(D528, ""), "null", D528), "::bigint, ", IF(EXACT(E528, ""), "null", E528), "::bigint);"))</f>
+        <f t="shared" ref="H528:H591" si="18">IF(EXACT(D528, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B528, ""), "null", B528), "::bigint, ", IF(EXACT(D528, ""), "null", D528), "::bigint, ", IF(EXACT(E528, ""), "null", E528), "::bigint);"))</f>
         <v/>
       </c>
     </row>
@@ -18623,15 +18780,17 @@
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M568, ""), "", '[1]Internal Career (Last Position)'!$C568)</f>
         <v>Eka Kurniawan</v>
       </c>
-      <c r="D568" s="3"/>
+      <c r="D568" s="3">
+        <v>95000000000041</v>
+      </c>
       <c r="E568" s="3"/>
       <c r="G568" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H568" s="16" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>PERFORM "SchData-OLTP-HumanResource"."Func_TblMapper_WorkerCareerInternalToUserRole_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 164000000000565::bigint, 95000000000041::bigint, null::bigint);</v>
       </c>
     </row>
     <row r="569" spans="2:8" x14ac:dyDescent="0.2">
@@ -18647,7 +18806,7 @@
       <c r="E569" s="3"/>
       <c r="G569" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H569" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18667,7 +18826,7 @@
       <c r="E570" s="3"/>
       <c r="G570" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H570" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18687,7 +18846,7 @@
       <c r="E571" s="3"/>
       <c r="G571" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H571" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18707,7 +18866,7 @@
       <c r="E572" s="3"/>
       <c r="G572" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H572" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18727,7 +18886,7 @@
       <c r="E573" s="3"/>
       <c r="G573" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H573" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18747,7 +18906,7 @@
       <c r="E574" s="3"/>
       <c r="G574" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H574" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18767,7 +18926,7 @@
       <c r="E575" s="3"/>
       <c r="G575" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H575" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18787,7 +18946,7 @@
       <c r="E576" s="3"/>
       <c r="G576" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H576" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18807,7 +18966,7 @@
       <c r="E577" s="3"/>
       <c r="G577" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H577" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18827,7 +18986,7 @@
       <c r="E578" s="3"/>
       <c r="G578" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H578" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18847,7 +19006,7 @@
       <c r="E579" s="3"/>
       <c r="G579" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H579" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18867,7 +19026,7 @@
       <c r="E580" s="3"/>
       <c r="G580" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H580" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18887,7 +19046,7 @@
       <c r="E581" s="3"/>
       <c r="G581" s="15">
         <f t="shared" si="17"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H581" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18906,8 +19065,8 @@
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="G582" s="15">
-        <f t="shared" ref="G582:G589" si="19" xml:space="preserve"> G581 + IF(EXACT(H582, ""), 0, 1)</f>
-        <v>225000000000034</v>
+        <f t="shared" ref="G582:G593" si="19" xml:space="preserve"> G581 + IF(EXACT(H582, ""), 0, 1)</f>
+        <v>225000000000035</v>
       </c>
       <c r="H582" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18927,7 +19086,7 @@
       <c r="E583" s="3"/>
       <c r="G583" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H583" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18947,7 +19106,7 @@
       <c r="E584" s="3"/>
       <c r="G584" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000034</v>
+        <v>225000000000035</v>
       </c>
       <c r="H584" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18969,7 +19128,7 @@
       <c r="E585" s="3"/>
       <c r="G585" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000035</v>
+        <v>225000000000036</v>
       </c>
       <c r="H585" s="16" t="str">
         <f t="shared" si="18"/>
@@ -18989,7 +19148,7 @@
       <c r="E586" s="3"/>
       <c r="G586" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000035</v>
+        <v>225000000000036</v>
       </c>
       <c r="H586" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19009,7 +19168,7 @@
       <c r="E587" s="3"/>
       <c r="G587" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000035</v>
+        <v>225000000000036</v>
       </c>
       <c r="H587" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19029,7 +19188,7 @@
       <c r="E588" s="3"/>
       <c r="G588" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000035</v>
+        <v>225000000000036</v>
       </c>
       <c r="H588" s="16" t="str">
         <f t="shared" si="18"/>
@@ -19037,64 +19196,169 @@
       </c>
     </row>
     <row r="589" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B589" s="19" t="str">
+      <c r="B589" s="18">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M589, ""), "", '[1]Internal Career (Last Position)'!$L589)</f>
-        <v/>
+        <v>164000000000586</v>
       </c>
       <c r="C589" s="18" t="str">
         <f>IF(EXACT('[1]Internal Career (Last Position)'!$M589, ""), "", '[1]Internal Career (Last Position)'!$C589)</f>
-        <v/>
-      </c>
-      <c r="D589" s="4"/>
-      <c r="E589" s="4"/>
+        <v>Budi Sandika</v>
+      </c>
+      <c r="D589" s="3"/>
+      <c r="E589" s="3"/>
       <c r="G589" s="15">
         <f t="shared" si="19"/>
-        <v>225000000000035</v>
-      </c>
-      <c r="H589" s="17" t="str">
+        <v>225000000000036</v>
+      </c>
+      <c r="H589" s="16" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B590" s="18">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M590, ""), "", '[1]Internal Career (Last Position)'!$L590)</f>
+        <v>164000000000587</v>
+      </c>
+      <c r="C590" s="18" t="str">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M590, ""), "", '[1]Internal Career (Last Position)'!$C590)</f>
+        <v>Fachri Azhar</v>
+      </c>
+      <c r="D590" s="3"/>
+      <c r="E590" s="3"/>
+      <c r="G590" s="15">
+        <f t="shared" si="19"/>
+        <v>225000000000036</v>
+      </c>
+      <c r="H590" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B591" s="18">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M591, ""), "", '[1]Internal Career (Last Position)'!$L591)</f>
+        <v>164000000000588</v>
+      </c>
+      <c r="C591" s="18" t="str">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M591, ""), "", '[1]Internal Career (Last Position)'!$C591)</f>
+        <v>Firmansyah Awaludin</v>
+      </c>
+      <c r="D591" s="3"/>
+      <c r="E591" s="3"/>
+      <c r="G591" s="15">
+        <f t="shared" si="19"/>
+        <v>225000000000036</v>
+      </c>
+      <c r="H591" s="16" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B592" s="18">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M592, ""), "", '[1]Internal Career (Last Position)'!$L592)</f>
+        <v>164000000000589</v>
+      </c>
+      <c r="C592" s="18" t="str">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M592, ""), "", '[1]Internal Career (Last Position)'!$C592)</f>
+        <v>Iman Faisal Abdurahman</v>
+      </c>
+      <c r="D592" s="3"/>
+      <c r="E592" s="3"/>
+      <c r="G592" s="15">
+        <f t="shared" si="19"/>
+        <v>225000000000036</v>
+      </c>
+      <c r="H592" s="16" t="str">
+        <f t="shared" ref="H592:H593" si="20">IF(EXACT(D592, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B592, ""), "null", B592), "::bigint, ", IF(EXACT(D592, ""), "null", D592), "::bigint, ", IF(EXACT(E592, ""), "null", E592), "::bigint);"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B593" s="18">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M593, ""), "", '[1]Internal Career (Last Position)'!$L593)</f>
+        <v>164000000000590</v>
+      </c>
+      <c r="C593" s="18" t="str">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M593, ""), "", '[1]Internal Career (Last Position)'!$C593)</f>
+        <v>Muhammad Irfan Alfikri</v>
+      </c>
+      <c r="D593" s="3"/>
+      <c r="E593" s="3"/>
+      <c r="G593" s="15">
+        <f t="shared" si="19"/>
+        <v>225000000000036</v>
+      </c>
+      <c r="H593" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B594" s="19">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M594, ""), "", '[1]Internal Career (Last Position)'!$L594)</f>
+        <v>164000000000591</v>
+      </c>
+      <c r="C594" s="19" t="str">
+        <f>IF(EXACT('[1]Internal Career (Last Position)'!$M594, ""), "", '[1]Internal Career (Last Position)'!$C594)</f>
+        <v>Syafri Johansah</v>
+      </c>
+      <c r="D594" s="4"/>
+      <c r="E594" s="4"/>
+      <c r="G594" s="15">
+        <f t="shared" ref="G590:G595" si="21" xml:space="preserve"> G593 + IF(EXACT(H594, ""), 0, 1)</f>
+        <v>225000000000036</v>
+      </c>
+      <c r="H594" s="17" t="str">
+        <f t="shared" ref="H590:H595" si="22">IF(EXACT(D594, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-HumanResource"".""Func_TblMapper_WorkerCareerInternalToUserRole_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, ", IF(EXACT(B594, ""), "null", B594), "::bigint, ", IF(EXACT(D594, ""), "null", D594), "::bigint, ", IF(EXACT(E594, ""), "null", E594), "::bigint);"))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>G11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>G12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G18">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>EXACT(G4, G5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>EXACT(G13, G14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>EXACT(G15, G16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G28">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>EXACT(G18, G19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G28">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>EXACT(G3, G4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G589">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="G29:G593">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>EXACT(G28, G29)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G594">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>EXACT(G593, G594)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31566,21 +31830,21 @@
       </c>
     </row>
     <row r="568" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B568" s="26" t="str">
+      <c r="B568" s="26">
         <f>IF(EXACT(MAIN!H568, ""), "", MAIN!G568)</f>
-        <v/>
-      </c>
-      <c r="C568" s="3" t="str">
+        <v>225000000000035</v>
+      </c>
+      <c r="C568" s="3">
         <f>IF(EXACT(MAIN!$H568, ""), "", MAIN!$B568)</f>
-        <v/>
+        <v>164000000000565</v>
       </c>
       <c r="D568" s="3" t="str">
         <f>IF(EXACT(MAIN!$H568, ""), "", MAIN!$C568)</f>
-        <v/>
-      </c>
-      <c r="E568" s="3" t="str">
+        <v>Eka Kurniawan</v>
+      </c>
+      <c r="E568" s="3">
         <f>IF(EXACT(MAIN!$H568, ""), "", MAIN!$D568)</f>
-        <v/>
+        <v>95000000000041</v>
       </c>
       <c r="F568" s="28" t="str">
         <f>IF(EXACT(MAIN!$H568, ""), "", ""&amp;MAIN!$E568)</f>
@@ -31942,7 +32206,7 @@
     <row r="585" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B585" s="26">
         <f>IF(EXACT(MAIN!H585, ""), "", MAIN!G585)</f>
-        <v>225000000000035</v>
+        <v>225000000000036</v>
       </c>
       <c r="C585" s="3">
         <f>IF(EXACT(MAIN!$H585, ""), "", MAIN!$B585)</f>
